--- a/AlternativeLinearInterpolation.xlsx
+++ b/AlternativeLinearInterpolation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{EC8882F0-A692-4D10-A122-C2641FAA17F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63FF1CD-4C5A-47E5-8A1A-8D685089D565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -19,11 +19,14 @@
   </sheets>
   <definedNames>
     <definedName name="_nData">Report!$E$7:$E$18</definedName>
+    <definedName name="_nmax">Report!$I$6</definedName>
+    <definedName name="_nmin">Report!$I$5</definedName>
+    <definedName name="_nx">Report!$I$7</definedName>
     <definedName name="HD_Date">_xlfn.LET(_xlpm.dt, TODAY(),      _xlpm.y,  YEAR(_xlpm.dt),      _xlpm.m,  MONTH(_xlpm.dt),      _xlpm.d,  DAY(_xlpm.dt),      TEXT(DATE(_xlpm.y,_xlpm.m,_xlpm.d),"dd-mmm-yyyy")     )</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId4"/>
+    <pivotCache cacheId="8" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -65,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t>FROM:</t>
   </si>
@@ -128,6 +131,24 @@
   </si>
   <si>
     <t>Metadata Tabs</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Down</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>var</t>
   </si>
 </sst>
 </file>
@@ -312,7 +333,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="8"/>
@@ -322,7 +343,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Comment" xfId="9" xr:uid="{C4DDEBC2-DCD2-4316-AAE7-A5F6C47DBA99}"/>
@@ -908,7 +928,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="B17:F28" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0">
@@ -1200,15 +1220,15 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFCCFFCC"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1217,69 +1237,114 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>20-Aug-2024</v>
+        <v>21-Aug-2024</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5">
+        <f>MIN(_nData)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6">
+        <f>MAX(E7:E17)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="b">
+        <f>IF(_nx&gt;_nmax,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" t="b">
+        <f>_nx&lt;_nmin</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" t="b">
+        <f>IF(MEDIAN(_nmin,_nmax,_nx)=_nx,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E12">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E13">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E14">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E15">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E16">
         <v>10</v>
       </c>
@@ -1337,7 +1402,7 @@
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>20-Aug-2024</v>
+        <v>21-Aug-2024</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -1473,19 +1538,15 @@
       <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9">
+      <c r="F20">
         <v>1</v>
       </c>
     </row>
@@ -1493,11 +1554,10 @@
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9">
+      <c r="E21">
         <v>2</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21">
         <v>2</v>
       </c>
     </row>
@@ -1505,19 +1565,15 @@
       <c r="B22" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23">
         <v>3</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9">
+      <c r="F23">
         <v>3</v>
       </c>
     </row>
@@ -1525,11 +1581,10 @@
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9">
+      <c r="E24">
         <v>4</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24">
         <v>4</v>
       </c>
     </row>
@@ -1537,19 +1592,15 @@
       <c r="B25" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26">
         <v>5</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9">
+      <c r="F26">
         <v>5</v>
       </c>
     </row>
@@ -1557,11 +1608,10 @@
       <c r="C27">
         <v>2</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9">
+      <c r="E27">
         <v>6</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27">
         <v>6</v>
       </c>
     </row>
@@ -1569,13 +1619,13 @@
       <c r="B28" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28">
         <v>9</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28">
         <v>12</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28">
         <v>21</v>
       </c>
     </row>
@@ -1648,7 +1698,7 @@
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>20-Aug-2024</v>
+        <v>21-Aug-2024</v>
       </c>
       <c r="C3" s="2"/>
     </row>

--- a/AlternativeLinearInterpolation.xlsx
+++ b/AlternativeLinearInterpolation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63FF1CD-4C5A-47E5-8A1A-8D685089D565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E605CBB-1677-45D7-A4AD-EA6BED159BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
   <si>
     <t>FROM:</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>var</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -240,7 +246,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,6 +295,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -333,7 +351,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="8"/>
@@ -343,6 +361,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Comment" xfId="9" xr:uid="{C4DDEBC2-DCD2-4316-AAE7-A5F6C47DBA99}"/>
@@ -636,7 +659,1885 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Report!$J$19:$J$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="147"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.5000000000000098</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.8000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.9000000000000101</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.0000000000000098</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.2000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.3000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.4000000000000101</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.5000000000000098</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.6000000000000103</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.7000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.8000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.9000000000000101</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.0000000000000107</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.1000000000000103</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8.2000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8.3000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8.4000000000000092</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8.5000000000000107</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.6000000000000103</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.7000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8.8000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8.9000000000000092</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.0000000000000107</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.1000000000000103</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.2000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9.3000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9.4000000000000092</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9.5000000000000107</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9.6000000000000103</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9.7000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9.8000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9.9000000000000092</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>15.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Report!$K$19:$K$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="147"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.0000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.5000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14.599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17.800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18.699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22.300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>23.199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>24.1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>26.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>27.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>28.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>29.4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>31.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>32.699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>33.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>34.9</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>37.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>38.600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>39.899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>41.2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42.500000000000128</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43.8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45.100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>46.400000000000119</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>47.700000000000131</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>49.000000000000142</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>50.499999999999986</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>52.000000000000142</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>53.500000000000142</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>55.000000000000142</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>56.500000000000142</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>58.000000000000156</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>59.500000000000142</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>61.000000000000142</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>62.500000000000156</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>64.000000000000171</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>65.700000000000188</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>67.400000000000176</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>69.100000000000165</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>70.800000000000153</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>72.500000000000171</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>74.200000000000188</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>75.900000000000176</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>77.600000000000165</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79.300000000000153</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81.000000000000199</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82.900000000000205</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>84.80000000000021</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>86.700000000000188</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>88.600000000000193</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>90.500000000000227</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>92.400000000000205</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>94.30000000000021</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>96.200000000000188</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>98.100000000000193</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>102.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>104.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>106.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>108.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>110.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>112.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>114.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>116.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>118.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>120.99999999999997</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>123.29999999999998</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>125.59999999999997</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>127.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>130.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>132.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>134.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>137.09999999999997</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>139.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>141.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>146.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>148.59999999999997</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>150.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>153.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>155.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>157.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>160.09999999999997</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>162.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>164.7</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>169.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>171.59999999999997</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>173.90000000000003</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>176.2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>178.5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>180.8</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>183.09999999999997</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>185.40000000000003</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>187.7</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>192.3</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>194.59999999999997</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>196.90000000000003</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>199.2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>201.5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>203.8</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>206.09999999999997</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>208.40000000000003</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>210.7</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>215.3</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>217.59999999999997</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>219.90000000000003</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>222.2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>224.5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>226.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4FC7-48CD-97E6-9CF0E2828F83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Report!$E$7:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Report!$F$7:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4FC7-48CD-97E6-9CF0E2828F83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2122342575"/>
+        <c:axId val="2122341135"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2122342575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2122341135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2122341135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2122342575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEF65C8D-88AD-137C-96CF-1A2A5069947F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1220,15 +3121,15 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFCCFFCC"/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:L229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1237,14 +3138,14 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1254,7 +3155,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H5" t="s">
         <v>24</v>
       </c>
@@ -1263,7 +3164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
         <v>25</v>
       </c>
@@ -1272,44 +3173,70 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E7">
         <v>1</v>
       </c>
+      <c r="F7">
+        <f>E7^2</f>
+        <v>1</v>
+      </c>
       <c r="H7" t="s">
         <v>26</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E8">
         <v>2</v>
       </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F18" si="0">E8^2</f>
+        <v>4</v>
+      </c>
       <c r="H8" t="s">
         <v>21</v>
       </c>
       <c r="I8" t="b">
         <f>IF(_nx&gt;_nmax,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J8" cm="1">
+        <f t="array" ref="J8">TREND(F17:F18,E17:E18,_nx)</f>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E9">
         <v>3</v>
       </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="H9" t="s">
         <v>22</v>
       </c>
       <c r="I9" t="b">
         <f>_nx&lt;_nmin</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J9" cm="1">
+        <f t="array" ref="J9">TREND(F7:F8,E7:E8,_nx)</f>
+        <v>58</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>4</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
         <v>23</v>
@@ -1318,49 +3245,1817 @@
         <f>IF(MEDIAN(_nmin,_nmax,_nx)=_nx,TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="9">
+        <f>_xlfn.XMATCH(_nx,_nData,-1)</f>
+        <v>12</v>
+      </c>
+      <c r="K10" s="10" cm="1">
+        <f t="array" ref="K10:L10">J10+{0,1}</f>
+        <v>12</v>
+      </c>
+      <c r="L10" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" cm="1">
+        <f t="array" ref="K11">INDEX(_nData,K10)</f>
+        <v>12</v>
+      </c>
+      <c r="L11" t="e" cm="1">
+        <f t="array" ref="L11">INDEX(_nData,L10)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E12">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="J12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" cm="1">
+        <f t="array" ref="K12">INDEX($F$7:$F$18,K10)</f>
+        <v>144</v>
+      </c>
+      <c r="L12" t="e" cm="1">
+        <f t="array" ref="L12">INDEX($F$7:$F$18,L10)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E13">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="K13" t="e" cm="1">
+        <f t="array" ref="K13">TREND(K12:L12,K11:L11,_nx)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E14">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="I14" cm="1">
+        <f t="array" ref="I14">_xlfn.SWITCH(TRUE,I8,J8,I9,J9,K13)</f>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E15">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E16">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E17">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E18">
         <v>12</v>
       </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="K18">
+        <f>I14</f>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <f t="dataTable" ref="K19:K229" dt2D="0" dtr="0" r1="I7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K20">
+        <v>1.3000000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>1.2</v>
+      </c>
+      <c r="K21">
+        <v>1.5999999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>1.3</v>
+      </c>
+      <c r="K22">
+        <v>1.9000000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>1.4</v>
+      </c>
+      <c r="K23">
+        <v>2.1999999999999993</v>
+      </c>
+    </row>
+    <row r="24" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>1.5</v>
+      </c>
+      <c r="K24">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="25" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>1.6</v>
+      </c>
+      <c r="K25">
+        <v>2.8000000000000007</v>
+      </c>
+    </row>
+    <row r="26" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>1.7</v>
+      </c>
+      <c r="K26">
+        <v>3.0999999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>1.8</v>
+      </c>
+      <c r="K27">
+        <v>3.4000000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>1.9</v>
+      </c>
+      <c r="K28">
+        <v>3.6999999999999993</v>
+      </c>
+    </row>
+    <row r="29" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>2.1</v>
+      </c>
+      <c r="K30">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="31" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K31">
+        <v>5.0000000000000018</v>
+      </c>
+    </row>
+    <row r="32" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K32">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="33" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>2.4</v>
+      </c>
+      <c r="K33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>2.5</v>
+      </c>
+      <c r="K34">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="35" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>2.6</v>
+      </c>
+      <c r="K35">
+        <v>7.0000000000000018</v>
+      </c>
+    </row>
+    <row r="36" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>2.7</v>
+      </c>
+      <c r="K36">
+        <v>7.5000000000000018</v>
+      </c>
+    </row>
+    <row r="37" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <v>2.8</v>
+      </c>
+      <c r="K37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <v>2.9</v>
+      </c>
+      <c r="K38">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="39" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <v>3</v>
+      </c>
+      <c r="K39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <v>3.1</v>
+      </c>
+      <c r="K40">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="41" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <v>3.2</v>
+      </c>
+      <c r="K41">
+        <v>10.400000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <v>3.3</v>
+      </c>
+      <c r="K42">
+        <v>11.099999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <v>3.4</v>
+      </c>
+      <c r="K43">
+        <v>11.799999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <v>3.5</v>
+      </c>
+      <c r="K44">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="45" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J45">
+        <v>3.6</v>
+      </c>
+      <c r="K45">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="46" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <v>3.7</v>
+      </c>
+      <c r="K46">
+        <v>13.900000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <v>3.8</v>
+      </c>
+      <c r="K47">
+        <v>14.599999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <v>3.9</v>
+      </c>
+      <c r="K48">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="49" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <v>4</v>
+      </c>
+      <c r="K49">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K50">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J51">
+        <v>4.2</v>
+      </c>
+      <c r="K51">
+        <v>17.800000000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J52">
+        <v>4.3</v>
+      </c>
+      <c r="K52">
+        <v>18.699999999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J53">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K53">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J54">
+        <v>4.5</v>
+      </c>
+      <c r="K54">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="55" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J55">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K55">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="56" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J56">
+        <v>4.7</v>
+      </c>
+      <c r="K56">
+        <v>22.300000000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J57">
+        <v>4.8</v>
+      </c>
+      <c r="K57">
+        <v>23.199999999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J58">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K58">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="59" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J59">
+        <v>5</v>
+      </c>
+      <c r="K59">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J60">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K60">
+        <v>26.099999999999994</v>
+      </c>
+    </row>
+    <row r="61" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J61">
+        <v>5.2</v>
+      </c>
+      <c r="K61">
+        <v>27.200000000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J62">
+        <v>5.3</v>
+      </c>
+      <c r="K62">
+        <v>28.299999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J63">
+        <v>5.4</v>
+      </c>
+      <c r="K63">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="64" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J64">
+        <v>5.5</v>
+      </c>
+      <c r="K64">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="65" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J65">
+        <v>5.6</v>
+      </c>
+      <c r="K65">
+        <v>31.599999999999994</v>
+      </c>
+    </row>
+    <row r="66" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J66">
+        <v>5.7</v>
+      </c>
+      <c r="K66">
+        <v>32.699999999999996</v>
+      </c>
+    </row>
+    <row r="67" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J67">
+        <v>5.8</v>
+      </c>
+      <c r="K67">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J68">
+        <v>5.9</v>
+      </c>
+      <c r="K68">
+        <v>34.9</v>
+      </c>
+    </row>
+    <row r="69" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J69">
+        <v>6</v>
+      </c>
+      <c r="K69">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J70">
+        <v>6.1</v>
+      </c>
+      <c r="K70">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J71">
+        <v>6.2</v>
+      </c>
+      <c r="K71">
+        <v>38.600000000000009</v>
+      </c>
+    </row>
+    <row r="72" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J72">
+        <v>6.3</v>
+      </c>
+      <c r="K72">
+        <v>39.899999999999991</v>
+      </c>
+    </row>
+    <row r="73" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J73">
+        <v>6.4</v>
+      </c>
+      <c r="K73">
+        <v>41.2</v>
+      </c>
+    </row>
+    <row r="74" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J74">
+        <v>6.5000000000000098</v>
+      </c>
+      <c r="K74">
+        <v>42.500000000000128</v>
+      </c>
+    </row>
+    <row r="75" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J75">
+        <v>6.6</v>
+      </c>
+      <c r="K75">
+        <v>43.8</v>
+      </c>
+    </row>
+    <row r="76" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J76">
+        <v>6.7</v>
+      </c>
+      <c r="K76">
+        <v>45.100000000000009</v>
+      </c>
+    </row>
+    <row r="77" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J77">
+        <v>6.8000000000000096</v>
+      </c>
+      <c r="K77">
+        <v>46.400000000000119</v>
+      </c>
+    </row>
+    <row r="78" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J78">
+        <v>6.9000000000000101</v>
+      </c>
+      <c r="K78">
+        <v>47.700000000000131</v>
+      </c>
+    </row>
+    <row r="79" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J79">
+        <v>7.0000000000000098</v>
+      </c>
+      <c r="K79">
+        <v>49.000000000000142</v>
+      </c>
+    </row>
+    <row r="80" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J80">
+        <v>7.1</v>
+      </c>
+      <c r="K80">
+        <v>50.499999999999986</v>
+      </c>
+    </row>
+    <row r="81" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J81">
+        <v>7.2000000000000099</v>
+      </c>
+      <c r="K81">
+        <v>52.000000000000142</v>
+      </c>
+    </row>
+    <row r="82" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J82">
+        <v>7.3000000000000096</v>
+      </c>
+      <c r="K82">
+        <v>53.500000000000142</v>
+      </c>
+    </row>
+    <row r="83" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J83">
+        <v>7.4000000000000101</v>
+      </c>
+      <c r="K83">
+        <v>55.000000000000142</v>
+      </c>
+    </row>
+    <row r="84" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J84">
+        <v>7.5000000000000098</v>
+      </c>
+      <c r="K84">
+        <v>56.500000000000142</v>
+      </c>
+    </row>
+    <row r="85" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J85">
+        <v>7.6000000000000103</v>
+      </c>
+      <c r="K85">
+        <v>58.000000000000156</v>
+      </c>
+    </row>
+    <row r="86" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J86">
+        <v>7.7000000000000099</v>
+      </c>
+      <c r="K86">
+        <v>59.500000000000142</v>
+      </c>
+    </row>
+    <row r="87" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J87">
+        <v>7.8000000000000096</v>
+      </c>
+      <c r="K87">
+        <v>61.000000000000142</v>
+      </c>
+    </row>
+    <row r="88" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J88">
+        <v>7.9000000000000101</v>
+      </c>
+      <c r="K88">
+        <v>62.500000000000156</v>
+      </c>
+    </row>
+    <row r="89" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J89">
+        <v>8.0000000000000107</v>
+      </c>
+      <c r="K89">
+        <v>64.000000000000171</v>
+      </c>
+    </row>
+    <row r="90" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J90">
+        <v>8.1000000000000103</v>
+      </c>
+      <c r="K90">
+        <v>65.700000000000188</v>
+      </c>
+    </row>
+    <row r="91" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J91">
+        <v>8.2000000000000099</v>
+      </c>
+      <c r="K91">
+        <v>67.400000000000176</v>
+      </c>
+    </row>
+    <row r="92" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J92">
+        <v>8.3000000000000096</v>
+      </c>
+      <c r="K92">
+        <v>69.100000000000165</v>
+      </c>
+    </row>
+    <row r="93" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J93">
+        <v>8.4000000000000092</v>
+      </c>
+      <c r="K93">
+        <v>70.800000000000153</v>
+      </c>
+    </row>
+    <row r="94" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J94">
+        <v>8.5000000000000107</v>
+      </c>
+      <c r="K94">
+        <v>72.500000000000171</v>
+      </c>
+    </row>
+    <row r="95" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J95">
+        <v>8.6000000000000103</v>
+      </c>
+      <c r="K95">
+        <v>74.200000000000188</v>
+      </c>
+    </row>
+    <row r="96" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J96">
+        <v>8.7000000000000099</v>
+      </c>
+      <c r="K96">
+        <v>75.900000000000176</v>
+      </c>
+    </row>
+    <row r="97" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J97">
+        <v>8.8000000000000096</v>
+      </c>
+      <c r="K97">
+        <v>77.600000000000165</v>
+      </c>
+    </row>
+    <row r="98" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J98">
+        <v>8.9000000000000092</v>
+      </c>
+      <c r="K98">
+        <v>79.300000000000153</v>
+      </c>
+    </row>
+    <row r="99" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J99">
+        <v>9.0000000000000107</v>
+      </c>
+      <c r="K99">
+        <v>81.000000000000199</v>
+      </c>
+    </row>
+    <row r="100" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J100">
+        <v>9.1000000000000103</v>
+      </c>
+      <c r="K100">
+        <v>82.900000000000205</v>
+      </c>
+    </row>
+    <row r="101" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J101">
+        <v>9.2000000000000099</v>
+      </c>
+      <c r="K101">
+        <v>84.80000000000021</v>
+      </c>
+    </row>
+    <row r="102" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J102">
+        <v>9.3000000000000096</v>
+      </c>
+      <c r="K102">
+        <v>86.700000000000188</v>
+      </c>
+    </row>
+    <row r="103" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J103">
+        <v>9.4000000000000092</v>
+      </c>
+      <c r="K103">
+        <v>88.600000000000193</v>
+      </c>
+    </row>
+    <row r="104" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J104">
+        <v>9.5000000000000107</v>
+      </c>
+      <c r="K104">
+        <v>90.500000000000227</v>
+      </c>
+    </row>
+    <row r="105" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J105">
+        <v>9.6000000000000103</v>
+      </c>
+      <c r="K105">
+        <v>92.400000000000205</v>
+      </c>
+    </row>
+    <row r="106" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J106">
+        <v>9.7000000000000099</v>
+      </c>
+      <c r="K106">
+        <v>94.30000000000021</v>
+      </c>
+    </row>
+    <row r="107" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J107">
+        <v>9.8000000000000096</v>
+      </c>
+      <c r="K107">
+        <v>96.200000000000188</v>
+      </c>
+    </row>
+    <row r="108" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J108">
+        <v>9.9000000000000092</v>
+      </c>
+      <c r="K108">
+        <v>98.100000000000193</v>
+      </c>
+    </row>
+    <row r="109" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J109">
+        <v>10</v>
+      </c>
+      <c r="K109">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J110">
+        <v>10.1</v>
+      </c>
+      <c r="K110">
+        <v>102.1</v>
+      </c>
+    </row>
+    <row r="111" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J111">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="K111">
+        <v>104.19999999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J112">
+        <v>10.3</v>
+      </c>
+      <c r="K112">
+        <v>106.30000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J113">
+        <v>10.4</v>
+      </c>
+      <c r="K113">
+        <v>108.4</v>
+      </c>
+    </row>
+    <row r="114" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J114">
+        <v>10.5</v>
+      </c>
+      <c r="K114">
+        <v>110.5</v>
+      </c>
+    </row>
+    <row r="115" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J115">
+        <v>10.6</v>
+      </c>
+      <c r="K115">
+        <v>112.6</v>
+      </c>
+    </row>
+    <row r="116" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J116">
+        <v>10.7</v>
+      </c>
+      <c r="K116">
+        <v>114.69999999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J117">
+        <v>10.8</v>
+      </c>
+      <c r="K117">
+        <v>116.80000000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J118">
+        <v>10.9</v>
+      </c>
+      <c r="K118">
+        <v>118.9</v>
+      </c>
+    </row>
+    <row r="119" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J119">
+        <v>11</v>
+      </c>
+      <c r="K119">
+        <v>120.99999999999997</v>
+      </c>
+    </row>
+    <row r="120" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J120">
+        <v>11.1</v>
+      </c>
+      <c r="K120">
+        <v>123.29999999999998</v>
+      </c>
+    </row>
+    <row r="121" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J121">
+        <v>11.2</v>
+      </c>
+      <c r="K121">
+        <v>125.59999999999997</v>
+      </c>
+    </row>
+    <row r="122" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J122">
+        <v>11.3</v>
+      </c>
+      <c r="K122">
+        <v>127.89999999999998</v>
+      </c>
+    </row>
+    <row r="123" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J123">
+        <v>11.4</v>
+      </c>
+      <c r="K123">
+        <v>130.19999999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J124">
+        <v>11.5</v>
+      </c>
+      <c r="K124">
+        <v>132.5</v>
+      </c>
+    </row>
+    <row r="125" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J125">
+        <v>11.6</v>
+      </c>
+      <c r="K125">
+        <v>134.79999999999995</v>
+      </c>
+    </row>
+    <row r="126" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J126">
+        <v>11.7</v>
+      </c>
+      <c r="K126">
+        <v>137.09999999999997</v>
+      </c>
+    </row>
+    <row r="127" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J127">
+        <v>11.8</v>
+      </c>
+      <c r="K127">
+        <v>139.39999999999998</v>
+      </c>
+    </row>
+    <row r="128" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J128">
+        <v>11.9</v>
+      </c>
+      <c r="K128">
+        <v>141.69999999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J129">
+        <v>12</v>
+      </c>
+      <c r="K129">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="130" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J130">
+        <v>12.1</v>
+      </c>
+      <c r="K130">
+        <v>146.29999999999995</v>
+      </c>
+    </row>
+    <row r="131" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J131">
+        <v>12.2</v>
+      </c>
+      <c r="K131">
+        <v>148.59999999999997</v>
+      </c>
+    </row>
+    <row r="132" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J132">
+        <v>12.3</v>
+      </c>
+      <c r="K132">
+        <v>150.89999999999998</v>
+      </c>
+    </row>
+    <row r="133" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J133">
+        <v>12.4</v>
+      </c>
+      <c r="K133">
+        <v>153.19999999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J134">
+        <v>12.5</v>
+      </c>
+      <c r="K134">
+        <v>155.5</v>
+      </c>
+    </row>
+    <row r="135" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J135">
+        <v>12.6</v>
+      </c>
+      <c r="K135">
+        <v>157.79999999999995</v>
+      </c>
+    </row>
+    <row r="136" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J136">
+        <v>12.7</v>
+      </c>
+      <c r="K136">
+        <v>160.09999999999997</v>
+      </c>
+    </row>
+    <row r="137" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J137">
+        <v>12.8</v>
+      </c>
+      <c r="K137">
+        <v>162.39999999999998</v>
+      </c>
+    </row>
+    <row r="138" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J138">
+        <v>12.9</v>
+      </c>
+      <c r="K138">
+        <v>164.7</v>
+      </c>
+    </row>
+    <row r="139" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J139">
+        <v>13</v>
+      </c>
+      <c r="K139">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="140" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J140">
+        <v>13.1</v>
+      </c>
+      <c r="K140">
+        <v>169.29999999999995</v>
+      </c>
+    </row>
+    <row r="141" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J141">
+        <v>13.2</v>
+      </c>
+      <c r="K141">
+        <v>171.59999999999997</v>
+      </c>
+    </row>
+    <row r="142" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J142">
+        <v>13.3</v>
+      </c>
+      <c r="K142">
+        <v>173.90000000000003</v>
+      </c>
+    </row>
+    <row r="143" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J143">
+        <v>13.4</v>
+      </c>
+      <c r="K143">
+        <v>176.2</v>
+      </c>
+    </row>
+    <row r="144" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J144">
+        <v>13.5</v>
+      </c>
+      <c r="K144">
+        <v>178.5</v>
+      </c>
+    </row>
+    <row r="145" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J145">
+        <v>13.6</v>
+      </c>
+      <c r="K145">
+        <v>180.8</v>
+      </c>
+    </row>
+    <row r="146" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J146">
+        <v>13.7</v>
+      </c>
+      <c r="K146">
+        <v>183.09999999999997</v>
+      </c>
+    </row>
+    <row r="147" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J147">
+        <v>13.8</v>
+      </c>
+      <c r="K147">
+        <v>185.40000000000003</v>
+      </c>
+    </row>
+    <row r="148" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J148">
+        <v>13.9</v>
+      </c>
+      <c r="K148">
+        <v>187.7</v>
+      </c>
+    </row>
+    <row r="149" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J149">
+        <v>14</v>
+      </c>
+      <c r="K149">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="150" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J150">
+        <v>14.1</v>
+      </c>
+      <c r="K150">
+        <v>192.3</v>
+      </c>
+    </row>
+    <row r="151" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J151">
+        <v>14.2</v>
+      </c>
+      <c r="K151">
+        <v>194.59999999999997</v>
+      </c>
+    </row>
+    <row r="152" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J152">
+        <v>14.3</v>
+      </c>
+      <c r="K152">
+        <v>196.90000000000003</v>
+      </c>
+    </row>
+    <row r="153" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J153">
+        <v>14.4</v>
+      </c>
+      <c r="K153">
+        <v>199.2</v>
+      </c>
+    </row>
+    <row r="154" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J154">
+        <v>14.5</v>
+      </c>
+      <c r="K154">
+        <v>201.5</v>
+      </c>
+    </row>
+    <row r="155" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J155">
+        <v>14.6</v>
+      </c>
+      <c r="K155">
+        <v>203.8</v>
+      </c>
+    </row>
+    <row r="156" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J156">
+        <v>14.7</v>
+      </c>
+      <c r="K156">
+        <v>206.09999999999997</v>
+      </c>
+    </row>
+    <row r="157" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J157">
+        <v>14.8</v>
+      </c>
+      <c r="K157">
+        <v>208.40000000000003</v>
+      </c>
+    </row>
+    <row r="158" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J158">
+        <v>14.9</v>
+      </c>
+      <c r="K158">
+        <v>210.7</v>
+      </c>
+    </row>
+    <row r="159" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J159">
+        <v>15</v>
+      </c>
+      <c r="K159">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="160" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J160">
+        <v>15.1</v>
+      </c>
+      <c r="K160">
+        <v>215.3</v>
+      </c>
+    </row>
+    <row r="161" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J161">
+        <v>15.2</v>
+      </c>
+      <c r="K161">
+        <v>217.59999999999997</v>
+      </c>
+    </row>
+    <row r="162" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J162">
+        <v>15.3</v>
+      </c>
+      <c r="K162">
+        <v>219.90000000000003</v>
+      </c>
+    </row>
+    <row r="163" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J163">
+        <v>15.4</v>
+      </c>
+      <c r="K163">
+        <v>222.2</v>
+      </c>
+    </row>
+    <row r="164" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J164">
+        <v>15.5</v>
+      </c>
+      <c r="K164">
+        <v>224.5</v>
+      </c>
+    </row>
+    <row r="165" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J165">
+        <v>15.6</v>
+      </c>
+      <c r="K165">
+        <v>226.8</v>
+      </c>
+    </row>
+    <row r="166" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J166">
+        <v>15.7</v>
+      </c>
+      <c r="K166">
+        <v>229.09999999999997</v>
+      </c>
+    </row>
+    <row r="167" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J167">
+        <v>15.8</v>
+      </c>
+      <c r="K167">
+        <v>231.40000000000003</v>
+      </c>
+    </row>
+    <row r="168" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J168">
+        <v>15.9</v>
+      </c>
+      <c r="K168">
+        <v>233.7</v>
+      </c>
+    </row>
+    <row r="169" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J169">
+        <v>16</v>
+      </c>
+      <c r="K169">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="170" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J170">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="K170">
+        <v>238.3</v>
+      </c>
+    </row>
+    <row r="171" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J171">
+        <v>16.2</v>
+      </c>
+      <c r="K171">
+        <v>240.59999999999997</v>
+      </c>
+    </row>
+    <row r="172" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J172">
+        <v>16.3</v>
+      </c>
+      <c r="K172">
+        <v>242.90000000000003</v>
+      </c>
+    </row>
+    <row r="173" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J173">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="K173">
+        <v>245.2</v>
+      </c>
+    </row>
+    <row r="174" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J174">
+        <v>16.5</v>
+      </c>
+      <c r="K174">
+        <v>247.5</v>
+      </c>
+    </row>
+    <row r="175" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J175">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="K175">
+        <v>249.8</v>
+      </c>
+    </row>
+    <row r="176" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J176">
+        <v>16.7</v>
+      </c>
+      <c r="K176">
+        <v>252.09999999999997</v>
+      </c>
+    </row>
+    <row r="177" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J177">
+        <v>16.8</v>
+      </c>
+      <c r="K177">
+        <v>254.40000000000003</v>
+      </c>
+    </row>
+    <row r="178" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J178">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="K178">
+        <v>256.7</v>
+      </c>
+    </row>
+    <row r="179" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J179">
+        <v>17</v>
+      </c>
+      <c r="K179">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="180" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J180">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="K180">
+        <v>261.3</v>
+      </c>
+    </row>
+    <row r="181" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J181">
+        <v>17.2</v>
+      </c>
+      <c r="K181">
+        <v>263.59999999999997</v>
+      </c>
+    </row>
+    <row r="182" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J182">
+        <v>17.3</v>
+      </c>
+      <c r="K182">
+        <v>265.90000000000003</v>
+      </c>
+    </row>
+    <row r="183" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J183">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="K183">
+        <v>268.2</v>
+      </c>
+    </row>
+    <row r="184" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J184">
+        <v>17.5</v>
+      </c>
+      <c r="K184">
+        <v>270.5</v>
+      </c>
+    </row>
+    <row r="185" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J185">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="K185">
+        <v>272.8</v>
+      </c>
+    </row>
+    <row r="186" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J186">
+        <v>17.7</v>
+      </c>
+      <c r="K186">
+        <v>275.09999999999997</v>
+      </c>
+    </row>
+    <row r="187" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J187">
+        <v>17.8</v>
+      </c>
+      <c r="K187">
+        <v>277.40000000000003</v>
+      </c>
+    </row>
+    <row r="188" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J188">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="K188">
+        <v>279.7</v>
+      </c>
+    </row>
+    <row r="189" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J189">
+        <v>18</v>
+      </c>
+      <c r="K189">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="190" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J190">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="K190">
+        <v>284.30000000000007</v>
+      </c>
+    </row>
+    <row r="191" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J191">
+        <v>18.2</v>
+      </c>
+      <c r="K191">
+        <v>286.59999999999997</v>
+      </c>
+    </row>
+    <row r="192" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J192">
+        <v>18.3</v>
+      </c>
+      <c r="K192">
+        <v>288.90000000000003</v>
+      </c>
+    </row>
+    <row r="193" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J193">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="K193">
+        <v>291.2</v>
+      </c>
+    </row>
+    <row r="194" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J194">
+        <v>18.5</v>
+      </c>
+      <c r="K194">
+        <v>293.5</v>
+      </c>
+    </row>
+    <row r="195" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J195">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="K195">
+        <v>295.80000000000007</v>
+      </c>
+    </row>
+    <row r="196" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J196">
+        <v>18.7</v>
+      </c>
+      <c r="K196">
+        <v>298.09999999999997</v>
+      </c>
+    </row>
+    <row r="197" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J197">
+        <v>18.8</v>
+      </c>
+      <c r="K197">
+        <v>300.40000000000003</v>
+      </c>
+    </row>
+    <row r="198" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J198">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="K198">
+        <v>302.7</v>
+      </c>
+    </row>
+    <row r="199" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J199">
+        <v>19</v>
+      </c>
+      <c r="K199">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="200" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J200">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K200">
+        <v>307.30000000000007</v>
+      </c>
+    </row>
+    <row r="201" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J201">
+        <v>19.2</v>
+      </c>
+      <c r="K201">
+        <v>309.60000000000002</v>
+      </c>
+    </row>
+    <row r="202" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J202">
+        <v>19.3</v>
+      </c>
+      <c r="K202">
+        <v>311.90000000000003</v>
+      </c>
+    </row>
+    <row r="203" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J203">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="K203">
+        <v>314.2</v>
+      </c>
+    </row>
+    <row r="204" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J204">
+        <v>19.5</v>
+      </c>
+      <c r="K204">
+        <v>316.5</v>
+      </c>
+    </row>
+    <row r="205" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J205">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="K205">
+        <v>318.80000000000007</v>
+      </c>
+    </row>
+    <row r="206" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J206">
+        <v>19.7</v>
+      </c>
+      <c r="K206">
+        <v>321.10000000000002</v>
+      </c>
+    </row>
+    <row r="207" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J207">
+        <v>19.8</v>
+      </c>
+      <c r="K207">
+        <v>323.40000000000003</v>
+      </c>
+    </row>
+    <row r="208" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J208">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="K208">
+        <v>325.7</v>
+      </c>
+    </row>
+    <row r="209" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J209">
+        <v>20</v>
+      </c>
+      <c r="K209">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="210" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J210">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="K210">
+        <v>330.30000000000007</v>
+      </c>
+    </row>
+    <row r="211" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J211">
+        <v>20.2</v>
+      </c>
+      <c r="K211">
+        <v>332.6</v>
+      </c>
+    </row>
+    <row r="212" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J212">
+        <v>20.3</v>
+      </c>
+      <c r="K212">
+        <v>334.90000000000003</v>
+      </c>
+    </row>
+    <row r="213" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J213">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="K213">
+        <v>337.2</v>
+      </c>
+    </row>
+    <row r="214" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J214">
+        <v>20.5</v>
+      </c>
+      <c r="K214">
+        <v>339.5</v>
+      </c>
+    </row>
+    <row r="215" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J215">
+        <v>20.6</v>
+      </c>
+      <c r="K215">
+        <v>341.80000000000007</v>
+      </c>
+    </row>
+    <row r="216" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J216">
+        <v>20.7</v>
+      </c>
+      <c r="K216">
+        <v>344.1</v>
+      </c>
+    </row>
+    <row r="217" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J217">
+        <v>20.8</v>
+      </c>
+      <c r="K217">
+        <v>346.40000000000003</v>
+      </c>
+    </row>
+    <row r="218" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J218">
+        <v>20.9</v>
+      </c>
+      <c r="K218">
+        <v>348.7</v>
+      </c>
+    </row>
+    <row r="219" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J219">
+        <v>21</v>
+      </c>
+      <c r="K219">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="220" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J220">
+        <v>21.1</v>
+      </c>
+      <c r="K220">
+        <v>353.30000000000007</v>
+      </c>
+    </row>
+    <row r="221" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J221">
+        <v>21.2</v>
+      </c>
+      <c r="K221">
+        <v>355.6</v>
+      </c>
+    </row>
+    <row r="222" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J222">
+        <v>21.3</v>
+      </c>
+      <c r="K222">
+        <v>357.90000000000003</v>
+      </c>
+    </row>
+    <row r="223" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J223">
+        <v>21.4</v>
+      </c>
+      <c r="K223">
+        <v>360.2</v>
+      </c>
+    </row>
+    <row r="224" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J224">
+        <v>21.5</v>
+      </c>
+      <c r="K224">
+        <v>362.5</v>
+      </c>
+    </row>
+    <row r="225" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J225">
+        <v>21.6</v>
+      </c>
+      <c r="K225">
+        <v>364.80000000000007</v>
+      </c>
+    </row>
+    <row r="226" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J226">
+        <v>21.7</v>
+      </c>
+      <c r="K226">
+        <v>367.1</v>
+      </c>
+    </row>
+    <row r="227" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J227">
+        <v>21.8</v>
+      </c>
+      <c r="K227">
+        <v>369.40000000000003</v>
+      </c>
+    </row>
+    <row r="228" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J228">
+        <v>21.9</v>
+      </c>
+      <c r="K228">
+        <v>371.7</v>
+      </c>
+    </row>
+    <row r="229" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J229">
+        <v>22</v>
+      </c>
+      <c r="K229">
+        <v>374</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/AlternativeLinearInterpolation.xlsx
+++ b/AlternativeLinearInterpolation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28015"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E605CBB-1677-45D7-A4AD-EA6BED159BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93BDDC9-1270-499B-8BC4-0488FD15F158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1181,445 +1181,445 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="147"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.99999999999999911</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3000000000000003</c:v>
+                  <c:v>1.7000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5999999999999996</c:v>
+                  <c:v>2.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9000000000000004</c:v>
+                  <c:v>3.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1999999999999993</c:v>
+                  <c:v>3.7999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8000000000000007</c:v>
+                  <c:v>5.2000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0999999999999996</c:v>
+                  <c:v>5.8999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.4000000000000004</c:v>
+                  <c:v>6.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.6999999999999993</c:v>
+                  <c:v>7.2999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.5</c:v>
+                  <c:v>9.9000000000000057</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.0000000000000018</c:v>
+                  <c:v>11.800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.5</c:v>
+                  <c:v>13.699999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6</c:v>
+                  <c:v>15.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.5</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.0000000000000018</c:v>
+                  <c:v>19.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.5000000000000018</c:v>
+                  <c:v>21.300000000000011</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8</c:v>
+                  <c:v>23.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.5</c:v>
+                  <c:v>25.1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.6999999999999993</c:v>
+                  <c:v>30.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10.400000000000002</c:v>
+                  <c:v>34.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11.099999999999998</c:v>
+                  <c:v>38.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11.799999999999997</c:v>
+                  <c:v>41.8</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12.5</c:v>
+                  <c:v>45.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>13.2</c:v>
+                  <c:v>49.200000000000017</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>13.900000000000002</c:v>
+                  <c:v>52.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>14.599999999999998</c:v>
+                  <c:v>56.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>15.3</c:v>
+                  <c:v>60.299999999999983</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>16</c:v>
+                  <c:v>63.999999999999972</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>16.899999999999999</c:v>
+                  <c:v>70.099999999999937</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>17.800000000000004</c:v>
+                  <c:v>76.199999999999989</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>18.699999999999996</c:v>
+                  <c:v>82.299999999999955</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>88.399999999999977</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>20.5</c:v>
+                  <c:v>94.5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>21.4</c:v>
+                  <c:v>100.59999999999997</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>22.300000000000004</c:v>
+                  <c:v>106.69999999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>23.199999999999996</c:v>
+                  <c:v>112.79999999999995</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>24.1</c:v>
+                  <c:v>118.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>25</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>26.099999999999994</c:v>
+                  <c:v>134.09999999999997</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>27.200000000000003</c:v>
+                  <c:v>143.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>28.299999999999997</c:v>
+                  <c:v>152.30000000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>29.4</c:v>
+                  <c:v>161.40000000000003</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>30.5</c:v>
+                  <c:v>170.5</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>31.599999999999994</c:v>
+                  <c:v>179.59999999999997</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>32.699999999999996</c:v>
+                  <c:v>188.70000000000005</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>33.799999999999997</c:v>
+                  <c:v>197.79999999999995</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>34.9</c:v>
+                  <c:v>206.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>36</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>37.299999999999997</c:v>
+                  <c:v>228.69999999999993</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>38.600000000000009</c:v>
+                  <c:v>241.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>39.899999999999991</c:v>
+                  <c:v>254.09999999999991</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>41.2</c:v>
+                  <c:v>266.80000000000007</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>42.500000000000128</c:v>
+                  <c:v>279.50000000000125</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>43.8</c:v>
+                  <c:v>292.19999999999993</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>45.100000000000009</c:v>
+                  <c:v>304.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>46.400000000000119</c:v>
+                  <c:v>317.60000000000116</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>47.700000000000131</c:v>
+                  <c:v>330.30000000000132</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>49.000000000000142</c:v>
+                  <c:v>343.00000000000159</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>50.499999999999986</c:v>
+                  <c:v>359.89999999999986</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>52.000000000000142</c:v>
+                  <c:v>376.80000000000177</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>53.500000000000142</c:v>
+                  <c:v>393.70000000000164</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>55.000000000000142</c:v>
+                  <c:v>410.60000000000173</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>56.500000000000142</c:v>
+                  <c:v>427.50000000000159</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>58.000000000000156</c:v>
+                  <c:v>444.40000000000168</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>59.500000000000142</c:v>
+                  <c:v>461.30000000000177</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>61.000000000000142</c:v>
+                  <c:v>478.20000000000164</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>62.500000000000156</c:v>
+                  <c:v>495.10000000000173</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>64.000000000000171</c:v>
+                  <c:v>512.00000000000227</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>65.700000000000188</c:v>
+                  <c:v>533.70000000000232</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>67.400000000000176</c:v>
+                  <c:v>555.40000000000214</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>69.100000000000165</c:v>
+                  <c:v>577.10000000000218</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>70.800000000000153</c:v>
+                  <c:v>598.800000000002</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>72.500000000000171</c:v>
+                  <c:v>620.50000000000227</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>74.200000000000188</c:v>
+                  <c:v>642.20000000000232</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>75.900000000000176</c:v>
+                  <c:v>663.90000000000214</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>77.600000000000165</c:v>
+                  <c:v>685.60000000000218</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>79.300000000000153</c:v>
+                  <c:v>707.300000000002</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>81.000000000000199</c:v>
+                  <c:v>729.00000000000273</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>82.900000000000205</c:v>
+                  <c:v>756.10000000000264</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>84.80000000000021</c:v>
+                  <c:v>783.20000000000255</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>86.700000000000188</c:v>
+                  <c:v>810.30000000000246</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>88.600000000000193</c:v>
+                  <c:v>837.40000000000236</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>90.500000000000227</c:v>
+                  <c:v>864.50000000000273</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>92.400000000000205</c:v>
+                  <c:v>891.60000000000264</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>94.30000000000021</c:v>
+                  <c:v>918.70000000000255</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>96.200000000000188</c:v>
+                  <c:v>945.80000000000246</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>98.100000000000193</c:v>
+                  <c:v>972.90000000000236</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>100</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>102.1</c:v>
+                  <c:v>1033.0999999999999</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>104.19999999999999</c:v>
+                  <c:v>1066.1999999999998</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>106.30000000000001</c:v>
+                  <c:v>1099.3000000000002</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>108.4</c:v>
+                  <c:v>1132.4000000000001</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>110.5</c:v>
+                  <c:v>1165.5</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>112.6</c:v>
+                  <c:v>1198.5999999999999</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>114.69999999999999</c:v>
+                  <c:v>1231.6999999999998</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>116.80000000000001</c:v>
+                  <c:v>1264.8000000000002</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>118.9</c:v>
+                  <c:v>1297.9000000000001</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>120.99999999999997</c:v>
+                  <c:v>1331</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>123.29999999999998</c:v>
+                  <c:v>1370.6999999999998</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>125.59999999999997</c:v>
+                  <c:v>1410.3999999999996</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>127.89999999999998</c:v>
+                  <c:v>1450.1000000000004</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>130.19999999999999</c:v>
+                  <c:v>1489.8000000000002</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>132.5</c:v>
+                  <c:v>1529.5</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>134.79999999999995</c:v>
+                  <c:v>1569.1999999999998</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>137.09999999999997</c:v>
+                  <c:v>1608.8999999999996</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>139.39999999999998</c:v>
+                  <c:v>1648.6000000000004</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>141.69999999999999</c:v>
+                  <c:v>1688.3000000000002</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>144</c:v>
+                  <c:v>1728</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>146.29999999999995</c:v>
+                  <c:v>1767.6999999999998</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>148.59999999999997</c:v>
+                  <c:v>1807.3999999999996</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>150.89999999999998</c:v>
+                  <c:v>1847.1000000000004</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>153.19999999999999</c:v>
+                  <c:v>1886.8000000000002</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>155.5</c:v>
+                  <c:v>1926.5</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>157.79999999999995</c:v>
+                  <c:v>1966.1999999999998</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>160.09999999999997</c:v>
+                  <c:v>2005.8999999999996</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>162.39999999999998</c:v>
+                  <c:v>2045.6000000000004</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>164.7</c:v>
+                  <c:v>2085.3000000000002</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>167</c:v>
+                  <c:v>2125</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>169.29999999999995</c:v>
+                  <c:v>2164.6999999999998</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>171.59999999999997</c:v>
+                  <c:v>2204.3999999999996</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>173.90000000000003</c:v>
+                  <c:v>2244.1000000000004</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>176.2</c:v>
+                  <c:v>2283.8000000000002</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>178.5</c:v>
+                  <c:v>2323.5</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>180.8</c:v>
+                  <c:v>2363.1999999999998</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>183.09999999999997</c:v>
+                  <c:v>2402.8999999999996</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>185.40000000000003</c:v>
+                  <c:v>2442.6000000000004</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>187.7</c:v>
+                  <c:v>2482.3000000000002</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>190</c:v>
+                  <c:v>2522</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>192.3</c:v>
+                  <c:v>2561.6999999999998</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>194.59999999999997</c:v>
+                  <c:v>2601.3999999999996</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>196.90000000000003</c:v>
+                  <c:v>2641.1000000000004</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>199.2</c:v>
+                  <c:v>2680.8</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>201.5</c:v>
+                  <c:v>2720.5</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>203.8</c:v>
+                  <c:v>2760.2</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>206.09999999999997</c:v>
+                  <c:v>2799.8999999999996</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>208.40000000000003</c:v>
+                  <c:v>2839.6000000000004</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>210.7</c:v>
+                  <c:v>2879.3</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>213</c:v>
+                  <c:v>2919</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>215.3</c:v>
+                  <c:v>2958.7</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>217.59999999999997</c:v>
+                  <c:v>2998.3999999999996</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>219.90000000000003</c:v>
+                  <c:v>3038.1000000000004</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>222.2</c:v>
+                  <c:v>3077.8</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>224.5</c:v>
+                  <c:v>3117.5</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>226.8</c:v>
+                  <c:v>3157.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1711,37 +1711,37 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49</c:v>
+                  <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>64</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81</c:v>
+                  <c:v>729</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>121</c:v>
+                  <c:v>1331</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>144</c:v>
+                  <c:v>1728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1768,6 +1768,7 @@
         <c:axId val="2122342575"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="-10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1830,6 +1831,7 @@
         <c:axId val="2122341135"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="-100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2609,8 +2611,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3166111" y="262835"/>
-          <a:ext cx="2200275" cy="455350"/>
+          <a:off x="3158491" y="270455"/>
+          <a:ext cx="2205990" cy="464875"/>
           <a:chOff x="3162301" y="274265"/>
           <a:chExt cx="2198370" cy="459814"/>
         </a:xfrm>
@@ -2829,7 +2831,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="B17:F28" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0">
@@ -3123,8 +3125,8 @@
   </sheetPr>
   <dimension ref="A1:L229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3151,7 +3153,7 @@
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>21-Aug-2024</v>
+        <v>22-Aug-2024</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -3178,14 +3180,14 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <f>E7^2</f>
+        <f>E7^3</f>
         <v>1</v>
       </c>
       <c r="H7" t="s">
         <v>26</v>
       </c>
       <c r="I7" s="10">
-        <v>20</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -3193,19 +3195,19 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8:F18" si="0">E8^2</f>
-        <v>4</v>
+        <f t="shared" ref="F8:F18" si="0">E8^3</f>
+        <v>8</v>
       </c>
       <c r="H8" t="s">
         <v>21</v>
       </c>
       <c r="I8" t="b">
         <f>IF(_nx&gt;_nmax,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" cm="1">
         <f t="array" ref="J8">TREND(F17:F18,E17:E18,_nx)</f>
-        <v>328</v>
+        <v>-7006</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -3214,18 +3216,18 @@
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
         <v>22</v>
       </c>
       <c r="I9" t="b">
         <f>_nx&lt;_nmin</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" cm="1">
         <f t="array" ref="J9">TREND(F7:F8,E7:E8,_nx)</f>
-        <v>58</v>
+        <v>-76.000000000000014</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
@@ -3236,7 +3238,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
         <v>23</v>
@@ -3245,16 +3247,16 @@
         <f>IF(MEDIAN(_nmin,_nmax,_nx)=_nx,TRUE,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="9" t="e">
         <f>_xlfn.XMATCH(_nx,_nData,-1)</f>
-        <v>12</v>
-      </c>
-      <c r="K10" s="10" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="K10" s="10" t="e" cm="1">
         <f t="array" ref="K10:L10">J10+{0,1}</f>
-        <v>12</v>
-      </c>
-      <c r="L10" s="10">
-        <v>13</v>
+        <v>#N/A</v>
+      </c>
+      <c r="L10" s="10" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -3263,18 +3265,18 @@
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="J11" t="s">
         <v>27</v>
       </c>
-      <c r="K11" cm="1">
+      <c r="K11" t="e" cm="1">
         <f t="array" ref="K11">INDEX(_nData,K10)</f>
-        <v>12</v>
+        <v>#N/A</v>
       </c>
       <c r="L11" t="e" cm="1">
         <f t="array" ref="L11">INDEX(_nData,L10)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -3283,18 +3285,18 @@
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>216</v>
       </c>
       <c r="J12" t="s">
         <v>28</v>
       </c>
-      <c r="K12" cm="1">
+      <c r="K12" t="e" cm="1">
         <f t="array" ref="K12">INDEX($F$7:$F$18,K10)</f>
-        <v>144</v>
+        <v>#N/A</v>
       </c>
       <c r="L12" t="e" cm="1">
         <f t="array" ref="L12">INDEX($F$7:$F$18,L10)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -3303,7 +3305,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>343</v>
       </c>
       <c r="K13" t="e" cm="1">
         <f t="array" ref="K13">TREND(K12:L12,K11:L11,_nx)</f>
@@ -3316,11 +3318,11 @@
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>512</v>
       </c>
       <c r="I14" cm="1">
         <f t="array" ref="I14">_xlfn.SWITCH(TRUE,I8,J8,I9,J9,K13)</f>
-        <v>328</v>
+        <v>-76.000000000000014</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -3329,7 +3331,7 @@
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>729</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -3338,7 +3340,7 @@
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17" spans="5:11" x14ac:dyDescent="0.25">
@@ -3347,7 +3349,7 @@
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>121</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="18" spans="5:11" x14ac:dyDescent="0.25">
@@ -3356,11 +3358,11 @@
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>144</v>
+        <v>1728</v>
       </c>
       <c r="K18">
         <f>I14</f>
-        <v>328</v>
+        <v>-76.000000000000014</v>
       </c>
     </row>
     <row r="19" spans="5:11" x14ac:dyDescent="0.25">
@@ -3369,7 +3371,7 @@
       </c>
       <c r="K19">
         <f t="dataTable" ref="K19:K229" dt2D="0" dtr="0" r1="I7"/>
-        <v>1</v>
+        <v>0.99999999999999911</v>
       </c>
     </row>
     <row r="20" spans="5:11" x14ac:dyDescent="0.25">
@@ -3377,7 +3379,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K20">
-        <v>1.3000000000000003</v>
+        <v>1.7000000000000002</v>
       </c>
     </row>
     <row r="21" spans="5:11" x14ac:dyDescent="0.25">
@@ -3385,7 +3387,7 @@
         <v>1.2</v>
       </c>
       <c r="K21">
-        <v>1.5999999999999996</v>
+        <v>2.3999999999999986</v>
       </c>
     </row>
     <row r="22" spans="5:11" x14ac:dyDescent="0.25">
@@ -3393,7 +3395,7 @@
         <v>1.3</v>
       </c>
       <c r="K22">
-        <v>1.9000000000000004</v>
+        <v>3.0999999999999996</v>
       </c>
     </row>
     <row r="23" spans="5:11" x14ac:dyDescent="0.25">
@@ -3401,7 +3403,7 @@
         <v>1.4</v>
       </c>
       <c r="K23">
-        <v>2.1999999999999993</v>
+        <v>3.7999999999999989</v>
       </c>
     </row>
     <row r="24" spans="5:11" x14ac:dyDescent="0.25">
@@ -3409,7 +3411,7 @@
         <v>1.5</v>
       </c>
       <c r="K24">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="25" spans="5:11" x14ac:dyDescent="0.25">
@@ -3417,7 +3419,7 @@
         <v>1.6</v>
       </c>
       <c r="K25">
-        <v>2.8000000000000007</v>
+        <v>5.2000000000000011</v>
       </c>
     </row>
     <row r="26" spans="5:11" x14ac:dyDescent="0.25">
@@ -3425,7 +3427,7 @@
         <v>1.7</v>
       </c>
       <c r="K26">
-        <v>3.0999999999999996</v>
+        <v>5.8999999999999986</v>
       </c>
     </row>
     <row r="27" spans="5:11" x14ac:dyDescent="0.25">
@@ -3433,7 +3435,7 @@
         <v>1.8</v>
       </c>
       <c r="K27">
-        <v>3.4000000000000004</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="28" spans="5:11" x14ac:dyDescent="0.25">
@@ -3441,7 +3443,7 @@
         <v>1.9</v>
       </c>
       <c r="K28">
-        <v>3.6999999999999993</v>
+        <v>7.2999999999999989</v>
       </c>
     </row>
     <row r="29" spans="5:11" x14ac:dyDescent="0.25">
@@ -3449,7 +3451,7 @@
         <v>2</v>
       </c>
       <c r="K29">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="5:11" x14ac:dyDescent="0.25">
@@ -3457,7 +3459,7 @@
         <v>2.1</v>
       </c>
       <c r="K30">
-        <v>4.5</v>
+        <v>9.9000000000000057</v>
       </c>
     </row>
     <row r="31" spans="5:11" x14ac:dyDescent="0.25">
@@ -3465,7 +3467,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K31">
-        <v>5.0000000000000018</v>
+        <v>11.800000000000004</v>
       </c>
     </row>
     <row r="32" spans="5:11" x14ac:dyDescent="0.25">
@@ -3473,7 +3475,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="K32">
-        <v>5.5</v>
+        <v>13.699999999999996</v>
       </c>
     </row>
     <row r="33" spans="10:11" x14ac:dyDescent="0.25">
@@ -3481,7 +3483,7 @@
         <v>2.4</v>
       </c>
       <c r="K33">
-        <v>6</v>
+        <v>15.600000000000001</v>
       </c>
     </row>
     <row r="34" spans="10:11" x14ac:dyDescent="0.25">
@@ -3489,7 +3491,7 @@
         <v>2.5</v>
       </c>
       <c r="K34">
-        <v>6.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="35" spans="10:11" x14ac:dyDescent="0.25">
@@ -3497,7 +3499,7 @@
         <v>2.6</v>
       </c>
       <c r="K35">
-        <v>7.0000000000000018</v>
+        <v>19.400000000000006</v>
       </c>
     </row>
     <row r="36" spans="10:11" x14ac:dyDescent="0.25">
@@ -3505,7 +3507,7 @@
         <v>2.7</v>
       </c>
       <c r="K36">
-        <v>7.5000000000000018</v>
+        <v>21.300000000000011</v>
       </c>
     </row>
     <row r="37" spans="10:11" x14ac:dyDescent="0.25">
@@ -3513,7 +3515,7 @@
         <v>2.8</v>
       </c>
       <c r="K37">
-        <v>8</v>
+        <v>23.200000000000003</v>
       </c>
     </row>
     <row r="38" spans="10:11" x14ac:dyDescent="0.25">
@@ -3521,7 +3523,7 @@
         <v>2.9</v>
       </c>
       <c r="K38">
-        <v>8.5</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="39" spans="10:11" x14ac:dyDescent="0.25">
@@ -3529,7 +3531,7 @@
         <v>3</v>
       </c>
       <c r="K39">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="10:11" x14ac:dyDescent="0.25">
@@ -3537,7 +3539,7 @@
         <v>3.1</v>
       </c>
       <c r="K40">
-        <v>9.6999999999999993</v>
+        <v>30.700000000000003</v>
       </c>
     </row>
     <row r="41" spans="10:11" x14ac:dyDescent="0.25">
@@ -3545,7 +3547,7 @@
         <v>3.2</v>
       </c>
       <c r="K41">
-        <v>10.400000000000002</v>
+        <v>34.400000000000006</v>
       </c>
     </row>
     <row r="42" spans="10:11" x14ac:dyDescent="0.25">
@@ -3553,7 +3555,7 @@
         <v>3.3</v>
       </c>
       <c r="K42">
-        <v>11.099999999999998</v>
+        <v>38.099999999999994</v>
       </c>
     </row>
     <row r="43" spans="10:11" x14ac:dyDescent="0.25">
@@ -3561,7 +3563,7 @@
         <v>3.4</v>
       </c>
       <c r="K43">
-        <v>11.799999999999997</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="44" spans="10:11" x14ac:dyDescent="0.25">
@@ -3569,7 +3571,7 @@
         <v>3.5</v>
       </c>
       <c r="K44">
-        <v>12.5</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="45" spans="10:11" x14ac:dyDescent="0.25">
@@ -3577,7 +3579,7 @@
         <v>3.6</v>
       </c>
       <c r="K45">
-        <v>13.2</v>
+        <v>49.200000000000017</v>
       </c>
     </row>
     <row r="46" spans="10:11" x14ac:dyDescent="0.25">
@@ -3585,7 +3587,7 @@
         <v>3.7</v>
       </c>
       <c r="K46">
-        <v>13.900000000000002</v>
+        <v>52.900000000000006</v>
       </c>
     </row>
     <row r="47" spans="10:11" x14ac:dyDescent="0.25">
@@ -3593,7 +3595,7 @@
         <v>3.8</v>
       </c>
       <c r="K47">
-        <v>14.599999999999998</v>
+        <v>56.599999999999994</v>
       </c>
     </row>
     <row r="48" spans="10:11" x14ac:dyDescent="0.25">
@@ -3601,7 +3603,7 @@
         <v>3.9</v>
       </c>
       <c r="K48">
-        <v>15.3</v>
+        <v>60.299999999999983</v>
       </c>
     </row>
     <row r="49" spans="10:11" x14ac:dyDescent="0.25">
@@ -3609,7 +3611,7 @@
         <v>4</v>
       </c>
       <c r="K49">
-        <v>16</v>
+        <v>63.999999999999972</v>
       </c>
     </row>
     <row r="50" spans="10:11" x14ac:dyDescent="0.25">
@@ -3617,7 +3619,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="K50">
-        <v>16.899999999999999</v>
+        <v>70.099999999999937</v>
       </c>
     </row>
     <row r="51" spans="10:11" x14ac:dyDescent="0.25">
@@ -3625,7 +3627,7 @@
         <v>4.2</v>
       </c>
       <c r="K51">
-        <v>17.800000000000004</v>
+        <v>76.199999999999989</v>
       </c>
     </row>
     <row r="52" spans="10:11" x14ac:dyDescent="0.25">
@@ -3633,7 +3635,7 @@
         <v>4.3</v>
       </c>
       <c r="K52">
-        <v>18.699999999999996</v>
+        <v>82.299999999999955</v>
       </c>
     </row>
     <row r="53" spans="10:11" x14ac:dyDescent="0.25">
@@ -3641,7 +3643,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="K53">
-        <v>19.600000000000001</v>
+        <v>88.399999999999977</v>
       </c>
     </row>
     <row r="54" spans="10:11" x14ac:dyDescent="0.25">
@@ -3649,7 +3651,7 @@
         <v>4.5</v>
       </c>
       <c r="K54">
-        <v>20.5</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="55" spans="10:11" x14ac:dyDescent="0.25">
@@ -3657,7 +3659,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="K55">
-        <v>21.4</v>
+        <v>100.59999999999997</v>
       </c>
     </row>
     <row r="56" spans="10:11" x14ac:dyDescent="0.25">
@@ -3665,7 +3667,7 @@
         <v>4.7</v>
       </c>
       <c r="K56">
-        <v>22.300000000000004</v>
+        <v>106.69999999999999</v>
       </c>
     </row>
     <row r="57" spans="10:11" x14ac:dyDescent="0.25">
@@ -3673,7 +3675,7 @@
         <v>4.8</v>
       </c>
       <c r="K57">
-        <v>23.199999999999996</v>
+        <v>112.79999999999995</v>
       </c>
     </row>
     <row r="58" spans="10:11" x14ac:dyDescent="0.25">
@@ -3681,7 +3683,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="K58">
-        <v>24.1</v>
+        <v>118.89999999999998</v>
       </c>
     </row>
     <row r="59" spans="10:11" x14ac:dyDescent="0.25">
@@ -3689,7 +3691,7 @@
         <v>5</v>
       </c>
       <c r="K59">
-        <v>25</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="10:11" x14ac:dyDescent="0.25">
@@ -3697,7 +3699,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="K60">
-        <v>26.099999999999994</v>
+        <v>134.09999999999997</v>
       </c>
     </row>
     <row r="61" spans="10:11" x14ac:dyDescent="0.25">
@@ -3705,7 +3707,7 @@
         <v>5.2</v>
       </c>
       <c r="K61">
-        <v>27.200000000000003</v>
+        <v>143.19999999999999</v>
       </c>
     </row>
     <row r="62" spans="10:11" x14ac:dyDescent="0.25">
@@ -3713,7 +3715,7 @@
         <v>5.3</v>
       </c>
       <c r="K62">
-        <v>28.299999999999997</v>
+        <v>152.30000000000001</v>
       </c>
     </row>
     <row r="63" spans="10:11" x14ac:dyDescent="0.25">
@@ -3721,7 +3723,7 @@
         <v>5.4</v>
       </c>
       <c r="K63">
-        <v>29.4</v>
+        <v>161.40000000000003</v>
       </c>
     </row>
     <row r="64" spans="10:11" x14ac:dyDescent="0.25">
@@ -3729,7 +3731,7 @@
         <v>5.5</v>
       </c>
       <c r="K64">
-        <v>30.5</v>
+        <v>170.5</v>
       </c>
     </row>
     <row r="65" spans="10:11" x14ac:dyDescent="0.25">
@@ -3737,7 +3739,7 @@
         <v>5.6</v>
       </c>
       <c r="K65">
-        <v>31.599999999999994</v>
+        <v>179.59999999999997</v>
       </c>
     </row>
     <row r="66" spans="10:11" x14ac:dyDescent="0.25">
@@ -3745,7 +3747,7 @@
         <v>5.7</v>
       </c>
       <c r="K66">
-        <v>32.699999999999996</v>
+        <v>188.70000000000005</v>
       </c>
     </row>
     <row r="67" spans="10:11" x14ac:dyDescent="0.25">
@@ -3753,7 +3755,7 @@
         <v>5.8</v>
       </c>
       <c r="K67">
-        <v>33.799999999999997</v>
+        <v>197.79999999999995</v>
       </c>
     </row>
     <row r="68" spans="10:11" x14ac:dyDescent="0.25">
@@ -3761,7 +3763,7 @@
         <v>5.9</v>
       </c>
       <c r="K68">
-        <v>34.9</v>
+        <v>206.89999999999998</v>
       </c>
     </row>
     <row r="69" spans="10:11" x14ac:dyDescent="0.25">
@@ -3769,7 +3771,7 @@
         <v>6</v>
       </c>
       <c r="K69">
-        <v>36</v>
+        <v>216</v>
       </c>
     </row>
     <row r="70" spans="10:11" x14ac:dyDescent="0.25">
@@ -3777,7 +3779,7 @@
         <v>6.1</v>
       </c>
       <c r="K70">
-        <v>37.299999999999997</v>
+        <v>228.69999999999993</v>
       </c>
     </row>
     <row r="71" spans="10:11" x14ac:dyDescent="0.25">
@@ -3785,7 +3787,7 @@
         <v>6.2</v>
       </c>
       <c r="K71">
-        <v>38.600000000000009</v>
+        <v>241.39999999999998</v>
       </c>
     </row>
     <row r="72" spans="10:11" x14ac:dyDescent="0.25">
@@ -3793,7 +3795,7 @@
         <v>6.3</v>
       </c>
       <c r="K72">
-        <v>39.899999999999991</v>
+        <v>254.09999999999991</v>
       </c>
     </row>
     <row r="73" spans="10:11" x14ac:dyDescent="0.25">
@@ -3801,7 +3803,7 @@
         <v>6.4</v>
       </c>
       <c r="K73">
-        <v>41.2</v>
+        <v>266.80000000000007</v>
       </c>
     </row>
     <row r="74" spans="10:11" x14ac:dyDescent="0.25">
@@ -3809,7 +3811,7 @@
         <v>6.5000000000000098</v>
       </c>
       <c r="K74">
-        <v>42.500000000000128</v>
+        <v>279.50000000000125</v>
       </c>
     </row>
     <row r="75" spans="10:11" x14ac:dyDescent="0.25">
@@ -3817,7 +3819,7 @@
         <v>6.6</v>
       </c>
       <c r="K75">
-        <v>43.8</v>
+        <v>292.19999999999993</v>
       </c>
     </row>
     <row r="76" spans="10:11" x14ac:dyDescent="0.25">
@@ -3825,7 +3827,7 @@
         <v>6.7</v>
       </c>
       <c r="K76">
-        <v>45.100000000000009</v>
+        <v>304.89999999999998</v>
       </c>
     </row>
     <row r="77" spans="10:11" x14ac:dyDescent="0.25">
@@ -3833,7 +3835,7 @@
         <v>6.8000000000000096</v>
       </c>
       <c r="K77">
-        <v>46.400000000000119</v>
+        <v>317.60000000000116</v>
       </c>
     </row>
     <row r="78" spans="10:11" x14ac:dyDescent="0.25">
@@ -3841,7 +3843,7 @@
         <v>6.9000000000000101</v>
       </c>
       <c r="K78">
-        <v>47.700000000000131</v>
+        <v>330.30000000000132</v>
       </c>
     </row>
     <row r="79" spans="10:11" x14ac:dyDescent="0.25">
@@ -3849,7 +3851,7 @@
         <v>7.0000000000000098</v>
       </c>
       <c r="K79">
-        <v>49.000000000000142</v>
+        <v>343.00000000000159</v>
       </c>
     </row>
     <row r="80" spans="10:11" x14ac:dyDescent="0.25">
@@ -3857,7 +3859,7 @@
         <v>7.1</v>
       </c>
       <c r="K80">
-        <v>50.499999999999986</v>
+        <v>359.89999999999986</v>
       </c>
     </row>
     <row r="81" spans="10:11" x14ac:dyDescent="0.25">
@@ -3865,7 +3867,7 @@
         <v>7.2000000000000099</v>
       </c>
       <c r="K81">
-        <v>52.000000000000142</v>
+        <v>376.80000000000177</v>
       </c>
     </row>
     <row r="82" spans="10:11" x14ac:dyDescent="0.25">
@@ -3873,7 +3875,7 @@
         <v>7.3000000000000096</v>
       </c>
       <c r="K82">
-        <v>53.500000000000142</v>
+        <v>393.70000000000164</v>
       </c>
     </row>
     <row r="83" spans="10:11" x14ac:dyDescent="0.25">
@@ -3881,7 +3883,7 @@
         <v>7.4000000000000101</v>
       </c>
       <c r="K83">
-        <v>55.000000000000142</v>
+        <v>410.60000000000173</v>
       </c>
     </row>
     <row r="84" spans="10:11" x14ac:dyDescent="0.25">
@@ -3889,7 +3891,7 @@
         <v>7.5000000000000098</v>
       </c>
       <c r="K84">
-        <v>56.500000000000142</v>
+        <v>427.50000000000159</v>
       </c>
     </row>
     <row r="85" spans="10:11" x14ac:dyDescent="0.25">
@@ -3897,7 +3899,7 @@
         <v>7.6000000000000103</v>
       </c>
       <c r="K85">
-        <v>58.000000000000156</v>
+        <v>444.40000000000168</v>
       </c>
     </row>
     <row r="86" spans="10:11" x14ac:dyDescent="0.25">
@@ -3905,7 +3907,7 @@
         <v>7.7000000000000099</v>
       </c>
       <c r="K86">
-        <v>59.500000000000142</v>
+        <v>461.30000000000177</v>
       </c>
     </row>
     <row r="87" spans="10:11" x14ac:dyDescent="0.25">
@@ -3913,7 +3915,7 @@
         <v>7.8000000000000096</v>
       </c>
       <c r="K87">
-        <v>61.000000000000142</v>
+        <v>478.20000000000164</v>
       </c>
     </row>
     <row r="88" spans="10:11" x14ac:dyDescent="0.25">
@@ -3921,7 +3923,7 @@
         <v>7.9000000000000101</v>
       </c>
       <c r="K88">
-        <v>62.500000000000156</v>
+        <v>495.10000000000173</v>
       </c>
     </row>
     <row r="89" spans="10:11" x14ac:dyDescent="0.25">
@@ -3929,7 +3931,7 @@
         <v>8.0000000000000107</v>
       </c>
       <c r="K89">
-        <v>64.000000000000171</v>
+        <v>512.00000000000227</v>
       </c>
     </row>
     <row r="90" spans="10:11" x14ac:dyDescent="0.25">
@@ -3937,7 +3939,7 @@
         <v>8.1000000000000103</v>
       </c>
       <c r="K90">
-        <v>65.700000000000188</v>
+        <v>533.70000000000232</v>
       </c>
     </row>
     <row r="91" spans="10:11" x14ac:dyDescent="0.25">
@@ -3945,7 +3947,7 @@
         <v>8.2000000000000099</v>
       </c>
       <c r="K91">
-        <v>67.400000000000176</v>
+        <v>555.40000000000214</v>
       </c>
     </row>
     <row r="92" spans="10:11" x14ac:dyDescent="0.25">
@@ -3953,7 +3955,7 @@
         <v>8.3000000000000096</v>
       </c>
       <c r="K92">
-        <v>69.100000000000165</v>
+        <v>577.10000000000218</v>
       </c>
     </row>
     <row r="93" spans="10:11" x14ac:dyDescent="0.25">
@@ -3961,7 +3963,7 @@
         <v>8.4000000000000092</v>
       </c>
       <c r="K93">
-        <v>70.800000000000153</v>
+        <v>598.800000000002</v>
       </c>
     </row>
     <row r="94" spans="10:11" x14ac:dyDescent="0.25">
@@ -3969,7 +3971,7 @@
         <v>8.5000000000000107</v>
       </c>
       <c r="K94">
-        <v>72.500000000000171</v>
+        <v>620.50000000000227</v>
       </c>
     </row>
     <row r="95" spans="10:11" x14ac:dyDescent="0.25">
@@ -3977,7 +3979,7 @@
         <v>8.6000000000000103</v>
       </c>
       <c r="K95">
-        <v>74.200000000000188</v>
+        <v>642.20000000000232</v>
       </c>
     </row>
     <row r="96" spans="10:11" x14ac:dyDescent="0.25">
@@ -3985,7 +3987,7 @@
         <v>8.7000000000000099</v>
       </c>
       <c r="K96">
-        <v>75.900000000000176</v>
+        <v>663.90000000000214</v>
       </c>
     </row>
     <row r="97" spans="10:11" x14ac:dyDescent="0.25">
@@ -3993,7 +3995,7 @@
         <v>8.8000000000000096</v>
       </c>
       <c r="K97">
-        <v>77.600000000000165</v>
+        <v>685.60000000000218</v>
       </c>
     </row>
     <row r="98" spans="10:11" x14ac:dyDescent="0.25">
@@ -4001,7 +4003,7 @@
         <v>8.9000000000000092</v>
       </c>
       <c r="K98">
-        <v>79.300000000000153</v>
+        <v>707.300000000002</v>
       </c>
     </row>
     <row r="99" spans="10:11" x14ac:dyDescent="0.25">
@@ -4009,7 +4011,7 @@
         <v>9.0000000000000107</v>
       </c>
       <c r="K99">
-        <v>81.000000000000199</v>
+        <v>729.00000000000273</v>
       </c>
     </row>
     <row r="100" spans="10:11" x14ac:dyDescent="0.25">
@@ -4017,7 +4019,7 @@
         <v>9.1000000000000103</v>
       </c>
       <c r="K100">
-        <v>82.900000000000205</v>
+        <v>756.10000000000264</v>
       </c>
     </row>
     <row r="101" spans="10:11" x14ac:dyDescent="0.25">
@@ -4025,7 +4027,7 @@
         <v>9.2000000000000099</v>
       </c>
       <c r="K101">
-        <v>84.80000000000021</v>
+        <v>783.20000000000255</v>
       </c>
     </row>
     <row r="102" spans="10:11" x14ac:dyDescent="0.25">
@@ -4033,7 +4035,7 @@
         <v>9.3000000000000096</v>
       </c>
       <c r="K102">
-        <v>86.700000000000188</v>
+        <v>810.30000000000246</v>
       </c>
     </row>
     <row r="103" spans="10:11" x14ac:dyDescent="0.25">
@@ -4041,7 +4043,7 @@
         <v>9.4000000000000092</v>
       </c>
       <c r="K103">
-        <v>88.600000000000193</v>
+        <v>837.40000000000236</v>
       </c>
     </row>
     <row r="104" spans="10:11" x14ac:dyDescent="0.25">
@@ -4049,7 +4051,7 @@
         <v>9.5000000000000107</v>
       </c>
       <c r="K104">
-        <v>90.500000000000227</v>
+        <v>864.50000000000273</v>
       </c>
     </row>
     <row r="105" spans="10:11" x14ac:dyDescent="0.25">
@@ -4057,7 +4059,7 @@
         <v>9.6000000000000103</v>
       </c>
       <c r="K105">
-        <v>92.400000000000205</v>
+        <v>891.60000000000264</v>
       </c>
     </row>
     <row r="106" spans="10:11" x14ac:dyDescent="0.25">
@@ -4065,7 +4067,7 @@
         <v>9.7000000000000099</v>
       </c>
       <c r="K106">
-        <v>94.30000000000021</v>
+        <v>918.70000000000255</v>
       </c>
     </row>
     <row r="107" spans="10:11" x14ac:dyDescent="0.25">
@@ -4073,7 +4075,7 @@
         <v>9.8000000000000096</v>
       </c>
       <c r="K107">
-        <v>96.200000000000188</v>
+        <v>945.80000000000246</v>
       </c>
     </row>
     <row r="108" spans="10:11" x14ac:dyDescent="0.25">
@@ -4081,7 +4083,7 @@
         <v>9.9000000000000092</v>
       </c>
       <c r="K108">
-        <v>98.100000000000193</v>
+        <v>972.90000000000236</v>
       </c>
     </row>
     <row r="109" spans="10:11" x14ac:dyDescent="0.25">
@@ -4089,7 +4091,7 @@
         <v>10</v>
       </c>
       <c r="K109">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="110" spans="10:11" x14ac:dyDescent="0.25">
@@ -4097,7 +4099,7 @@
         <v>10.1</v>
       </c>
       <c r="K110">
-        <v>102.1</v>
+        <v>1033.0999999999999</v>
       </c>
     </row>
     <row r="111" spans="10:11" x14ac:dyDescent="0.25">
@@ -4105,7 +4107,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="K111">
-        <v>104.19999999999999</v>
+        <v>1066.1999999999998</v>
       </c>
     </row>
     <row r="112" spans="10:11" x14ac:dyDescent="0.25">
@@ -4113,7 +4115,7 @@
         <v>10.3</v>
       </c>
       <c r="K112">
-        <v>106.30000000000001</v>
+        <v>1099.3000000000002</v>
       </c>
     </row>
     <row r="113" spans="10:11" x14ac:dyDescent="0.25">
@@ -4121,7 +4123,7 @@
         <v>10.4</v>
       </c>
       <c r="K113">
-        <v>108.4</v>
+        <v>1132.4000000000001</v>
       </c>
     </row>
     <row r="114" spans="10:11" x14ac:dyDescent="0.25">
@@ -4129,7 +4131,7 @@
         <v>10.5</v>
       </c>
       <c r="K114">
-        <v>110.5</v>
+        <v>1165.5</v>
       </c>
     </row>
     <row r="115" spans="10:11" x14ac:dyDescent="0.25">
@@ -4137,7 +4139,7 @@
         <v>10.6</v>
       </c>
       <c r="K115">
-        <v>112.6</v>
+        <v>1198.5999999999999</v>
       </c>
     </row>
     <row r="116" spans="10:11" x14ac:dyDescent="0.25">
@@ -4145,7 +4147,7 @@
         <v>10.7</v>
       </c>
       <c r="K116">
-        <v>114.69999999999999</v>
+        <v>1231.6999999999998</v>
       </c>
     </row>
     <row r="117" spans="10:11" x14ac:dyDescent="0.25">
@@ -4153,7 +4155,7 @@
         <v>10.8</v>
       </c>
       <c r="K117">
-        <v>116.80000000000001</v>
+        <v>1264.8000000000002</v>
       </c>
     </row>
     <row r="118" spans="10:11" x14ac:dyDescent="0.25">
@@ -4161,7 +4163,7 @@
         <v>10.9</v>
       </c>
       <c r="K118">
-        <v>118.9</v>
+        <v>1297.9000000000001</v>
       </c>
     </row>
     <row r="119" spans="10:11" x14ac:dyDescent="0.25">
@@ -4169,7 +4171,7 @@
         <v>11</v>
       </c>
       <c r="K119">
-        <v>120.99999999999997</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="120" spans="10:11" x14ac:dyDescent="0.25">
@@ -4177,7 +4179,7 @@
         <v>11.1</v>
       </c>
       <c r="K120">
-        <v>123.29999999999998</v>
+        <v>1370.6999999999998</v>
       </c>
     </row>
     <row r="121" spans="10:11" x14ac:dyDescent="0.25">
@@ -4185,7 +4187,7 @@
         <v>11.2</v>
       </c>
       <c r="K121">
-        <v>125.59999999999997</v>
+        <v>1410.3999999999996</v>
       </c>
     </row>
     <row r="122" spans="10:11" x14ac:dyDescent="0.25">
@@ -4193,7 +4195,7 @@
         <v>11.3</v>
       </c>
       <c r="K122">
-        <v>127.89999999999998</v>
+        <v>1450.1000000000004</v>
       </c>
     </row>
     <row r="123" spans="10:11" x14ac:dyDescent="0.25">
@@ -4201,7 +4203,7 @@
         <v>11.4</v>
       </c>
       <c r="K123">
-        <v>130.19999999999999</v>
+        <v>1489.8000000000002</v>
       </c>
     </row>
     <row r="124" spans="10:11" x14ac:dyDescent="0.25">
@@ -4209,7 +4211,7 @@
         <v>11.5</v>
       </c>
       <c r="K124">
-        <v>132.5</v>
+        <v>1529.5</v>
       </c>
     </row>
     <row r="125" spans="10:11" x14ac:dyDescent="0.25">
@@ -4217,7 +4219,7 @@
         <v>11.6</v>
       </c>
       <c r="K125">
-        <v>134.79999999999995</v>
+        <v>1569.1999999999998</v>
       </c>
     </row>
     <row r="126" spans="10:11" x14ac:dyDescent="0.25">
@@ -4225,7 +4227,7 @@
         <v>11.7</v>
       </c>
       <c r="K126">
-        <v>137.09999999999997</v>
+        <v>1608.8999999999996</v>
       </c>
     </row>
     <row r="127" spans="10:11" x14ac:dyDescent="0.25">
@@ -4233,7 +4235,7 @@
         <v>11.8</v>
       </c>
       <c r="K127">
-        <v>139.39999999999998</v>
+        <v>1648.6000000000004</v>
       </c>
     </row>
     <row r="128" spans="10:11" x14ac:dyDescent="0.25">
@@ -4241,7 +4243,7 @@
         <v>11.9</v>
       </c>
       <c r="K128">
-        <v>141.69999999999999</v>
+        <v>1688.3000000000002</v>
       </c>
     </row>
     <row r="129" spans="10:11" x14ac:dyDescent="0.25">
@@ -4249,7 +4251,7 @@
         <v>12</v>
       </c>
       <c r="K129">
-        <v>144</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="130" spans="10:11" x14ac:dyDescent="0.25">
@@ -4257,7 +4259,7 @@
         <v>12.1</v>
       </c>
       <c r="K130">
-        <v>146.29999999999995</v>
+        <v>1767.6999999999998</v>
       </c>
     </row>
     <row r="131" spans="10:11" x14ac:dyDescent="0.25">
@@ -4265,7 +4267,7 @@
         <v>12.2</v>
       </c>
       <c r="K131">
-        <v>148.59999999999997</v>
+        <v>1807.3999999999996</v>
       </c>
     </row>
     <row r="132" spans="10:11" x14ac:dyDescent="0.25">
@@ -4273,7 +4275,7 @@
         <v>12.3</v>
       </c>
       <c r="K132">
-        <v>150.89999999999998</v>
+        <v>1847.1000000000004</v>
       </c>
     </row>
     <row r="133" spans="10:11" x14ac:dyDescent="0.25">
@@ -4281,7 +4283,7 @@
         <v>12.4</v>
       </c>
       <c r="K133">
-        <v>153.19999999999999</v>
+        <v>1886.8000000000002</v>
       </c>
     </row>
     <row r="134" spans="10:11" x14ac:dyDescent="0.25">
@@ -4289,7 +4291,7 @@
         <v>12.5</v>
       </c>
       <c r="K134">
-        <v>155.5</v>
+        <v>1926.5</v>
       </c>
     </row>
     <row r="135" spans="10:11" x14ac:dyDescent="0.25">
@@ -4297,7 +4299,7 @@
         <v>12.6</v>
       </c>
       <c r="K135">
-        <v>157.79999999999995</v>
+        <v>1966.1999999999998</v>
       </c>
     </row>
     <row r="136" spans="10:11" x14ac:dyDescent="0.25">
@@ -4305,7 +4307,7 @@
         <v>12.7</v>
       </c>
       <c r="K136">
-        <v>160.09999999999997</v>
+        <v>2005.8999999999996</v>
       </c>
     </row>
     <row r="137" spans="10:11" x14ac:dyDescent="0.25">
@@ -4313,7 +4315,7 @@
         <v>12.8</v>
       </c>
       <c r="K137">
-        <v>162.39999999999998</v>
+        <v>2045.6000000000004</v>
       </c>
     </row>
     <row r="138" spans="10:11" x14ac:dyDescent="0.25">
@@ -4321,7 +4323,7 @@
         <v>12.9</v>
       </c>
       <c r="K138">
-        <v>164.7</v>
+        <v>2085.3000000000002</v>
       </c>
     </row>
     <row r="139" spans="10:11" x14ac:dyDescent="0.25">
@@ -4329,7 +4331,7 @@
         <v>13</v>
       </c>
       <c r="K139">
-        <v>167</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="140" spans="10:11" x14ac:dyDescent="0.25">
@@ -4337,7 +4339,7 @@
         <v>13.1</v>
       </c>
       <c r="K140">
-        <v>169.29999999999995</v>
+        <v>2164.6999999999998</v>
       </c>
     </row>
     <row r="141" spans="10:11" x14ac:dyDescent="0.25">
@@ -4345,7 +4347,7 @@
         <v>13.2</v>
       </c>
       <c r="K141">
-        <v>171.59999999999997</v>
+        <v>2204.3999999999996</v>
       </c>
     </row>
     <row r="142" spans="10:11" x14ac:dyDescent="0.25">
@@ -4353,7 +4355,7 @@
         <v>13.3</v>
       </c>
       <c r="K142">
-        <v>173.90000000000003</v>
+        <v>2244.1000000000004</v>
       </c>
     </row>
     <row r="143" spans="10:11" x14ac:dyDescent="0.25">
@@ -4361,7 +4363,7 @@
         <v>13.4</v>
       </c>
       <c r="K143">
-        <v>176.2</v>
+        <v>2283.8000000000002</v>
       </c>
     </row>
     <row r="144" spans="10:11" x14ac:dyDescent="0.25">
@@ -4369,7 +4371,7 @@
         <v>13.5</v>
       </c>
       <c r="K144">
-        <v>178.5</v>
+        <v>2323.5</v>
       </c>
     </row>
     <row r="145" spans="10:11" x14ac:dyDescent="0.25">
@@ -4377,7 +4379,7 @@
         <v>13.6</v>
       </c>
       <c r="K145">
-        <v>180.8</v>
+        <v>2363.1999999999998</v>
       </c>
     </row>
     <row r="146" spans="10:11" x14ac:dyDescent="0.25">
@@ -4385,7 +4387,7 @@
         <v>13.7</v>
       </c>
       <c r="K146">
-        <v>183.09999999999997</v>
+        <v>2402.8999999999996</v>
       </c>
     </row>
     <row r="147" spans="10:11" x14ac:dyDescent="0.25">
@@ -4393,7 +4395,7 @@
         <v>13.8</v>
       </c>
       <c r="K147">
-        <v>185.40000000000003</v>
+        <v>2442.6000000000004</v>
       </c>
     </row>
     <row r="148" spans="10:11" x14ac:dyDescent="0.25">
@@ -4401,7 +4403,7 @@
         <v>13.9</v>
       </c>
       <c r="K148">
-        <v>187.7</v>
+        <v>2482.3000000000002</v>
       </c>
     </row>
     <row r="149" spans="10:11" x14ac:dyDescent="0.25">
@@ -4409,7 +4411,7 @@
         <v>14</v>
       </c>
       <c r="K149">
-        <v>190</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="150" spans="10:11" x14ac:dyDescent="0.25">
@@ -4417,7 +4419,7 @@
         <v>14.1</v>
       </c>
       <c r="K150">
-        <v>192.3</v>
+        <v>2561.6999999999998</v>
       </c>
     </row>
     <row r="151" spans="10:11" x14ac:dyDescent="0.25">
@@ -4425,7 +4427,7 @@
         <v>14.2</v>
       </c>
       <c r="K151">
-        <v>194.59999999999997</v>
+        <v>2601.3999999999996</v>
       </c>
     </row>
     <row r="152" spans="10:11" x14ac:dyDescent="0.25">
@@ -4433,7 +4435,7 @@
         <v>14.3</v>
       </c>
       <c r="K152">
-        <v>196.90000000000003</v>
+        <v>2641.1000000000004</v>
       </c>
     </row>
     <row r="153" spans="10:11" x14ac:dyDescent="0.25">
@@ -4441,7 +4443,7 @@
         <v>14.4</v>
       </c>
       <c r="K153">
-        <v>199.2</v>
+        <v>2680.8</v>
       </c>
     </row>
     <row r="154" spans="10:11" x14ac:dyDescent="0.25">
@@ -4449,7 +4451,7 @@
         <v>14.5</v>
       </c>
       <c r="K154">
-        <v>201.5</v>
+        <v>2720.5</v>
       </c>
     </row>
     <row r="155" spans="10:11" x14ac:dyDescent="0.25">
@@ -4457,7 +4459,7 @@
         <v>14.6</v>
       </c>
       <c r="K155">
-        <v>203.8</v>
+        <v>2760.2</v>
       </c>
     </row>
     <row r="156" spans="10:11" x14ac:dyDescent="0.25">
@@ -4465,7 +4467,7 @@
         <v>14.7</v>
       </c>
       <c r="K156">
-        <v>206.09999999999997</v>
+        <v>2799.8999999999996</v>
       </c>
     </row>
     <row r="157" spans="10:11" x14ac:dyDescent="0.25">
@@ -4473,7 +4475,7 @@
         <v>14.8</v>
       </c>
       <c r="K157">
-        <v>208.40000000000003</v>
+        <v>2839.6000000000004</v>
       </c>
     </row>
     <row r="158" spans="10:11" x14ac:dyDescent="0.25">
@@ -4481,7 +4483,7 @@
         <v>14.9</v>
       </c>
       <c r="K158">
-        <v>210.7</v>
+        <v>2879.3</v>
       </c>
     </row>
     <row r="159" spans="10:11" x14ac:dyDescent="0.25">
@@ -4489,7 +4491,7 @@
         <v>15</v>
       </c>
       <c r="K159">
-        <v>213</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="160" spans="10:11" x14ac:dyDescent="0.25">
@@ -4497,7 +4499,7 @@
         <v>15.1</v>
       </c>
       <c r="K160">
-        <v>215.3</v>
+        <v>2958.7</v>
       </c>
     </row>
     <row r="161" spans="10:11" x14ac:dyDescent="0.25">
@@ -4505,7 +4507,7 @@
         <v>15.2</v>
       </c>
       <c r="K161">
-        <v>217.59999999999997</v>
+        <v>2998.3999999999996</v>
       </c>
     </row>
     <row r="162" spans="10:11" x14ac:dyDescent="0.25">
@@ -4513,7 +4515,7 @@
         <v>15.3</v>
       </c>
       <c r="K162">
-        <v>219.90000000000003</v>
+        <v>3038.1000000000004</v>
       </c>
     </row>
     <row r="163" spans="10:11" x14ac:dyDescent="0.25">
@@ -4521,7 +4523,7 @@
         <v>15.4</v>
       </c>
       <c r="K163">
-        <v>222.2</v>
+        <v>3077.8</v>
       </c>
     </row>
     <row r="164" spans="10:11" x14ac:dyDescent="0.25">
@@ -4529,7 +4531,7 @@
         <v>15.5</v>
       </c>
       <c r="K164">
-        <v>224.5</v>
+        <v>3117.5</v>
       </c>
     </row>
     <row r="165" spans="10:11" x14ac:dyDescent="0.25">
@@ -4537,7 +4539,7 @@
         <v>15.6</v>
       </c>
       <c r="K165">
-        <v>226.8</v>
+        <v>3157.2</v>
       </c>
     </row>
     <row r="166" spans="10:11" x14ac:dyDescent="0.25">
@@ -4545,7 +4547,7 @@
         <v>15.7</v>
       </c>
       <c r="K166">
-        <v>229.09999999999997</v>
+        <v>3196.8999999999996</v>
       </c>
     </row>
     <row r="167" spans="10:11" x14ac:dyDescent="0.25">
@@ -4553,7 +4555,7 @@
         <v>15.8</v>
       </c>
       <c r="K167">
-        <v>231.40000000000003</v>
+        <v>3236.6000000000004</v>
       </c>
     </row>
     <row r="168" spans="10:11" x14ac:dyDescent="0.25">
@@ -4561,7 +4563,7 @@
         <v>15.9</v>
       </c>
       <c r="K168">
-        <v>233.7</v>
+        <v>3276.3</v>
       </c>
     </row>
     <row r="169" spans="10:11" x14ac:dyDescent="0.25">
@@ -4569,7 +4571,7 @@
         <v>16</v>
       </c>
       <c r="K169">
-        <v>236</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="170" spans="10:11" x14ac:dyDescent="0.25">
@@ -4577,7 +4579,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="K170">
-        <v>238.3</v>
+        <v>3355.7000000000007</v>
       </c>
     </row>
     <row r="171" spans="10:11" x14ac:dyDescent="0.25">
@@ -4585,7 +4587,7 @@
         <v>16.2</v>
       </c>
       <c r="K171">
-        <v>240.59999999999997</v>
+        <v>3395.3999999999996</v>
       </c>
     </row>
     <row r="172" spans="10:11" x14ac:dyDescent="0.25">
@@ -4593,7 +4595,7 @@
         <v>16.3</v>
       </c>
       <c r="K172">
-        <v>242.90000000000003</v>
+        <v>3435.1000000000004</v>
       </c>
     </row>
     <row r="173" spans="10:11" x14ac:dyDescent="0.25">
@@ -4601,7 +4603,7 @@
         <v>16.399999999999999</v>
       </c>
       <c r="K173">
-        <v>245.2</v>
+        <v>3474.7999999999993</v>
       </c>
     </row>
     <row r="174" spans="10:11" x14ac:dyDescent="0.25">
@@ -4609,7 +4611,7 @@
         <v>16.5</v>
       </c>
       <c r="K174">
-        <v>247.5</v>
+        <v>3514.5</v>
       </c>
     </row>
     <row r="175" spans="10:11" x14ac:dyDescent="0.25">
@@ -4617,7 +4619,7 @@
         <v>16.600000000000001</v>
       </c>
       <c r="K175">
-        <v>249.8</v>
+        <v>3554.2000000000007</v>
       </c>
     </row>
     <row r="176" spans="10:11" x14ac:dyDescent="0.25">
@@ -4625,7 +4627,7 @@
         <v>16.7</v>
       </c>
       <c r="K176">
-        <v>252.09999999999997</v>
+        <v>3593.8999999999996</v>
       </c>
     </row>
     <row r="177" spans="10:11" x14ac:dyDescent="0.25">
@@ -4633,7 +4635,7 @@
         <v>16.8</v>
       </c>
       <c r="K177">
-        <v>254.40000000000003</v>
+        <v>3633.6000000000004</v>
       </c>
     </row>
     <row r="178" spans="10:11" x14ac:dyDescent="0.25">
@@ -4641,7 +4643,7 @@
         <v>16.899999999999999</v>
       </c>
       <c r="K178">
-        <v>256.7</v>
+        <v>3673.2999999999993</v>
       </c>
     </row>
     <row r="179" spans="10:11" x14ac:dyDescent="0.25">
@@ -4649,7 +4651,7 @@
         <v>17</v>
       </c>
       <c r="K179">
-        <v>259</v>
+        <v>3713</v>
       </c>
     </row>
     <row r="180" spans="10:11" x14ac:dyDescent="0.25">
@@ -4657,7 +4659,7 @@
         <v>17.100000000000001</v>
       </c>
       <c r="K180">
-        <v>261.3</v>
+        <v>3752.7000000000007</v>
       </c>
     </row>
     <row r="181" spans="10:11" x14ac:dyDescent="0.25">
@@ -4665,7 +4667,7 @@
         <v>17.2</v>
       </c>
       <c r="K181">
-        <v>263.59999999999997</v>
+        <v>3792.3999999999996</v>
       </c>
     </row>
     <row r="182" spans="10:11" x14ac:dyDescent="0.25">
@@ -4673,7 +4675,7 @@
         <v>17.3</v>
       </c>
       <c r="K182">
-        <v>265.90000000000003</v>
+        <v>3832.1000000000004</v>
       </c>
     </row>
     <row r="183" spans="10:11" x14ac:dyDescent="0.25">
@@ -4681,7 +4683,7 @@
         <v>17.399999999999999</v>
       </c>
       <c r="K183">
-        <v>268.2</v>
+        <v>3871.7999999999993</v>
       </c>
     </row>
     <row r="184" spans="10:11" x14ac:dyDescent="0.25">
@@ -4689,7 +4691,7 @@
         <v>17.5</v>
       </c>
       <c r="K184">
-        <v>270.5</v>
+        <v>3911.5</v>
       </c>
     </row>
     <row r="185" spans="10:11" x14ac:dyDescent="0.25">
@@ -4697,7 +4699,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="K185">
-        <v>272.8</v>
+        <v>3951.2000000000007</v>
       </c>
     </row>
     <row r="186" spans="10:11" x14ac:dyDescent="0.25">
@@ -4705,7 +4707,7 @@
         <v>17.7</v>
       </c>
       <c r="K186">
-        <v>275.09999999999997</v>
+        <v>3990.8999999999996</v>
       </c>
     </row>
     <row r="187" spans="10:11" x14ac:dyDescent="0.25">
@@ -4713,7 +4715,7 @@
         <v>17.8</v>
       </c>
       <c r="K187">
-        <v>277.40000000000003</v>
+        <v>4030.6000000000004</v>
       </c>
     </row>
     <row r="188" spans="10:11" x14ac:dyDescent="0.25">
@@ -4721,7 +4723,7 @@
         <v>17.899999999999999</v>
       </c>
       <c r="K188">
-        <v>279.7</v>
+        <v>4070.2999999999993</v>
       </c>
     </row>
     <row r="189" spans="10:11" x14ac:dyDescent="0.25">
@@ -4729,7 +4731,7 @@
         <v>18</v>
       </c>
       <c r="K189">
-        <v>282</v>
+        <v>4110</v>
       </c>
     </row>
     <row r="190" spans="10:11" x14ac:dyDescent="0.25">
@@ -4737,7 +4739,7 @@
         <v>18.100000000000001</v>
       </c>
       <c r="K190">
-        <v>284.30000000000007</v>
+        <v>4149.7000000000007</v>
       </c>
     </row>
     <row r="191" spans="10:11" x14ac:dyDescent="0.25">
@@ -4745,7 +4747,7 @@
         <v>18.2</v>
       </c>
       <c r="K191">
-        <v>286.59999999999997</v>
+        <v>4189.3999999999996</v>
       </c>
     </row>
     <row r="192" spans="10:11" x14ac:dyDescent="0.25">
@@ -4753,7 +4755,7 @@
         <v>18.3</v>
       </c>
       <c r="K192">
-        <v>288.90000000000003</v>
+        <v>4229.1000000000004</v>
       </c>
     </row>
     <row r="193" spans="10:11" x14ac:dyDescent="0.25">
@@ -4761,7 +4763,7 @@
         <v>18.399999999999999</v>
       </c>
       <c r="K193">
-        <v>291.2</v>
+        <v>4268.7999999999993</v>
       </c>
     </row>
     <row r="194" spans="10:11" x14ac:dyDescent="0.25">
@@ -4769,7 +4771,7 @@
         <v>18.5</v>
       </c>
       <c r="K194">
-        <v>293.5</v>
+        <v>4308.5</v>
       </c>
     </row>
     <row r="195" spans="10:11" x14ac:dyDescent="0.25">
@@ -4777,7 +4779,7 @@
         <v>18.600000000000001</v>
       </c>
       <c r="K195">
-        <v>295.80000000000007</v>
+        <v>4348.2000000000007</v>
       </c>
     </row>
     <row r="196" spans="10:11" x14ac:dyDescent="0.25">
@@ -4785,7 +4787,7 @@
         <v>18.7</v>
       </c>
       <c r="K196">
-        <v>298.09999999999997</v>
+        <v>4387.8999999999996</v>
       </c>
     </row>
     <row r="197" spans="10:11" x14ac:dyDescent="0.25">
@@ -4793,7 +4795,7 @@
         <v>18.8</v>
       </c>
       <c r="K197">
-        <v>300.40000000000003</v>
+        <v>4427.6000000000004</v>
       </c>
     </row>
     <row r="198" spans="10:11" x14ac:dyDescent="0.25">
@@ -4801,7 +4803,7 @@
         <v>18.899999999999999</v>
       </c>
       <c r="K198">
-        <v>302.7</v>
+        <v>4467.2999999999993</v>
       </c>
     </row>
     <row r="199" spans="10:11" x14ac:dyDescent="0.25">
@@ -4809,7 +4811,7 @@
         <v>19</v>
       </c>
       <c r="K199">
-        <v>305</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="200" spans="10:11" x14ac:dyDescent="0.25">
@@ -4817,7 +4819,7 @@
         <v>19.100000000000001</v>
       </c>
       <c r="K200">
-        <v>307.30000000000007</v>
+        <v>4546.7000000000007</v>
       </c>
     </row>
     <row r="201" spans="10:11" x14ac:dyDescent="0.25">
@@ -4825,7 +4827,7 @@
         <v>19.2</v>
       </c>
       <c r="K201">
-        <v>309.60000000000002</v>
+        <v>4586.3999999999996</v>
       </c>
     </row>
     <row r="202" spans="10:11" x14ac:dyDescent="0.25">
@@ -4833,7 +4835,7 @@
         <v>19.3</v>
       </c>
       <c r="K202">
-        <v>311.90000000000003</v>
+        <v>4626.1000000000004</v>
       </c>
     </row>
     <row r="203" spans="10:11" x14ac:dyDescent="0.25">
@@ -4841,7 +4843,7 @@
         <v>19.399999999999999</v>
       </c>
       <c r="K203">
-        <v>314.2</v>
+        <v>4665.7999999999993</v>
       </c>
     </row>
     <row r="204" spans="10:11" x14ac:dyDescent="0.25">
@@ -4849,7 +4851,7 @@
         <v>19.5</v>
       </c>
       <c r="K204">
-        <v>316.5</v>
+        <v>4705.5</v>
       </c>
     </row>
     <row r="205" spans="10:11" x14ac:dyDescent="0.25">
@@ -4857,7 +4859,7 @@
         <v>19.600000000000001</v>
       </c>
       <c r="K205">
-        <v>318.80000000000007</v>
+        <v>4745.2000000000007</v>
       </c>
     </row>
     <row r="206" spans="10:11" x14ac:dyDescent="0.25">
@@ -4865,7 +4867,7 @@
         <v>19.7</v>
       </c>
       <c r="K206">
-        <v>321.10000000000002</v>
+        <v>4784.8999999999996</v>
       </c>
     </row>
     <row r="207" spans="10:11" x14ac:dyDescent="0.25">
@@ -4873,7 +4875,7 @@
         <v>19.8</v>
       </c>
       <c r="K207">
-        <v>323.40000000000003</v>
+        <v>4824.6000000000004</v>
       </c>
     </row>
     <row r="208" spans="10:11" x14ac:dyDescent="0.25">
@@ -4881,7 +4883,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="K208">
-        <v>325.7</v>
+        <v>4864.2999999999993</v>
       </c>
     </row>
     <row r="209" spans="10:11" x14ac:dyDescent="0.25">
@@ -4889,7 +4891,7 @@
         <v>20</v>
       </c>
       <c r="K209">
-        <v>328</v>
+        <v>4904</v>
       </c>
     </row>
     <row r="210" spans="10:11" x14ac:dyDescent="0.25">
@@ -4897,7 +4899,7 @@
         <v>20.100000000000001</v>
       </c>
       <c r="K210">
-        <v>330.30000000000007</v>
+        <v>4943.7000000000007</v>
       </c>
     </row>
     <row r="211" spans="10:11" x14ac:dyDescent="0.25">
@@ -4905,7 +4907,7 @@
         <v>20.2</v>
       </c>
       <c r="K211">
-        <v>332.6</v>
+        <v>4983.3999999999996</v>
       </c>
     </row>
     <row r="212" spans="10:11" x14ac:dyDescent="0.25">
@@ -4913,7 +4915,7 @@
         <v>20.3</v>
       </c>
       <c r="K212">
-        <v>334.90000000000003</v>
+        <v>5023.1000000000004</v>
       </c>
     </row>
     <row r="213" spans="10:11" x14ac:dyDescent="0.25">
@@ -4921,7 +4923,7 @@
         <v>20.399999999999999</v>
       </c>
       <c r="K213">
-        <v>337.2</v>
+        <v>5062.7999999999993</v>
       </c>
     </row>
     <row r="214" spans="10:11" x14ac:dyDescent="0.25">
@@ -4929,7 +4931,7 @@
         <v>20.5</v>
       </c>
       <c r="K214">
-        <v>339.5</v>
+        <v>5102.5</v>
       </c>
     </row>
     <row r="215" spans="10:11" x14ac:dyDescent="0.25">
@@ -4937,7 +4939,7 @@
         <v>20.6</v>
       </c>
       <c r="K215">
-        <v>341.80000000000007</v>
+        <v>5142.2000000000007</v>
       </c>
     </row>
     <row r="216" spans="10:11" x14ac:dyDescent="0.25">
@@ -4945,7 +4947,7 @@
         <v>20.7</v>
       </c>
       <c r="K216">
-        <v>344.1</v>
+        <v>5181.8999999999996</v>
       </c>
     </row>
     <row r="217" spans="10:11" x14ac:dyDescent="0.25">
@@ -4953,7 +4955,7 @@
         <v>20.8</v>
       </c>
       <c r="K217">
-        <v>346.40000000000003</v>
+        <v>5221.6000000000004</v>
       </c>
     </row>
     <row r="218" spans="10:11" x14ac:dyDescent="0.25">
@@ -4961,7 +4963,7 @@
         <v>20.9</v>
       </c>
       <c r="K218">
-        <v>348.7</v>
+        <v>5261.2999999999993</v>
       </c>
     </row>
     <row r="219" spans="10:11" x14ac:dyDescent="0.25">
@@ -4969,7 +4971,7 @@
         <v>21</v>
       </c>
       <c r="K219">
-        <v>351</v>
+        <v>5301</v>
       </c>
     </row>
     <row r="220" spans="10:11" x14ac:dyDescent="0.25">
@@ -4977,7 +4979,7 @@
         <v>21.1</v>
       </c>
       <c r="K220">
-        <v>353.30000000000007</v>
+        <v>5340.7000000000007</v>
       </c>
     </row>
     <row r="221" spans="10:11" x14ac:dyDescent="0.25">
@@ -4985,7 +4987,7 @@
         <v>21.2</v>
       </c>
       <c r="K221">
-        <v>355.6</v>
+        <v>5380.4</v>
       </c>
     </row>
     <row r="222" spans="10:11" x14ac:dyDescent="0.25">
@@ -4993,7 +4995,7 @@
         <v>21.3</v>
       </c>
       <c r="K222">
-        <v>357.90000000000003</v>
+        <v>5420.1</v>
       </c>
     </row>
     <row r="223" spans="10:11" x14ac:dyDescent="0.25">
@@ -5001,7 +5003,7 @@
         <v>21.4</v>
       </c>
       <c r="K223">
-        <v>360.2</v>
+        <v>5459.7999999999993</v>
       </c>
     </row>
     <row r="224" spans="10:11" x14ac:dyDescent="0.25">
@@ -5009,7 +5011,7 @@
         <v>21.5</v>
       </c>
       <c r="K224">
-        <v>362.5</v>
+        <v>5499.5</v>
       </c>
     </row>
     <row r="225" spans="10:11" x14ac:dyDescent="0.25">
@@ -5017,7 +5019,7 @@
         <v>21.6</v>
       </c>
       <c r="K225">
-        <v>364.80000000000007</v>
+        <v>5539.2000000000007</v>
       </c>
     </row>
     <row r="226" spans="10:11" x14ac:dyDescent="0.25">
@@ -5025,7 +5027,7 @@
         <v>21.7</v>
       </c>
       <c r="K226">
-        <v>367.1</v>
+        <v>5578.9</v>
       </c>
     </row>
     <row r="227" spans="10:11" x14ac:dyDescent="0.25">
@@ -5033,7 +5035,7 @@
         <v>21.8</v>
       </c>
       <c r="K227">
-        <v>369.40000000000003</v>
+        <v>5618.6</v>
       </c>
     </row>
     <row r="228" spans="10:11" x14ac:dyDescent="0.25">
@@ -5041,7 +5043,7 @@
         <v>21.9</v>
       </c>
       <c r="K228">
-        <v>371.7</v>
+        <v>5658.2999999999993</v>
       </c>
     </row>
     <row r="229" spans="10:11" x14ac:dyDescent="0.25">
@@ -5049,7 +5051,7 @@
         <v>22</v>
       </c>
       <c r="K229">
-        <v>374</v>
+        <v>5698</v>
       </c>
     </row>
   </sheetData>
@@ -5097,7 +5099,7 @@
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>21-Aug-2024</v>
+        <v>22-Aug-2024</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -5393,7 +5395,7 @@
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>21-Aug-2024</v>
+        <v>22-Aug-2024</v>
       </c>
       <c r="C3" s="2"/>
     </row>

--- a/AlternativeLinearInterpolation.xlsx
+++ b/AlternativeLinearInterpolation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93BDDC9-1270-499B-8BC4-0488FD15F158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AC396F-5DED-45DB-93CA-A4F415637DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -3126,7 +3126,7 @@
   <dimension ref="A1:L229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3187,7 +3187,7 @@
         <v>26</v>
       </c>
       <c r="I7" s="10">
-        <v>-10</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="J8" cm="1">
         <f t="array" ref="J8">TREND(F17:F18,E17:E18,_nx)</f>
-        <v>-7006</v>
+        <v>259.10000000000036</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -3223,11 +3223,11 @@
       </c>
       <c r="I9" t="b">
         <f>_nx&lt;_nmin</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" cm="1">
         <f t="array" ref="J9">TREND(F7:F8,E7:E8,_nx)</f>
-        <v>-76.000000000000014</v>
+        <v>52.100000000000016</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
@@ -3245,18 +3245,18 @@
       </c>
       <c r="I10" t="b">
         <f>IF(MEDIAN(_nmin,_nmax,_nx)=_nx,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="9" t="e">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9">
         <f>_xlfn.XMATCH(_nx,_nData,-1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K10" s="10" t="e" cm="1">
+        <v>8</v>
+      </c>
+      <c r="K10" s="10" cm="1">
         <f t="array" ref="K10:L10">J10+{0,1}</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L10" s="10" t="e">
-        <v>#N/A</v>
+        <v>8</v>
+      </c>
+      <c r="L10" s="10">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -3270,13 +3270,13 @@
       <c r="J11" t="s">
         <v>27</v>
       </c>
-      <c r="K11" t="e" cm="1">
+      <c r="K11" cm="1">
         <f t="array" ref="K11">INDEX(_nData,K10)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L11" t="e" cm="1">
+        <v>8</v>
+      </c>
+      <c r="L11" cm="1">
         <f t="array" ref="L11">INDEX(_nData,L10)</f>
-        <v>#N/A</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -3290,13 +3290,13 @@
       <c r="J12" t="s">
         <v>28</v>
       </c>
-      <c r="K12" t="e" cm="1">
+      <c r="K12" cm="1">
         <f t="array" ref="K12">INDEX($F$7:$F$18,K10)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L12" t="e" cm="1">
+        <v>512</v>
+      </c>
+      <c r="L12" cm="1">
         <f t="array" ref="L12">INDEX($F$7:$F$18,L10)</f>
-        <v>#N/A</v>
+        <v>729</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -3307,9 +3307,9 @@
         <f t="shared" si="0"/>
         <v>343</v>
       </c>
-      <c r="K13" t="e" cm="1">
+      <c r="K13" cm="1">
         <f t="array" ref="K13">TREND(K12:L12,K11:L11,_nx)</f>
-        <v>#VALUE!</v>
+        <v>577.10000000000014</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -3322,7 +3322,7 @@
       </c>
       <c r="I14" cm="1">
         <f t="array" ref="I14">_xlfn.SWITCH(TRUE,I8,J8,I9,J9,K13)</f>
-        <v>-76.000000000000014</v>
+        <v>577.10000000000014</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -3362,7 +3362,7 @@
       </c>
       <c r="K18">
         <f>I14</f>
-        <v>-76.000000000000014</v>
+        <v>577.10000000000014</v>
       </c>
     </row>
     <row r="19" spans="5:11" x14ac:dyDescent="0.25">

--- a/AlternativeLinearInterpolation.xlsx
+++ b/AlternativeLinearInterpolation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AC396F-5DED-45DB-93CA-A4F415637DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10090A16-D8C1-4148-B5EF-B09276B9B4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -641,10 +641,10 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FF99CCFF"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FFEBFFEB"/>
       <color rgb="FFFF9999"/>
-      <color rgb="FF99CCFF"/>
       <color rgb="FFEFFFEF"/>
     </mruColors>
   </colors>
@@ -1753,6 +1753,1037 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Report!$J$19:$J$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="147"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.5000000000000098</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.8000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.9000000000000101</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.0000000000000098</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.2000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.3000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.4000000000000101</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.5000000000000098</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.6000000000000103</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.7000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.8000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.9000000000000101</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.0000000000000107</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.1000000000000103</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8.2000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8.3000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8.4000000000000092</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8.5000000000000107</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.6000000000000103</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.7000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8.8000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8.9000000000000092</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.0000000000000107</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.1000000000000103</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.2000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9.3000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9.4000000000000092</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9.5000000000000107</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9.6000000000000103</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9.7000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9.8000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9.9000000000000092</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>15.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Report!$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-907E-4FD8-B585-ADAD90F25C9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Report!$J$19:$J$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="147"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.5000000000000098</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.8000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.9000000000000101</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.0000000000000098</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.2000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.3000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.4000000000000101</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.5000000000000098</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.6000000000000103</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.7000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.8000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.9000000000000101</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.0000000000000107</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.1000000000000103</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8.2000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8.3000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8.4000000000000092</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8.5000000000000107</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.6000000000000103</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.7000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8.8000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8.9000000000000092</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.0000000000000107</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.1000000000000103</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.2000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9.3000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9.4000000000000092</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9.5000000000000107</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9.6000000000000103</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9.7000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9.8000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9.9000000000000092</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>15.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Report!$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-907E-4FD8-B585-ADAD90F25C9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Exact</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="99CCFF"/>
+              </a:solidFill>
+              <a:ln w="31750">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:alpha val="99000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Report!$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Report!$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-907E-4FD8-B585-ADAD90F25C9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1831,7 +2862,7 @@
         <c:axId val="2122341135"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="-100"/>
+          <c:min val="-1000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3126,7 +4157,7 @@
   <dimension ref="A1:L229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3187,7 +4218,11 @@
         <v>26</v>
       </c>
       <c r="I7" s="10">
-        <v>8.3000000000000007</v>
+        <v>-5</v>
+      </c>
+      <c r="J7">
+        <f>_nx^3</f>
+        <v>-125</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -3207,7 +4242,7 @@
       </c>
       <c r="J8" cm="1">
         <f t="array" ref="J8">TREND(F17:F18,E17:E18,_nx)</f>
-        <v>259.10000000000036</v>
+        <v>-5021</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -3223,11 +4258,11 @@
       </c>
       <c r="I9" t="b">
         <f>_nx&lt;_nmin</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" cm="1">
         <f t="array" ref="J9">TREND(F7:F8,E7:E8,_nx)</f>
-        <v>52.100000000000016</v>
+        <v>-41.000000000000007</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
@@ -3245,18 +4280,18 @@
       </c>
       <c r="I10" t="b">
         <f>IF(MEDIAN(_nmin,_nmax,_nx)=_nx,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9" t="e">
         <f>_xlfn.XMATCH(_nx,_nData,-1)</f>
-        <v>8</v>
-      </c>
-      <c r="K10" s="10" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="K10" s="10" t="e" cm="1">
         <f t="array" ref="K10:L10">J10+{0,1}</f>
-        <v>8</v>
-      </c>
-      <c r="L10" s="10">
-        <v>9</v>
+        <v>#N/A</v>
+      </c>
+      <c r="L10" s="10" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -3270,13 +4305,13 @@
       <c r="J11" t="s">
         <v>27</v>
       </c>
-      <c r="K11" cm="1">
+      <c r="K11" t="e" cm="1">
         <f t="array" ref="K11">INDEX(_nData,K10)</f>
-        <v>8</v>
-      </c>
-      <c r="L11" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="L11" t="e" cm="1">
         <f t="array" ref="L11">INDEX(_nData,L10)</f>
-        <v>9</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -3290,13 +4325,13 @@
       <c r="J12" t="s">
         <v>28</v>
       </c>
-      <c r="K12" cm="1">
+      <c r="K12" t="e" cm="1">
         <f t="array" ref="K12">INDEX($F$7:$F$18,K10)</f>
-        <v>512</v>
-      </c>
-      <c r="L12" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="L12" t="e" cm="1">
         <f t="array" ref="L12">INDEX($F$7:$F$18,L10)</f>
-        <v>729</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -3307,9 +4342,9 @@
         <f t="shared" si="0"/>
         <v>343</v>
       </c>
-      <c r="K13" cm="1">
+      <c r="K13" t="e" cm="1">
         <f t="array" ref="K13">TREND(K12:L12,K11:L11,_nx)</f>
-        <v>577.10000000000014</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -3322,7 +4357,7 @@
       </c>
       <c r="I14" cm="1">
         <f t="array" ref="I14">_xlfn.SWITCH(TRUE,I8,J8,I9,J9,K13)</f>
-        <v>577.10000000000014</v>
+        <v>-41.000000000000007</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -3362,7 +4397,7 @@
       </c>
       <c r="K18">
         <f>I14</f>
-        <v>577.10000000000014</v>
+        <v>-41.000000000000007</v>
       </c>
     </row>
     <row r="19" spans="5:11" x14ac:dyDescent="0.25">
@@ -5056,7 +6091,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/AlternativeLinearInterpolation.xlsx
+++ b/AlternativeLinearInterpolation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10090A16-D8C1-4148-B5EF-B09276B9B4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D96078F-6046-4765-8F1C-16604AF776E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -726,10 +726,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Report!$J$19:$J$165</c:f>
+              <c:f>Report!$J$19:$J$181</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="147"/>
+                <c:ptCount val="163"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1170,16 +1170,64 @@
                 </c:pt>
                 <c:pt idx="146">
                   <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>16.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>16.3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>17.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Report!$K$19:$K$165</c:f>
+              <c:f>Report!$K$19:$K$181</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="147"/>
+                <c:ptCount val="163"/>
                 <c:pt idx="0">
                   <c:v>0.99999999999999911</c:v>
                 </c:pt>
@@ -1620,6 +1668,54 @@
                 </c:pt>
                 <c:pt idx="146">
                   <c:v>3157.2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>3196.8999999999996</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>3236.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3276.3</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3316</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>3355.7000000000007</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3395.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3435.1000000000004</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3474.7999999999993</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>3514.5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>3554.2000000000007</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>3593.8999999999996</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>3633.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3673.2999999999993</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3713</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3752.7000000000007</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3792.3999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4156,8 +4252,8 @@
   </sheetPr>
   <dimension ref="A1:L229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/AlternativeLinearInterpolation.xlsx
+++ b/AlternativeLinearInterpolation.xlsx
@@ -1,33 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://starkeyhearingtechnologies-my.sharepoint.com/personal/mark_biegert_starkey_com/Documents/Desktop/Toss/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D96078F-6046-4765-8F1C-16604AF776E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="8_{B2F2CAE9-2CDB-4DD3-816A-24EA12F97E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CB8391C-6CEF-42D9-B28E-95C3A8EFCB71}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="57480" yWindow="1665" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
-    <sheet name="Formats" sheetId="2" r:id="rId2"/>
-    <sheet name="Lists" sheetId="3" r:id="rId3"/>
+    <sheet name="InterpolationWithExtension" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_nData" localSheetId="1">InterpolationWithExtension!$E$7:$E$18</definedName>
     <definedName name="_nData">Report!$E$7:$E$18</definedName>
+    <definedName name="_nFunction">InterpolationWithExtension!$F$7:$F$18</definedName>
     <definedName name="_nmax">Report!$I$6</definedName>
+    <definedName name="_nmin" localSheetId="1">InterpolationWithExtension!$I$5</definedName>
     <definedName name="_nmin">Report!$I$5</definedName>
+    <definedName name="_nVar">InterpolationWithExtension!$I$6</definedName>
     <definedName name="_nx">Report!$I$7</definedName>
+    <definedName name="fInterp">_xlfn.LAMBDA(_xlpm.yraw,_xlpm.xraw,_xlpm.x, _xlfn.LET( _xlpm.i, MEDIAN(MIN(_xlpm.xraw),MAX(_xlpm.xraw),_xlpm.x)+IF(_xlpm.x&gt;=MAX(_xlpm.xraw),{0;-1},{0;1}), _xlpm.xr, INDEX(_xlpm.xraw,_xlpm.i), _xlpm.yr, INDEX(_xlpm.yraw,_xlpm.i), TREND(_xlpm.yr,_xlpm.xr,_xlpm.x) ) )</definedName>
     <definedName name="HD_Date">_xlfn.LET(_xlpm.dt, TODAY(),      _xlpm.y,  YEAR(_xlpm.dt),      _xlpm.m,  MONTH(_xlpm.dt),      _xlpm.d,  DAY(_xlpm.dt),      TEXT(DATE(_xlpm.y,_xlpm.m,_xlpm.d),"dd-mmm-yyyy")     )</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>FROM:</t>
   </si>
@@ -80,57 +81,6 @@
   </si>
   <si>
     <t>DATE:</t>
-  </si>
-  <si>
-    <t>Category A</t>
-  </si>
-  <si>
-    <t>Category B</t>
-  </si>
-  <si>
-    <t>Category C</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Sum of Value</t>
-  </si>
-  <si>
-    <t>Table Formats</t>
-  </si>
-  <si>
-    <t>Tab Colors</t>
-  </si>
-  <si>
-    <t>Data Tabs</t>
-  </si>
-  <si>
-    <t>Report Tabs</t>
-  </si>
-  <si>
-    <t>Analysis Tabs</t>
-  </si>
-  <si>
-    <t>Metadata Tabs</t>
   </si>
   <si>
     <t>Up</t>
@@ -155,6 +105,9 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>fx</t>
   </si>
 </sst>
 </file>
@@ -246,7 +199,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,30 +221,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99CCFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9999"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,18 +280,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="8"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -3069,6 +2992,1607 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.2953193350831146E-2"/>
+          <c:y val="0.13393924898349677"/>
+          <c:w val="0.89274125109361335"/>
+          <c:h val="0.70342023439368573"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Exact</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>InterpolationWithExtension!$E$7:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>InterpolationWithExtension!$F$7:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1331</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1728</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-CB0F-41FF-B69D-4F6749FC4069}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Interpolation</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="6350" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>InterpolationWithExtension!$I$20:$I$219</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.70000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.50000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.40000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.30000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.20000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.10000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.3877787807814457E-16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.9999999999999867E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.19999999999999987</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.29999999999999988</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.39999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.49999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.59999999999999987</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.69999999999999984</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.79999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.8999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99999999999999978</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.5000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.6000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.7000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.8000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.9000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.0000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.2000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.4000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.5000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.8000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.9000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.0000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.2000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.3000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.4000000000000017</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.5000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.6000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.9000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.0000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.7999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.8999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.9999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.0999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.1999999999999975</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.2999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.3999999999999968</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.4999999999999964</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.5999999999999961</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.6999999999999957</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.7999999999999954</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.9999999999999947</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6.0999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.199999999999994</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.2999999999999936</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.3999999999999932</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.4999999999999929</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.5999999999999925</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.6999999999999922</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.7999999999999918</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6.8999999999999915</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.9999999999999911</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7.0999999999999908</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7.1999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7.2999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7.3999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7.4999999999999893</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7.599999999999989</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.6999999999999886</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.7999999999999883</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.8999999999999879</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.9999999999999876</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8.0999999999999872</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8.1999999999999869</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8.2999999999999865</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8.3999999999999861</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8.4999999999999858</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>8.5999999999999854</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>8.6999999999999851</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8.7999999999999847</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8.8999999999999844</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>8.999999999999984</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>9.0999999999999837</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>9.1999999999999833</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>9.2999999999999829</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>9.3999999999999826</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>9.4999999999999822</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>9.5999999999999819</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>9.6999999999999815</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>9.7999999999999812</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>9.8999999999999808</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>9.9999999999999805</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>10.09999999999998</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>10.19999999999998</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>10.299999999999979</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>10.399999999999979</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>10.499999999999979</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>10.599999999999978</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>10.699999999999978</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>10.799999999999978</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>10.899999999999977</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>10.999999999999977</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>11.099999999999977</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>11.199999999999976</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>11.299999999999976</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>11.399999999999975</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>11.499999999999975</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>11.599999999999975</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>11.699999999999974</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>11.799999999999974</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>11.899999999999974</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>11.999999999999973</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>12.099999999999973</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>12.199999999999973</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>12.299999999999972</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>12.399999999999972</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>12.499999999999972</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>12.599999999999971</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>12.699999999999971</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>12.799999999999971</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>12.89999999999997</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>12.99999999999997</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>13.099999999999969</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>13.199999999999969</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>13.299999999999969</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>13.399999999999968</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>13.499999999999968</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>13.599999999999968</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>13.699999999999967</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>13.799999999999967</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>13.899999999999967</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>13.999999999999966</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>14.099999999999966</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>14.199999999999966</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>14.299999999999965</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>14.399999999999965</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>14.499999999999964</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>14.599999999999964</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>14.699999999999964</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>14.799999999999963</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>14.899999999999963</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>14.999999999999963</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>15.099999999999962</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>15.199999999999962</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>15.299999999999962</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>15.399999999999961</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>15.499999999999961</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>15.599999999999961</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>15.69999999999996</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>15.79999999999996</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>15.899999999999959</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>15.999999999999959</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>16.099999999999959</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>16.19999999999996</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>16.299999999999962</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>16.399999999999963</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>16.499999999999964</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>16.599999999999966</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>16.699999999999967</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>16.799999999999969</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>16.89999999999997</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>16.999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>17.099999999999973</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>17.199999999999974</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>17.299999999999976</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>17.399999999999977</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>17.499999999999979</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>17.59999999999998</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>17.699999999999982</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>17.799999999999983</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>17.899999999999984</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>17.999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>18.099999999999987</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>18.199999999999989</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>18.29999999999999</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>18.399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>18.499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>18.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>18.699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>18.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>InterpolationWithExtension!$J$20:$J$219</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>-13.000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-12.300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-11.600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10.900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-9.5000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.8000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.1000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-7.400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6.7000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-6.0000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-5.3000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.6000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.9000000000000026</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.5000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.8000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.1000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.40000000000000213</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.29999999999999805</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99999999999999734</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.6999999999999984</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.3999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.5000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.9000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.6000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.3000000000000043</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.0000000000000071</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.9000000000000128</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11.800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.700000000000017</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>15.600000000000016</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17.500000000000021</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>19.40000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>21.300000000000026</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>23.200000000000024</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25.10000000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>27.000000000000043</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30.700000000000045</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>34.400000000000063</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>38.100000000000065</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>41.800000000000068</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45.500000000000057</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>49.200000000000074</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>52.900000000000063</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>56.60000000000008</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>60.300000000000068</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>64.000000000000085</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>70.100000000000051</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>76.200000000000045</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>82.300000000000011</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>88.399999999999977</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>94.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>100.59999999999997</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>106.69999999999993</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>112.7999999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>118.89999999999986</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>124.99999999999983</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>134.0999999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>143.19999999999976</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>152.29999999999973</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>161.39999999999969</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>170.49999999999966</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>179.59999999999962</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>188.69999999999959</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>197.79999999999961</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>206.89999999999952</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>215.99999999999932</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>228.69999999999925</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>241.39999999999918</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>254.09999999999911</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>266.79999999999916</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>279.49999999999909</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>292.19999999999902</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>304.89999999999895</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>317.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>330.29999999999893</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>342.99999999999864</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>359.8999999999985</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>376.79999999999836</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>393.69999999999823</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>410.59999999999832</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>427.49999999999818</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>444.39999999999804</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>461.29999999999814</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>478.199999999998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>495.09999999999786</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>511.99999999999727</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>533.69999999999732</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>555.39999999999714</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>577.09999999999718</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>598.799999999997</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>620.49999999999704</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>642.19999999999686</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>663.89999999999691</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>685.59999999999673</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>707.29999999999677</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>728.99999999999545</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>756.09999999999536</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>783.19999999999527</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>810.29999999999518</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>837.39999999999509</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>864.499999999995</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>891.59999999999491</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>918.69999999999482</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>945.79999999999472</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>972.89999999999463</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>999.99999999999363</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1033.0999999999935</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1066.1999999999935</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1099.2999999999934</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1132.3999999999933</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1165.4999999999927</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1198.5999999999926</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1231.6999999999925</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1264.7999999999925</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1297.8999999999924</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1330.9999999999909</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1370.6999999999907</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1410.3999999999905</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1450.0999999999904</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1489.7999999999902</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1529.49999999999</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1569.1999999999898</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1608.8999999999896</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1648.5999999999894</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1688.2999999999893</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1727.9999999999891</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1767.6999999999889</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1807.3999999999887</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1847.0999999999894</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1886.7999999999893</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1926.4999999999891</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1966.1999999999889</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2005.8999999999887</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2045.5999999999885</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2085.2999999999884</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2124.9999999999882</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2164.699999999988</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2204.3999999999878</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2244.0999999999876</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2283.7999999999874</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2323.4999999999873</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2363.1999999999871</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2402.8999999999869</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2442.5999999999867</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2482.2999999999865</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2521.9999999999864</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2561.6999999999862</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2601.399999999986</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2641.0999999999858</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2680.7999999999856</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2720.4999999999854</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2760.1999999999862</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2799.899999999986</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2839.5999999999858</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2879.2999999999856</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2918.9999999999854</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2958.6999999999853</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2998.3999999999851</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3038.0999999999849</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3077.7999999999847</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>3117.4999999999845</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>3157.1999999999844</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>3196.8999999999842</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3236.599999999984</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3276.2999999999838</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>3315.9999999999836</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>3355.6999999999834</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3395.3999999999842</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>3435.0999999999849</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3474.7999999999856</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>3514.4999999999854</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>3554.1999999999862</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>3593.8999999999869</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>3633.5999999999876</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>3673.2999999999884</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>3712.9999999999891</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>3752.6999999999889</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>3792.3999999999896</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>3832.0999999999904</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>3871.7999999999911</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>3911.4999999999918</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>3951.1999999999925</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>3990.8999999999924</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>4030.5999999999931</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>4070.2999999999938</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>4109.9999999999945</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>4149.6999999999953</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>4189.3999999999951</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>4229.0999999999958</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>4268.7999999999965</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>4308.4999999999973</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>4348.199999999998</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>4387.8999999999987</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>4427.5999999999985</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>4467.2999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-CB0F-41FF-B69D-4F6749FC4069}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2122342575"/>
+        <c:axId val="2122341135"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2122342575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="13"/>
+          <c:min val="12"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2122341135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2122341135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2128"/>
+          <c:min val="1725"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2122342575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3109,7 +4633,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3668,396 +5748,45 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>511974</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>117088</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="A screenshot of a computer&#10;&#10;Description automatically generated">
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94B3A76A-AD87-A2F0-F0E9-6A004CA461AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26EEC903-7A0F-4C90-8926-CF11ABC88FC4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6696075" y="314325"/>
-          <a:ext cx="10275099" cy="6325483"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>819151</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>95195</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>321946</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6" name="Group 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C152DCAB-1278-82E3-CFEB-6F87AEC44F74}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="3158491" y="270455"/>
-          <a:ext cx="2205990" cy="464875"/>
-          <a:chOff x="3162301" y="274265"/>
-          <a:chExt cx="2198370" cy="459814"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="TextBox 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5418FC71-57C1-F5D7-BE08-370D83484521}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3162301" y="274265"/>
-            <a:ext cx="809778" cy="446678"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent3">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="1"/>
-              <a:t>FROM:</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="1"/>
-              <a:t>SUBJECT:</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="1"/>
-              <a:t>DATE:</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="TextBox 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26264A4F-00E9-4727-AA3D-59D97AF5D346}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3908004" y="274265"/>
-            <a:ext cx="1452667" cy="459814"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg2"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="0"/>
-              <a:t>Mark Biegert</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="0"/>
-              <a:t>Placeholder</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="0"/>
-              <a:t>1-Jan-2024</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="mbieg" refreshedDate="45524.874881249998" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="6" xr:uid="{5BA04B22-7455-4FEB-9C74-146E8376D702}">
-  <cacheSource type="worksheet">
-    <worksheetSource name="_tSample"/>
-  </cacheSource>
-  <cacheFields count="4">
-    <cacheField name="Category A" numFmtId="0">
-      <sharedItems count="3">
-        <s v="A"/>
-        <s v="B"/>
-        <s v="C"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Category B" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="2" count="2">
-        <n v="1"/>
-        <n v="2"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Category C" numFmtId="0">
-      <sharedItems count="2">
-        <s v="a"/>
-        <s v="b"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Value" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="6"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="6">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="6"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
-  <location ref="B17:F28" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0">
-      <items count="2">
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" compact="0" showAll="0" defaultSubtotal="0">
-      <items count="2">
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Value" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="Biegert Standard Pivot Table" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{33EBBF0F-200B-49A7-BE86-E02A26DD1F32}" name="_tSample" displayName="_tSample" ref="B7:E13" totalsRowShown="0">
-  <autoFilter ref="B7:E13" xr:uid="{33EBBF0F-200B-49A7-BE86-E02A26DD1F32}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{EAB90AB9-4DF0-4D28-92FF-E92E2FB5C4B8}" name="Category A"/>
-    <tableColumn id="2" xr3:uid="{A84F4913-BB7E-445E-9D72-1273969F005C}" name="Category B"/>
-    <tableColumn id="3" xr3:uid="{530D0831-FD68-42CB-A157-472F1AD1DA2D}" name="Category C"/>
-    <tableColumn id="4" xr3:uid="{8E3678D5-6F31-40B1-AEA1-B9917C6282B5}" name="Value"/>
-  </tableColumns>
-  <tableStyleInfo name="Biegert Table Standard" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4252,13 +5981,13 @@
   </sheetPr>
   <dimension ref="A1:L229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4267,42 +5996,42 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>22-Aug-2024</v>
+        <v>10-Sep-2024</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H5" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="I5">
         <f>MIN(_nData)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H6" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="I6">
         <f>MAX(E7:E17)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E7">
         <v>1</v>
       </c>
@@ -4311,9 +6040,9 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="10">
+        <v>9</v>
+      </c>
+      <c r="I7" s="4">
         <v>-5</v>
       </c>
       <c r="J7">
@@ -4321,7 +6050,7 @@
         <v>-125</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E8">
         <v>2</v>
       </c>
@@ -4330,7 +6059,7 @@
         <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="I8" t="b">
         <f>IF(_nx&gt;_nmax,TRUE,FALSE)</f>
@@ -4341,7 +6070,7 @@
         <v>-5021</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E9">
         <v>3</v>
       </c>
@@ -4350,7 +6079,7 @@
         <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="I9" t="b">
         <f>_nx&lt;_nmin</f>
@@ -4360,10 +6089,10 @@
         <f t="array" ref="J9">TREND(F7:F8,E7:E8,_nx)</f>
         <v>-41.000000000000007</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E10">
         <v>4</v>
       </c>
@@ -4372,25 +6101,25 @@
         <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="I10" t="b">
         <f>IF(MEDIAN(_nmin,_nmax,_nx)=_nx,TRUE,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="9" t="e">
+      <c r="J10" s="3" t="e">
         <f>_xlfn.XMATCH(_nx,_nData,-1)</f>
         <v>#N/A</v>
       </c>
-      <c r="K10" s="10" t="e" cm="1">
+      <c r="K10" s="4" t="e" cm="1">
         <f t="array" ref="K10:L10">J10+{0,1}</f>
         <v>#N/A</v>
       </c>
-      <c r="L10" s="10" t="e">
+      <c r="L10" s="4" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E11">
         <v>5</v>
       </c>
@@ -4399,7 +6128,7 @@
         <v>125</v>
       </c>
       <c r="J11" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="K11" t="e" cm="1">
         <f t="array" ref="K11">INDEX(_nData,K10)</f>
@@ -4410,7 +6139,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E12">
         <v>6</v>
       </c>
@@ -4419,7 +6148,7 @@
         <v>216</v>
       </c>
       <c r="J12" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="K12" t="e" cm="1">
         <f t="array" ref="K12">INDEX($F$7:$F$18,K10)</f>
@@ -4430,7 +6159,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E13">
         <v>7</v>
       </c>
@@ -4443,7 +6172,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E14">
         <v>8</v>
       </c>
@@ -4456,7 +6185,7 @@
         <v>-41.000000000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E15">
         <v>9</v>
       </c>
@@ -4465,7 +6194,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E16">
         <v>10</v>
       </c>
@@ -4474,7 +6203,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E17">
         <v>11</v>
       </c>
@@ -4483,7 +6212,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E18">
         <v>12</v>
       </c>
@@ -4496,7 +6225,7 @@
         <v>-41.000000000000007</v>
       </c>
     </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
       <c r="J19">
         <v>1</v>
       </c>
@@ -4505,7 +6234,7 @@
         <v>0.99999999999999911</v>
       </c>
     </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:11" x14ac:dyDescent="0.3">
       <c r="J20">
         <v>1.1000000000000001</v>
       </c>
@@ -4513,7 +6242,7 @@
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:11" x14ac:dyDescent="0.3">
       <c r="J21">
         <v>1.2</v>
       </c>
@@ -4521,7 +6250,7 @@
         <v>2.3999999999999986</v>
       </c>
     </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:11" x14ac:dyDescent="0.3">
       <c r="J22">
         <v>1.3</v>
       </c>
@@ -4529,7 +6258,7 @@
         <v>3.0999999999999996</v>
       </c>
     </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:11" x14ac:dyDescent="0.3">
       <c r="J23">
         <v>1.4</v>
       </c>
@@ -4537,7 +6266,7 @@
         <v>3.7999999999999989</v>
       </c>
     </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:11" x14ac:dyDescent="0.3">
       <c r="J24">
         <v>1.5</v>
       </c>
@@ -4545,7 +6274,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:11" x14ac:dyDescent="0.3">
       <c r="J25">
         <v>1.6</v>
       </c>
@@ -4553,7 +6282,7 @@
         <v>5.2000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:11" x14ac:dyDescent="0.3">
       <c r="J26">
         <v>1.7</v>
       </c>
@@ -4561,7 +6290,7 @@
         <v>5.8999999999999986</v>
       </c>
     </row>
-    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:11" x14ac:dyDescent="0.3">
       <c r="J27">
         <v>1.8</v>
       </c>
@@ -4569,7 +6298,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:11" x14ac:dyDescent="0.3">
       <c r="J28">
         <v>1.9</v>
       </c>
@@ -4577,7 +6306,7 @@
         <v>7.2999999999999989</v>
       </c>
     </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:11" x14ac:dyDescent="0.3">
       <c r="J29">
         <v>2</v>
       </c>
@@ -4585,7 +6314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:11" x14ac:dyDescent="0.3">
       <c r="J30">
         <v>2.1</v>
       </c>
@@ -4593,7 +6322,7 @@
         <v>9.9000000000000057</v>
       </c>
     </row>
-    <row r="31" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:11" x14ac:dyDescent="0.3">
       <c r="J31">
         <v>2.2000000000000002</v>
       </c>
@@ -4601,7 +6330,7 @@
         <v>11.800000000000004</v>
       </c>
     </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:11" x14ac:dyDescent="0.3">
       <c r="J32">
         <v>2.2999999999999998</v>
       </c>
@@ -4609,7 +6338,7 @@
         <v>13.699999999999996</v>
       </c>
     </row>
-    <row r="33" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J33">
         <v>2.4</v>
       </c>
@@ -4617,7 +6346,7 @@
         <v>15.600000000000001</v>
       </c>
     </row>
-    <row r="34" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J34">
         <v>2.5</v>
       </c>
@@ -4625,7 +6354,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="35" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J35">
         <v>2.6</v>
       </c>
@@ -4633,7 +6362,7 @@
         <v>19.400000000000006</v>
       </c>
     </row>
-    <row r="36" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J36">
         <v>2.7</v>
       </c>
@@ -4641,7 +6370,7 @@
         <v>21.300000000000011</v>
       </c>
     </row>
-    <row r="37" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J37">
         <v>2.8</v>
       </c>
@@ -4649,7 +6378,7 @@
         <v>23.200000000000003</v>
       </c>
     </row>
-    <row r="38" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J38">
         <v>2.9</v>
       </c>
@@ -4657,7 +6386,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="39" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J39">
         <v>3</v>
       </c>
@@ -4665,7 +6394,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J40">
         <v>3.1</v>
       </c>
@@ -4673,7 +6402,7 @@
         <v>30.700000000000003</v>
       </c>
     </row>
-    <row r="41" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J41">
         <v>3.2</v>
       </c>
@@ -4681,7 +6410,7 @@
         <v>34.400000000000006</v>
       </c>
     </row>
-    <row r="42" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J42">
         <v>3.3</v>
       </c>
@@ -4689,7 +6418,7 @@
         <v>38.099999999999994</v>
       </c>
     </row>
-    <row r="43" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J43">
         <v>3.4</v>
       </c>
@@ -4697,7 +6426,7 @@
         <v>41.8</v>
       </c>
     </row>
-    <row r="44" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J44">
         <v>3.5</v>
       </c>
@@ -4705,7 +6434,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="45" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J45">
         <v>3.6</v>
       </c>
@@ -4713,7 +6442,7 @@
         <v>49.200000000000017</v>
       </c>
     </row>
-    <row r="46" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J46">
         <v>3.7</v>
       </c>
@@ -4721,7 +6450,7 @@
         <v>52.900000000000006</v>
       </c>
     </row>
-    <row r="47" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J47">
         <v>3.8</v>
       </c>
@@ -4729,7 +6458,7 @@
         <v>56.599999999999994</v>
       </c>
     </row>
-    <row r="48" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J48">
         <v>3.9</v>
       </c>
@@ -4737,7 +6466,7 @@
         <v>60.299999999999983</v>
       </c>
     </row>
-    <row r="49" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J49">
         <v>4</v>
       </c>
@@ -4745,7 +6474,7 @@
         <v>63.999999999999972</v>
       </c>
     </row>
-    <row r="50" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J50">
         <v>4.0999999999999996</v>
       </c>
@@ -4753,7 +6482,7 @@
         <v>70.099999999999937</v>
       </c>
     </row>
-    <row r="51" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J51">
         <v>4.2</v>
       </c>
@@ -4761,7 +6490,7 @@
         <v>76.199999999999989</v>
       </c>
     </row>
-    <row r="52" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J52">
         <v>4.3</v>
       </c>
@@ -4769,7 +6498,7 @@
         <v>82.299999999999955</v>
       </c>
     </row>
-    <row r="53" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J53">
         <v>4.4000000000000004</v>
       </c>
@@ -4777,7 +6506,7 @@
         <v>88.399999999999977</v>
       </c>
     </row>
-    <row r="54" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J54">
         <v>4.5</v>
       </c>
@@ -4785,7 +6514,7 @@
         <v>94.5</v>
       </c>
     </row>
-    <row r="55" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J55">
         <v>4.5999999999999996</v>
       </c>
@@ -4793,7 +6522,7 @@
         <v>100.59999999999997</v>
       </c>
     </row>
-    <row r="56" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J56">
         <v>4.7</v>
       </c>
@@ -4801,7 +6530,7 @@
         <v>106.69999999999999</v>
       </c>
     </row>
-    <row r="57" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J57">
         <v>4.8</v>
       </c>
@@ -4809,7 +6538,7 @@
         <v>112.79999999999995</v>
       </c>
     </row>
-    <row r="58" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J58">
         <v>4.9000000000000004</v>
       </c>
@@ -4817,7 +6546,7 @@
         <v>118.89999999999998</v>
       </c>
     </row>
-    <row r="59" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J59">
         <v>5</v>
       </c>
@@ -4825,7 +6554,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J60">
         <v>5.0999999999999996</v>
       </c>
@@ -4833,7 +6562,7 @@
         <v>134.09999999999997</v>
       </c>
     </row>
-    <row r="61" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J61">
         <v>5.2</v>
       </c>
@@ -4841,7 +6570,7 @@
         <v>143.19999999999999</v>
       </c>
     </row>
-    <row r="62" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J62">
         <v>5.3</v>
       </c>
@@ -4849,7 +6578,7 @@
         <v>152.30000000000001</v>
       </c>
     </row>
-    <row r="63" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J63">
         <v>5.4</v>
       </c>
@@ -4857,7 +6586,7 @@
         <v>161.40000000000003</v>
       </c>
     </row>
-    <row r="64" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J64">
         <v>5.5</v>
       </c>
@@ -4865,7 +6594,7 @@
         <v>170.5</v>
       </c>
     </row>
-    <row r="65" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J65">
         <v>5.6</v>
       </c>
@@ -4873,7 +6602,7 @@
         <v>179.59999999999997</v>
       </c>
     </row>
-    <row r="66" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J66">
         <v>5.7</v>
       </c>
@@ -4881,7 +6610,7 @@
         <v>188.70000000000005</v>
       </c>
     </row>
-    <row r="67" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J67">
         <v>5.8</v>
       </c>
@@ -4889,7 +6618,7 @@
         <v>197.79999999999995</v>
       </c>
     </row>
-    <row r="68" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J68">
         <v>5.9</v>
       </c>
@@ -4897,7 +6626,7 @@
         <v>206.89999999999998</v>
       </c>
     </row>
-    <row r="69" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J69">
         <v>6</v>
       </c>
@@ -4905,7 +6634,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="70" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J70">
         <v>6.1</v>
       </c>
@@ -4913,7 +6642,7 @@
         <v>228.69999999999993</v>
       </c>
     </row>
-    <row r="71" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J71">
         <v>6.2</v>
       </c>
@@ -4921,7 +6650,7 @@
         <v>241.39999999999998</v>
       </c>
     </row>
-    <row r="72" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J72">
         <v>6.3</v>
       </c>
@@ -4929,7 +6658,7 @@
         <v>254.09999999999991</v>
       </c>
     </row>
-    <row r="73" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J73">
         <v>6.4</v>
       </c>
@@ -4937,7 +6666,7 @@
         <v>266.80000000000007</v>
       </c>
     </row>
-    <row r="74" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J74">
         <v>6.5000000000000098</v>
       </c>
@@ -4945,7 +6674,7 @@
         <v>279.50000000000125</v>
       </c>
     </row>
-    <row r="75" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J75">
         <v>6.6</v>
       </c>
@@ -4953,7 +6682,7 @@
         <v>292.19999999999993</v>
       </c>
     </row>
-    <row r="76" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J76">
         <v>6.7</v>
       </c>
@@ -4961,7 +6690,7 @@
         <v>304.89999999999998</v>
       </c>
     </row>
-    <row r="77" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J77">
         <v>6.8000000000000096</v>
       </c>
@@ -4969,7 +6698,7 @@
         <v>317.60000000000116</v>
       </c>
     </row>
-    <row r="78" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J78">
         <v>6.9000000000000101</v>
       </c>
@@ -4977,7 +6706,7 @@
         <v>330.30000000000132</v>
       </c>
     </row>
-    <row r="79" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J79">
         <v>7.0000000000000098</v>
       </c>
@@ -4985,7 +6714,7 @@
         <v>343.00000000000159</v>
       </c>
     </row>
-    <row r="80" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J80">
         <v>7.1</v>
       </c>
@@ -4993,7 +6722,7 @@
         <v>359.89999999999986</v>
       </c>
     </row>
-    <row r="81" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J81">
         <v>7.2000000000000099</v>
       </c>
@@ -5001,7 +6730,7 @@
         <v>376.80000000000177</v>
       </c>
     </row>
-    <row r="82" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J82">
         <v>7.3000000000000096</v>
       </c>
@@ -5009,7 +6738,7 @@
         <v>393.70000000000164</v>
       </c>
     </row>
-    <row r="83" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J83">
         <v>7.4000000000000101</v>
       </c>
@@ -5017,7 +6746,7 @@
         <v>410.60000000000173</v>
       </c>
     </row>
-    <row r="84" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J84">
         <v>7.5000000000000098</v>
       </c>
@@ -5025,7 +6754,7 @@
         <v>427.50000000000159</v>
       </c>
     </row>
-    <row r="85" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J85">
         <v>7.6000000000000103</v>
       </c>
@@ -5033,7 +6762,7 @@
         <v>444.40000000000168</v>
       </c>
     </row>
-    <row r="86" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J86">
         <v>7.7000000000000099</v>
       </c>
@@ -5041,7 +6770,7 @@
         <v>461.30000000000177</v>
       </c>
     </row>
-    <row r="87" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J87">
         <v>7.8000000000000096</v>
       </c>
@@ -5049,7 +6778,7 @@
         <v>478.20000000000164</v>
       </c>
     </row>
-    <row r="88" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J88">
         <v>7.9000000000000101</v>
       </c>
@@ -5057,7 +6786,7 @@
         <v>495.10000000000173</v>
       </c>
     </row>
-    <row r="89" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J89">
         <v>8.0000000000000107</v>
       </c>
@@ -5065,7 +6794,7 @@
         <v>512.00000000000227</v>
       </c>
     </row>
-    <row r="90" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J90">
         <v>8.1000000000000103</v>
       </c>
@@ -5073,7 +6802,7 @@
         <v>533.70000000000232</v>
       </c>
     </row>
-    <row r="91" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J91">
         <v>8.2000000000000099</v>
       </c>
@@ -5081,7 +6810,7 @@
         <v>555.40000000000214</v>
       </c>
     </row>
-    <row r="92" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J92">
         <v>8.3000000000000096</v>
       </c>
@@ -5089,7 +6818,7 @@
         <v>577.10000000000218</v>
       </c>
     </row>
-    <row r="93" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J93">
         <v>8.4000000000000092</v>
       </c>
@@ -5097,7 +6826,7 @@
         <v>598.800000000002</v>
       </c>
     </row>
-    <row r="94" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J94">
         <v>8.5000000000000107</v>
       </c>
@@ -5105,7 +6834,7 @@
         <v>620.50000000000227</v>
       </c>
     </row>
-    <row r="95" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J95">
         <v>8.6000000000000103</v>
       </c>
@@ -5113,7 +6842,7 @@
         <v>642.20000000000232</v>
       </c>
     </row>
-    <row r="96" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J96">
         <v>8.7000000000000099</v>
       </c>
@@ -5121,7 +6850,7 @@
         <v>663.90000000000214</v>
       </c>
     </row>
-    <row r="97" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J97">
         <v>8.8000000000000096</v>
       </c>
@@ -5129,7 +6858,7 @@
         <v>685.60000000000218</v>
       </c>
     </row>
-    <row r="98" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J98">
         <v>8.9000000000000092</v>
       </c>
@@ -5137,7 +6866,7 @@
         <v>707.300000000002</v>
       </c>
     </row>
-    <row r="99" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J99">
         <v>9.0000000000000107</v>
       </c>
@@ -5145,7 +6874,7 @@
         <v>729.00000000000273</v>
       </c>
     </row>
-    <row r="100" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J100">
         <v>9.1000000000000103</v>
       </c>
@@ -5153,7 +6882,7 @@
         <v>756.10000000000264</v>
       </c>
     </row>
-    <row r="101" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J101">
         <v>9.2000000000000099</v>
       </c>
@@ -5161,7 +6890,7 @@
         <v>783.20000000000255</v>
       </c>
     </row>
-    <row r="102" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J102">
         <v>9.3000000000000096</v>
       </c>
@@ -5169,7 +6898,7 @@
         <v>810.30000000000246</v>
       </c>
     </row>
-    <row r="103" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J103">
         <v>9.4000000000000092</v>
       </c>
@@ -5177,7 +6906,7 @@
         <v>837.40000000000236</v>
       </c>
     </row>
-    <row r="104" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J104">
         <v>9.5000000000000107</v>
       </c>
@@ -5185,7 +6914,7 @@
         <v>864.50000000000273</v>
       </c>
     </row>
-    <row r="105" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J105">
         <v>9.6000000000000103</v>
       </c>
@@ -5193,7 +6922,7 @@
         <v>891.60000000000264</v>
       </c>
     </row>
-    <row r="106" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J106">
         <v>9.7000000000000099</v>
       </c>
@@ -5201,7 +6930,7 @@
         <v>918.70000000000255</v>
       </c>
     </row>
-    <row r="107" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J107">
         <v>9.8000000000000096</v>
       </c>
@@ -5209,7 +6938,7 @@
         <v>945.80000000000246</v>
       </c>
     </row>
-    <row r="108" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J108">
         <v>9.9000000000000092</v>
       </c>
@@ -5217,7 +6946,7 @@
         <v>972.90000000000236</v>
       </c>
     </row>
-    <row r="109" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J109">
         <v>10</v>
       </c>
@@ -5225,7 +6954,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="110" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J110">
         <v>10.1</v>
       </c>
@@ -5233,7 +6962,7 @@
         <v>1033.0999999999999</v>
       </c>
     </row>
-    <row r="111" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J111">
         <v>10.199999999999999</v>
       </c>
@@ -5241,7 +6970,7 @@
         <v>1066.1999999999998</v>
       </c>
     </row>
-    <row r="112" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J112">
         <v>10.3</v>
       </c>
@@ -5249,7 +6978,7 @@
         <v>1099.3000000000002</v>
       </c>
     </row>
-    <row r="113" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J113">
         <v>10.4</v>
       </c>
@@ -5257,7 +6986,7 @@
         <v>1132.4000000000001</v>
       </c>
     </row>
-    <row r="114" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J114">
         <v>10.5</v>
       </c>
@@ -5265,7 +6994,7 @@
         <v>1165.5</v>
       </c>
     </row>
-    <row r="115" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J115">
         <v>10.6</v>
       </c>
@@ -5273,7 +7002,7 @@
         <v>1198.5999999999999</v>
       </c>
     </row>
-    <row r="116" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J116">
         <v>10.7</v>
       </c>
@@ -5281,7 +7010,7 @@
         <v>1231.6999999999998</v>
       </c>
     </row>
-    <row r="117" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J117">
         <v>10.8</v>
       </c>
@@ -5289,7 +7018,7 @@
         <v>1264.8000000000002</v>
       </c>
     </row>
-    <row r="118" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J118">
         <v>10.9</v>
       </c>
@@ -5297,7 +7026,7 @@
         <v>1297.9000000000001</v>
       </c>
     </row>
-    <row r="119" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J119">
         <v>11</v>
       </c>
@@ -5305,7 +7034,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="120" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J120">
         <v>11.1</v>
       </c>
@@ -5313,7 +7042,7 @@
         <v>1370.6999999999998</v>
       </c>
     </row>
-    <row r="121" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J121">
         <v>11.2</v>
       </c>
@@ -5321,7 +7050,7 @@
         <v>1410.3999999999996</v>
       </c>
     </row>
-    <row r="122" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J122">
         <v>11.3</v>
       </c>
@@ -5329,7 +7058,7 @@
         <v>1450.1000000000004</v>
       </c>
     </row>
-    <row r="123" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J123">
         <v>11.4</v>
       </c>
@@ -5337,7 +7066,7 @@
         <v>1489.8000000000002</v>
       </c>
     </row>
-    <row r="124" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J124">
         <v>11.5</v>
       </c>
@@ -5345,7 +7074,7 @@
         <v>1529.5</v>
       </c>
     </row>
-    <row r="125" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J125">
         <v>11.6</v>
       </c>
@@ -5353,7 +7082,7 @@
         <v>1569.1999999999998</v>
       </c>
     </row>
-    <row r="126" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J126">
         <v>11.7</v>
       </c>
@@ -5361,7 +7090,7 @@
         <v>1608.8999999999996</v>
       </c>
     </row>
-    <row r="127" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J127">
         <v>11.8</v>
       </c>
@@ -5369,7 +7098,7 @@
         <v>1648.6000000000004</v>
       </c>
     </row>
-    <row r="128" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J128">
         <v>11.9</v>
       </c>
@@ -5377,7 +7106,7 @@
         <v>1688.3000000000002</v>
       </c>
     </row>
-    <row r="129" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J129">
         <v>12</v>
       </c>
@@ -5385,7 +7114,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="130" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J130">
         <v>12.1</v>
       </c>
@@ -5393,7 +7122,7 @@
         <v>1767.6999999999998</v>
       </c>
     </row>
-    <row r="131" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J131">
         <v>12.2</v>
       </c>
@@ -5401,7 +7130,7 @@
         <v>1807.3999999999996</v>
       </c>
     </row>
-    <row r="132" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J132">
         <v>12.3</v>
       </c>
@@ -5409,7 +7138,7 @@
         <v>1847.1000000000004</v>
       </c>
     </row>
-    <row r="133" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J133">
         <v>12.4</v>
       </c>
@@ -5417,7 +7146,7 @@
         <v>1886.8000000000002</v>
       </c>
     </row>
-    <row r="134" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J134">
         <v>12.5</v>
       </c>
@@ -5425,7 +7154,7 @@
         <v>1926.5</v>
       </c>
     </row>
-    <row r="135" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J135">
         <v>12.6</v>
       </c>
@@ -5433,7 +7162,7 @@
         <v>1966.1999999999998</v>
       </c>
     </row>
-    <row r="136" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J136">
         <v>12.7</v>
       </c>
@@ -5441,7 +7170,7 @@
         <v>2005.8999999999996</v>
       </c>
     </row>
-    <row r="137" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J137">
         <v>12.8</v>
       </c>
@@ -5449,7 +7178,7 @@
         <v>2045.6000000000004</v>
       </c>
     </row>
-    <row r="138" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J138">
         <v>12.9</v>
       </c>
@@ -5457,7 +7186,7 @@
         <v>2085.3000000000002</v>
       </c>
     </row>
-    <row r="139" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J139">
         <v>13</v>
       </c>
@@ -5465,7 +7194,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="140" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J140">
         <v>13.1</v>
       </c>
@@ -5473,7 +7202,7 @@
         <v>2164.6999999999998</v>
       </c>
     </row>
-    <row r="141" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J141">
         <v>13.2</v>
       </c>
@@ -5481,7 +7210,7 @@
         <v>2204.3999999999996</v>
       </c>
     </row>
-    <row r="142" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J142">
         <v>13.3</v>
       </c>
@@ -5489,7 +7218,7 @@
         <v>2244.1000000000004</v>
       </c>
     </row>
-    <row r="143" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J143">
         <v>13.4</v>
       </c>
@@ -5497,7 +7226,7 @@
         <v>2283.8000000000002</v>
       </c>
     </row>
-    <row r="144" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J144">
         <v>13.5</v>
       </c>
@@ -5505,7 +7234,7 @@
         <v>2323.5</v>
       </c>
     </row>
-    <row r="145" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J145">
         <v>13.6</v>
       </c>
@@ -5513,7 +7242,7 @@
         <v>2363.1999999999998</v>
       </c>
     </row>
-    <row r="146" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J146">
         <v>13.7</v>
       </c>
@@ -5521,7 +7250,7 @@
         <v>2402.8999999999996</v>
       </c>
     </row>
-    <row r="147" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J147">
         <v>13.8</v>
       </c>
@@ -5529,7 +7258,7 @@
         <v>2442.6000000000004</v>
       </c>
     </row>
-    <row r="148" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J148">
         <v>13.9</v>
       </c>
@@ -5537,7 +7266,7 @@
         <v>2482.3000000000002</v>
       </c>
     </row>
-    <row r="149" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J149">
         <v>14</v>
       </c>
@@ -5545,7 +7274,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="150" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J150">
         <v>14.1</v>
       </c>
@@ -5553,7 +7282,7 @@
         <v>2561.6999999999998</v>
       </c>
     </row>
-    <row r="151" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J151">
         <v>14.2</v>
       </c>
@@ -5561,7 +7290,7 @@
         <v>2601.3999999999996</v>
       </c>
     </row>
-    <row r="152" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J152">
         <v>14.3</v>
       </c>
@@ -5569,7 +7298,7 @@
         <v>2641.1000000000004</v>
       </c>
     </row>
-    <row r="153" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J153">
         <v>14.4</v>
       </c>
@@ -5577,7 +7306,7 @@
         <v>2680.8</v>
       </c>
     </row>
-    <row r="154" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J154">
         <v>14.5</v>
       </c>
@@ -5585,7 +7314,7 @@
         <v>2720.5</v>
       </c>
     </row>
-    <row r="155" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J155">
         <v>14.6</v>
       </c>
@@ -5593,7 +7322,7 @@
         <v>2760.2</v>
       </c>
     </row>
-    <row r="156" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J156">
         <v>14.7</v>
       </c>
@@ -5601,7 +7330,7 @@
         <v>2799.8999999999996</v>
       </c>
     </row>
-    <row r="157" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J157">
         <v>14.8</v>
       </c>
@@ -5609,7 +7338,7 @@
         <v>2839.6000000000004</v>
       </c>
     </row>
-    <row r="158" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J158">
         <v>14.9</v>
       </c>
@@ -5617,7 +7346,7 @@
         <v>2879.3</v>
       </c>
     </row>
-    <row r="159" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J159">
         <v>15</v>
       </c>
@@ -5625,7 +7354,7 @@
         <v>2919</v>
       </c>
     </row>
-    <row r="160" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J160">
         <v>15.1</v>
       </c>
@@ -5633,7 +7362,7 @@
         <v>2958.7</v>
       </c>
     </row>
-    <row r="161" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J161">
         <v>15.2</v>
       </c>
@@ -5641,7 +7370,7 @@
         <v>2998.3999999999996</v>
       </c>
     </row>
-    <row r="162" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J162">
         <v>15.3</v>
       </c>
@@ -5649,7 +7378,7 @@
         <v>3038.1000000000004</v>
       </c>
     </row>
-    <row r="163" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J163">
         <v>15.4</v>
       </c>
@@ -5657,7 +7386,7 @@
         <v>3077.8</v>
       </c>
     </row>
-    <row r="164" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J164">
         <v>15.5</v>
       </c>
@@ -5665,7 +7394,7 @@
         <v>3117.5</v>
       </c>
     </row>
-    <row r="165" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J165">
         <v>15.6</v>
       </c>
@@ -5673,7 +7402,7 @@
         <v>3157.2</v>
       </c>
     </row>
-    <row r="166" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J166">
         <v>15.7</v>
       </c>
@@ -5681,7 +7410,7 @@
         <v>3196.8999999999996</v>
       </c>
     </row>
-    <row r="167" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J167">
         <v>15.8</v>
       </c>
@@ -5689,7 +7418,7 @@
         <v>3236.6000000000004</v>
       </c>
     </row>
-    <row r="168" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J168">
         <v>15.9</v>
       </c>
@@ -5697,7 +7426,7 @@
         <v>3276.3</v>
       </c>
     </row>
-    <row r="169" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J169">
         <v>16</v>
       </c>
@@ -5705,7 +7434,7 @@
         <v>3316</v>
       </c>
     </row>
-    <row r="170" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J170">
         <v>16.100000000000001</v>
       </c>
@@ -5713,7 +7442,7 @@
         <v>3355.7000000000007</v>
       </c>
     </row>
-    <row r="171" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J171">
         <v>16.2</v>
       </c>
@@ -5721,7 +7450,7 @@
         <v>3395.3999999999996</v>
       </c>
     </row>
-    <row r="172" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J172">
         <v>16.3</v>
       </c>
@@ -5729,7 +7458,7 @@
         <v>3435.1000000000004</v>
       </c>
     </row>
-    <row r="173" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J173">
         <v>16.399999999999999</v>
       </c>
@@ -5737,7 +7466,7 @@
         <v>3474.7999999999993</v>
       </c>
     </row>
-    <row r="174" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J174">
         <v>16.5</v>
       </c>
@@ -5745,7 +7474,7 @@
         <v>3514.5</v>
       </c>
     </row>
-    <row r="175" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J175">
         <v>16.600000000000001</v>
       </c>
@@ -5753,7 +7482,7 @@
         <v>3554.2000000000007</v>
       </c>
     </row>
-    <row r="176" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J176">
         <v>16.7</v>
       </c>
@@ -5761,7 +7490,7 @@
         <v>3593.8999999999996</v>
       </c>
     </row>
-    <row r="177" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J177">
         <v>16.8</v>
       </c>
@@ -5769,7 +7498,7 @@
         <v>3633.6000000000004</v>
       </c>
     </row>
-    <row r="178" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J178">
         <v>16.899999999999999</v>
       </c>
@@ -5777,7 +7506,7 @@
         <v>3673.2999999999993</v>
       </c>
     </row>
-    <row r="179" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J179">
         <v>17</v>
       </c>
@@ -5785,7 +7514,7 @@
         <v>3713</v>
       </c>
     </row>
-    <row r="180" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J180">
         <v>17.100000000000001</v>
       </c>
@@ -5793,7 +7522,7 @@
         <v>3752.7000000000007</v>
       </c>
     </row>
-    <row r="181" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J181">
         <v>17.2</v>
       </c>
@@ -5801,7 +7530,7 @@
         <v>3792.3999999999996</v>
       </c>
     </row>
-    <row r="182" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J182">
         <v>17.3</v>
       </c>
@@ -5809,7 +7538,7 @@
         <v>3832.1000000000004</v>
       </c>
     </row>
-    <row r="183" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J183">
         <v>17.399999999999999</v>
       </c>
@@ -5817,7 +7546,7 @@
         <v>3871.7999999999993</v>
       </c>
     </row>
-    <row r="184" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J184">
         <v>17.5</v>
       </c>
@@ -5825,7 +7554,7 @@
         <v>3911.5</v>
       </c>
     </row>
-    <row r="185" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J185">
         <v>17.600000000000001</v>
       </c>
@@ -5833,7 +7562,7 @@
         <v>3951.2000000000007</v>
       </c>
     </row>
-    <row r="186" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J186">
         <v>17.7</v>
       </c>
@@ -5841,7 +7570,7 @@
         <v>3990.8999999999996</v>
       </c>
     </row>
-    <row r="187" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J187">
         <v>17.8</v>
       </c>
@@ -5849,7 +7578,7 @@
         <v>4030.6000000000004</v>
       </c>
     </row>
-    <row r="188" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J188">
         <v>17.899999999999999</v>
       </c>
@@ -5857,7 +7586,7 @@
         <v>4070.2999999999993</v>
       </c>
     </row>
-    <row r="189" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J189">
         <v>18</v>
       </c>
@@ -5865,7 +7594,7 @@
         <v>4110</v>
       </c>
     </row>
-    <row r="190" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J190">
         <v>18.100000000000001</v>
       </c>
@@ -5873,7 +7602,7 @@
         <v>4149.7000000000007</v>
       </c>
     </row>
-    <row r="191" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J191">
         <v>18.2</v>
       </c>
@@ -5881,7 +7610,7 @@
         <v>4189.3999999999996</v>
       </c>
     </row>
-    <row r="192" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J192">
         <v>18.3</v>
       </c>
@@ -5889,7 +7618,7 @@
         <v>4229.1000000000004</v>
       </c>
     </row>
-    <row r="193" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J193">
         <v>18.399999999999999</v>
       </c>
@@ -5897,7 +7626,7 @@
         <v>4268.7999999999993</v>
       </c>
     </row>
-    <row r="194" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J194">
         <v>18.5</v>
       </c>
@@ -5905,7 +7634,7 @@
         <v>4308.5</v>
       </c>
     </row>
-    <row r="195" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J195">
         <v>18.600000000000001</v>
       </c>
@@ -5913,7 +7642,7 @@
         <v>4348.2000000000007</v>
       </c>
     </row>
-    <row r="196" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J196">
         <v>18.7</v>
       </c>
@@ -5921,7 +7650,7 @@
         <v>4387.8999999999996</v>
       </c>
     </row>
-    <row r="197" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J197">
         <v>18.8</v>
       </c>
@@ -5929,7 +7658,7 @@
         <v>4427.6000000000004</v>
       </c>
     </row>
-    <row r="198" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J198">
         <v>18.899999999999999</v>
       </c>
@@ -5937,7 +7666,7 @@
         <v>4467.2999999999993</v>
       </c>
     </row>
-    <row r="199" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J199">
         <v>19</v>
       </c>
@@ -5945,7 +7674,7 @@
         <v>4507</v>
       </c>
     </row>
-    <row r="200" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J200">
         <v>19.100000000000001</v>
       </c>
@@ -5953,7 +7682,7 @@
         <v>4546.7000000000007</v>
       </c>
     </row>
-    <row r="201" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J201">
         <v>19.2</v>
       </c>
@@ -5961,7 +7690,7 @@
         <v>4586.3999999999996</v>
       </c>
     </row>
-    <row r="202" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J202">
         <v>19.3</v>
       </c>
@@ -5969,7 +7698,7 @@
         <v>4626.1000000000004</v>
       </c>
     </row>
-    <row r="203" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J203">
         <v>19.399999999999999</v>
       </c>
@@ -5977,7 +7706,7 @@
         <v>4665.7999999999993</v>
       </c>
     </row>
-    <row r="204" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J204">
         <v>19.5</v>
       </c>
@@ -5985,7 +7714,7 @@
         <v>4705.5</v>
       </c>
     </row>
-    <row r="205" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J205">
         <v>19.600000000000001</v>
       </c>
@@ -5993,7 +7722,7 @@
         <v>4745.2000000000007</v>
       </c>
     </row>
-    <row r="206" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J206">
         <v>19.7</v>
       </c>
@@ -6001,7 +7730,7 @@
         <v>4784.8999999999996</v>
       </c>
     </row>
-    <row r="207" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J207">
         <v>19.8</v>
       </c>
@@ -6009,7 +7738,7 @@
         <v>4824.6000000000004</v>
       </c>
     </row>
-    <row r="208" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J208">
         <v>19.899999999999999</v>
       </c>
@@ -6017,7 +7746,7 @@
         <v>4864.2999999999993</v>
       </c>
     </row>
-    <row r="209" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J209">
         <v>20</v>
       </c>
@@ -6025,7 +7754,7 @@
         <v>4904</v>
       </c>
     </row>
-    <row r="210" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J210">
         <v>20.100000000000001</v>
       </c>
@@ -6033,7 +7762,7 @@
         <v>4943.7000000000007</v>
       </c>
     </row>
-    <row r="211" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J211">
         <v>20.2</v>
       </c>
@@ -6041,7 +7770,7 @@
         <v>4983.3999999999996</v>
       </c>
     </row>
-    <row r="212" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J212">
         <v>20.3</v>
       </c>
@@ -6049,7 +7778,7 @@
         <v>5023.1000000000004</v>
       </c>
     </row>
-    <row r="213" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J213">
         <v>20.399999999999999</v>
       </c>
@@ -6057,7 +7786,7 @@
         <v>5062.7999999999993</v>
       </c>
     </row>
-    <row r="214" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J214">
         <v>20.5</v>
       </c>
@@ -6065,7 +7794,7 @@
         <v>5102.5</v>
       </c>
     </row>
-    <row r="215" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J215">
         <v>20.6</v>
       </c>
@@ -6073,7 +7802,7 @@
         <v>5142.2000000000007</v>
       </c>
     </row>
-    <row r="216" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J216">
         <v>20.7</v>
       </c>
@@ -6081,7 +7810,7 @@
         <v>5181.8999999999996</v>
       </c>
     </row>
-    <row r="217" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J217">
         <v>20.8</v>
       </c>
@@ -6089,7 +7818,7 @@
         <v>5221.6000000000004</v>
       </c>
     </row>
-    <row r="218" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J218">
         <v>20.9</v>
       </c>
@@ -6097,7 +7826,7 @@
         <v>5261.2999999999993</v>
       </c>
     </row>
-    <row r="219" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J219">
         <v>21</v>
       </c>
@@ -6105,7 +7834,7 @@
         <v>5301</v>
       </c>
     </row>
-    <row r="220" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J220">
         <v>21.1</v>
       </c>
@@ -6113,7 +7842,7 @@
         <v>5340.7000000000007</v>
       </c>
     </row>
-    <row r="221" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J221">
         <v>21.2</v>
       </c>
@@ -6121,7 +7850,7 @@
         <v>5380.4</v>
       </c>
     </row>
-    <row r="222" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J222">
         <v>21.3</v>
       </c>
@@ -6129,7 +7858,7 @@
         <v>5420.1</v>
       </c>
     </row>
-    <row r="223" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J223">
         <v>21.4</v>
       </c>
@@ -6137,7 +7866,7 @@
         <v>5459.7999999999993</v>
       </c>
     </row>
-    <row r="224" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J224">
         <v>21.5</v>
       </c>
@@ -6145,7 +7874,7 @@
         <v>5499.5</v>
       </c>
     </row>
-    <row r="225" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J225">
         <v>21.6</v>
       </c>
@@ -6153,7 +7882,7 @@
         <v>5539.2000000000007</v>
       </c>
     </row>
-    <row r="226" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J226">
         <v>21.7</v>
       </c>
@@ -6161,7 +7890,7 @@
         <v>5578.9</v>
       </c>
     </row>
-    <row r="227" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J227">
         <v>21.8</v>
       </c>
@@ -6169,7 +7898,7 @@
         <v>5618.6</v>
       </c>
     </row>
-    <row r="228" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J228">
         <v>21.9</v>
       </c>
@@ -6177,7 +7906,7 @@
         <v>5658.2999999999993</v>
       </c>
     </row>
-    <row r="229" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J229">
         <v>22</v>
       </c>
@@ -6193,22 +7922,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912E8867-A2D1-43A4-9ACC-7AB2760F7CD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78D8EC4-3ED6-4C07-BEEE-0B46FBED9233}">
   <sheetPr>
-    <tabColor theme="0" tint="-0.249977111117893"/>
+    <tabColor rgb="FFCCFFCC"/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:N219"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="4" width="12.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6217,320 +7943,2581 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>22-Aug-2024</v>
+        <v>10-Sep-2024</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <f>E7^3</f>
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <f>MEDIAN(MIN(_nData),MAX(_nData),_nmax)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F7:G18" si="0">E8^3</f>
+        <v>8</v>
+      </c>
+      <c r="I8" cm="1">
+        <f t="array" ref="I8">_xlfn.LET(
+_xlpm.x, _nVar,
+_xlpm.i, MEDIAN(MIN(_nData),MAX(_nData),I6)+IF(_xlpm.x&gt;=MAX(_nData),{0;-1},{0;1}),
+_xlpm.xr, INDEX(E7:E18,_xlpm.i),
+_xlpm.yr, INDEX(F7:F18,_xlpm.i),
+TREND(_xlpm.yr,_xlpm.xr,_xlpm.x)
+)</f>
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E10">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E11">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E12">
         <v>6</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E13">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E14">
         <v>8</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>729</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E17">
         <v>11</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="18" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E18">
         <v>12</v>
       </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>4</v>
-      </c>
-      <c r="F24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>5</v>
-      </c>
-      <c r="F26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>6</v>
-      </c>
-      <c r="F27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28">
-        <v>9</v>
-      </c>
-      <c r="E28">
-        <v>12</v>
-      </c>
-      <c r="F28">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="5" t="s">
-        <v>20</v>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="19" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <f>I8</f>
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="20" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="I20" cm="1">
+        <f t="array" ref="I20:I219">_xlfn.SEQUENCE(200,1,-1,0.1)</f>
+        <v>-1</v>
+      </c>
+      <c r="J20">
+        <f t="dataTable" ref="J20:J219" dt2D="0" dtr="0" r1="I6"/>
+        <v>-13.000000000000004</v>
+      </c>
+      <c r="K20" cm="1">
+        <f t="array" ref="K20">fInterp($F$7:$F$18,_nData,I20)</f>
+        <v>-13.000000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="I21">
+        <v>-0.9</v>
+      </c>
+      <c r="J21">
+        <v>-12.300000000000002</v>
+      </c>
+      <c r="K21" cm="1">
+        <f t="array" ref="K21">fInterp($F$7:$F$18,_nData,I21)</f>
+        <v>-12.300000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="I22">
+        <v>-0.8</v>
+      </c>
+      <c r="J22">
+        <v>-11.600000000000003</v>
+      </c>
+      <c r="K22" cm="1">
+        <f t="array" ref="K22">fInterp($F$7:$F$18,_nData,I22)</f>
+        <v>-11.600000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <v>-0.70000000000000007</v>
+      </c>
+      <c r="J23">
+        <v>-10.900000000000002</v>
+      </c>
+      <c r="K23" cm="1">
+        <f t="array" ref="K23">fInterp($F$7:$F$18,_nData,I23)</f>
+        <v>-10.900000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="I24">
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="J24">
+        <v>-10.200000000000003</v>
+      </c>
+      <c r="K24" cm="1">
+        <f t="array" ref="K24">fInterp($F$7:$F$18,_nData,I24)</f>
+        <v>-10.200000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="I25">
+        <v>-0.50000000000000011</v>
+      </c>
+      <c r="J25">
+        <v>-9.5000000000000036</v>
+      </c>
+      <c r="K25" cm="1">
+        <f t="array" ref="K25">fInterp($F$7:$F$18,_nData,I25)</f>
+        <v>-9.5000000000000036</v>
+      </c>
+    </row>
+    <row r="26" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="I26">
+        <v>-0.40000000000000013</v>
+      </c>
+      <c r="J26">
+        <v>-8.8000000000000025</v>
+      </c>
+      <c r="K26" cm="1">
+        <f t="array" ref="K26">fInterp($F$7:$F$18,_nData,I26)</f>
+        <v>-8.8000000000000025</v>
+      </c>
+      <c r="N26" cm="1">
+        <f t="array" ref="N26">_xlfn.LAMBDA(_xlpm.yraw,_xlpm.xraw,_xlpm.x,
+_xlfn.LET(
+_xlpm.i, MEDIAN(MIN(_xlpm.xraw),MAX(_xlpm.xraw),_xlpm.x)+IF(_xlpm.x&gt;=MAX(_xlpm.xraw),{0;-1},{0;1}),
+_xlpm.xr, INDEX(_xlpm.xraw,_xlpm.i),
+_xlpm.yr, INDEX(_xlpm.yraw,_xlpm.i),
+TREND(_xlpm.yr,_xlpm.xr,_xlpm.x)
+)
+)(_nFunction,_nData,_nVar)</f>
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="27" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="I27">
+        <v>-0.30000000000000016</v>
+      </c>
+      <c r="J27">
+        <v>-8.1000000000000032</v>
+      </c>
+      <c r="K27" cm="1">
+        <f t="array" ref="K27">fInterp($F$7:$F$18,_nData,I27)</f>
+        <v>-8.1000000000000032</v>
+      </c>
+    </row>
+    <row r="28" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="I28">
+        <v>-0.20000000000000015</v>
+      </c>
+      <c r="J28">
+        <v>-7.400000000000003</v>
+      </c>
+      <c r="K28" cm="1">
+        <f t="array" ref="K28">fInterp($F$7:$F$18,_nData,I28)</f>
+        <v>-7.400000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="I29">
+        <v>-0.10000000000000014</v>
+      </c>
+      <c r="J29">
+        <v>-6.7000000000000028</v>
+      </c>
+      <c r="K29" cm="1">
+        <f t="array" ref="K29">fInterp($F$7:$F$18,_nData,I29)</f>
+        <v>-6.7000000000000028</v>
+      </c>
+    </row>
+    <row r="30" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="I30">
+        <v>-1.3877787807814457E-16</v>
+      </c>
+      <c r="J30">
+        <v>-6.0000000000000027</v>
+      </c>
+      <c r="K30" cm="1">
+        <f t="array" ref="K30">fInterp($F$7:$F$18,_nData,I30)</f>
+        <v>-6.0000000000000027</v>
+      </c>
+    </row>
+    <row r="31" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="I31">
+        <v>9.9999999999999867E-2</v>
+      </c>
+      <c r="J31">
+        <v>-5.3000000000000025</v>
+      </c>
+      <c r="K31" cm="1">
+        <f t="array" ref="K31">fInterp($F$7:$F$18,_nData,I31)</f>
+        <v>-5.3000000000000025</v>
+      </c>
+    </row>
+    <row r="32" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="I32">
+        <v>0.19999999999999987</v>
+      </c>
+      <c r="J32">
+        <v>-4.6000000000000023</v>
+      </c>
+      <c r="K32" cm="1">
+        <f t="array" ref="K32">fInterp($F$7:$F$18,_nData,I32)</f>
+        <v>-4.6000000000000023</v>
+      </c>
+    </row>
+    <row r="33" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I33">
+        <v>0.29999999999999988</v>
+      </c>
+      <c r="J33">
+        <v>-3.9000000000000026</v>
+      </c>
+      <c r="K33" cm="1">
+        <f t="array" ref="K33">fInterp($F$7:$F$18,_nData,I33)</f>
+        <v>-3.9000000000000026</v>
+      </c>
+    </row>
+    <row r="34" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I34">
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="J34">
+        <v>-3.200000000000002</v>
+      </c>
+      <c r="K34" cm="1">
+        <f t="array" ref="K34">fInterp($F$7:$F$18,_nData,I34)</f>
+        <v>-3.200000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I35">
+        <v>0.49999999999999989</v>
+      </c>
+      <c r="J35">
+        <v>-2.5000000000000022</v>
+      </c>
+      <c r="K35" cm="1">
+        <f t="array" ref="K35">fInterp($F$7:$F$18,_nData,I35)</f>
+        <v>-2.5000000000000022</v>
+      </c>
+    </row>
+    <row r="36" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I36">
+        <v>0.59999999999999987</v>
+      </c>
+      <c r="J36">
+        <v>-1.8000000000000025</v>
+      </c>
+      <c r="K36" cm="1">
+        <f t="array" ref="K36">fInterp($F$7:$F$18,_nData,I36)</f>
+        <v>-1.8000000000000025</v>
+      </c>
+    </row>
+    <row r="37" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I37">
+        <v>0.69999999999999984</v>
+      </c>
+      <c r="J37">
+        <v>-1.1000000000000023</v>
+      </c>
+      <c r="K37" cm="1">
+        <f t="array" ref="K37">fInterp($F$7:$F$18,_nData,I37)</f>
+        <v>-1.1000000000000023</v>
+      </c>
+    </row>
+    <row r="38" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I38">
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="J38">
+        <v>-0.40000000000000213</v>
+      </c>
+      <c r="K38" cm="1">
+        <f t="array" ref="K38">fInterp($F$7:$F$18,_nData,I38)</f>
+        <v>-0.40000000000000213</v>
+      </c>
+    </row>
+    <row r="39" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I39">
+        <v>0.8999999999999998</v>
+      </c>
+      <c r="J39">
+        <v>0.29999999999999805</v>
+      </c>
+      <c r="K39" cm="1">
+        <f t="array" ref="K39">fInterp($F$7:$F$18,_nData,I39)</f>
+        <v>0.29999999999999805</v>
+      </c>
+    </row>
+    <row r="40" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I40">
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="J40">
+        <v>0.99999999999999734</v>
+      </c>
+      <c r="K40" cm="1">
+        <f t="array" ref="K40">fInterp($F$7:$F$18,_nData,I40)</f>
+        <v>0.99999999999999734</v>
+      </c>
+    </row>
+    <row r="41" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I41">
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="J41">
+        <v>1.6999999999999984</v>
+      </c>
+      <c r="K41" cm="1">
+        <f t="array" ref="K41">fInterp($F$7:$F$18,_nData,I41)</f>
+        <v>1.6999999999999984</v>
+      </c>
+    </row>
+    <row r="42" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I42">
+        <v>1.2</v>
+      </c>
+      <c r="J42">
+        <v>2.3999999999999986</v>
+      </c>
+      <c r="K42" cm="1">
+        <f t="array" ref="K42">fInterp($F$7:$F$18,_nData,I42)</f>
+        <v>2.3999999999999986</v>
+      </c>
+    </row>
+    <row r="43" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I43">
+        <v>1.3</v>
+      </c>
+      <c r="J43">
+        <v>3.0999999999999996</v>
+      </c>
+      <c r="K43" cm="1">
+        <f t="array" ref="K43">fInterp($F$7:$F$18,_nData,I43)</f>
+        <v>3.0999999999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I44">
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="J44">
+        <v>3.8000000000000007</v>
+      </c>
+      <c r="K44" cm="1">
+        <f t="array" ref="K44">fInterp($F$7:$F$18,_nData,I44)</f>
+        <v>3.8000000000000007</v>
+      </c>
+    </row>
+    <row r="45" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I45">
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="J45">
+        <v>4.5000000000000018</v>
+      </c>
+      <c r="K45" cm="1">
+        <f t="array" ref="K45">fInterp($F$7:$F$18,_nData,I45)</f>
+        <v>4.5000000000000018</v>
+      </c>
+    </row>
+    <row r="46" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I46">
+        <v>1.6000000000000003</v>
+      </c>
+      <c r="J46">
+        <v>5.2000000000000011</v>
+      </c>
+      <c r="K46" cm="1">
+        <f t="array" ref="K46">fInterp($F$7:$F$18,_nData,I46)</f>
+        <v>5.2000000000000011</v>
+      </c>
+    </row>
+    <row r="47" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I47">
+        <v>1.7000000000000004</v>
+      </c>
+      <c r="J47">
+        <v>5.9000000000000021</v>
+      </c>
+      <c r="K47" cm="1">
+        <f t="array" ref="K47">fInterp($F$7:$F$18,_nData,I47)</f>
+        <v>5.9000000000000021</v>
+      </c>
+    </row>
+    <row r="48" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I48">
+        <v>1.8000000000000005</v>
+      </c>
+      <c r="J48">
+        <v>6.6000000000000032</v>
+      </c>
+      <c r="K48" cm="1">
+        <f t="array" ref="K48">fInterp($F$7:$F$18,_nData,I48)</f>
+        <v>6.6000000000000032</v>
+      </c>
+    </row>
+    <row r="49" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I49">
+        <v>1.9000000000000006</v>
+      </c>
+      <c r="J49">
+        <v>7.3000000000000043</v>
+      </c>
+      <c r="K49" cm="1">
+        <f t="array" ref="K49">fInterp($F$7:$F$18,_nData,I49)</f>
+        <v>7.3000000000000043</v>
+      </c>
+    </row>
+    <row r="50" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I50">
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="J50">
+        <v>8.0000000000000071</v>
+      </c>
+      <c r="K50" cm="1">
+        <f t="array" ref="K50">fInterp($F$7:$F$18,_nData,I50)</f>
+        <v>8.0000000000000071</v>
+      </c>
+    </row>
+    <row r="51" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I51">
+        <v>2.1000000000000005</v>
+      </c>
+      <c r="J51">
+        <v>9.9000000000000128</v>
+      </c>
+      <c r="K51" cm="1">
+        <f t="array" ref="K51">fInterp($F$7:$F$18,_nData,I51)</f>
+        <v>9.9000000000000128</v>
+      </c>
+    </row>
+    <row r="52" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I52">
+        <v>2.2000000000000006</v>
+      </c>
+      <c r="J52">
+        <v>11.800000000000011</v>
+      </c>
+      <c r="K52" cm="1">
+        <f t="array" ref="K52">fInterp($F$7:$F$18,_nData,I52)</f>
+        <v>11.800000000000011</v>
+      </c>
+    </row>
+    <row r="53" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I53">
+        <v>2.3000000000000007</v>
+      </c>
+      <c r="J53">
+        <v>13.700000000000017</v>
+      </c>
+      <c r="K53" cm="1">
+        <f t="array" ref="K53">fInterp($F$7:$F$18,_nData,I53)</f>
+        <v>13.700000000000017</v>
+      </c>
+    </row>
+    <row r="54" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I54">
+        <v>2.4000000000000008</v>
+      </c>
+      <c r="J54">
+        <v>15.600000000000016</v>
+      </c>
+      <c r="K54" cm="1">
+        <f t="array" ref="K54">fInterp($F$7:$F$18,_nData,I54)</f>
+        <v>15.600000000000016</v>
+      </c>
+    </row>
+    <row r="55" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I55">
+        <v>2.5000000000000009</v>
+      </c>
+      <c r="J55">
+        <v>17.500000000000021</v>
+      </c>
+      <c r="K55" cm="1">
+        <f t="array" ref="K55">fInterp($F$7:$F$18,_nData,I55)</f>
+        <v>17.500000000000021</v>
+      </c>
+    </row>
+    <row r="56" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I56">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="J56">
+        <v>19.40000000000002</v>
+      </c>
+      <c r="K56" cm="1">
+        <f t="array" ref="K56">fInterp($F$7:$F$18,_nData,I56)</f>
+        <v>19.40000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I57">
+        <v>2.7000000000000011</v>
+      </c>
+      <c r="J57">
+        <v>21.300000000000026</v>
+      </c>
+      <c r="K57" cm="1">
+        <f t="array" ref="K57">fInterp($F$7:$F$18,_nData,I57)</f>
+        <v>21.300000000000026</v>
+      </c>
+    </row>
+    <row r="58" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I58">
+        <v>2.8000000000000012</v>
+      </c>
+      <c r="J58">
+        <v>23.200000000000024</v>
+      </c>
+      <c r="K58" cm="1">
+        <f t="array" ref="K58">fInterp($F$7:$F$18,_nData,I58)</f>
+        <v>23.200000000000024</v>
+      </c>
+    </row>
+    <row r="59" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I59">
+        <v>2.9000000000000012</v>
+      </c>
+      <c r="J59">
+        <v>25.10000000000003</v>
+      </c>
+      <c r="K59" cm="1">
+        <f t="array" ref="K59">fInterp($F$7:$F$18,_nData,I59)</f>
+        <v>25.10000000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I60">
+        <v>3.0000000000000013</v>
+      </c>
+      <c r="J60">
+        <v>27.000000000000043</v>
+      </c>
+      <c r="K60" cm="1">
+        <f t="array" ref="K60">fInterp($F$7:$F$18,_nData,I60)</f>
+        <v>27.000000000000043</v>
+      </c>
+    </row>
+    <row r="61" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I61">
+        <v>3.1000000000000014</v>
+      </c>
+      <c r="J61">
+        <v>30.700000000000045</v>
+      </c>
+      <c r="K61" cm="1">
+        <f t="array" ref="K61">fInterp($F$7:$F$18,_nData,I61)</f>
+        <v>30.700000000000045</v>
+      </c>
+    </row>
+    <row r="62" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I62">
+        <v>3.2000000000000015</v>
+      </c>
+      <c r="J62">
+        <v>34.400000000000063</v>
+      </c>
+      <c r="K62" cm="1">
+        <f t="array" ref="K62">fInterp($F$7:$F$18,_nData,I62)</f>
+        <v>34.400000000000063</v>
+      </c>
+    </row>
+    <row r="63" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I63">
+        <v>3.3000000000000016</v>
+      </c>
+      <c r="J63">
+        <v>38.100000000000065</v>
+      </c>
+      <c r="K63" cm="1">
+        <f t="array" ref="K63">fInterp($F$7:$F$18,_nData,I63)</f>
+        <v>38.100000000000065</v>
+      </c>
+    </row>
+    <row r="64" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I64">
+        <v>3.4000000000000017</v>
+      </c>
+      <c r="J64">
+        <v>41.800000000000068</v>
+      </c>
+      <c r="K64" cm="1">
+        <f t="array" ref="K64">fInterp($F$7:$F$18,_nData,I64)</f>
+        <v>41.800000000000068</v>
+      </c>
+    </row>
+    <row r="65" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I65">
+        <v>3.5000000000000018</v>
+      </c>
+      <c r="J65">
+        <v>45.500000000000057</v>
+      </c>
+      <c r="K65" cm="1">
+        <f t="array" ref="K65">fInterp($F$7:$F$18,_nData,I65)</f>
+        <v>45.500000000000057</v>
+      </c>
+    </row>
+    <row r="66" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I66">
+        <v>3.6000000000000019</v>
+      </c>
+      <c r="J66">
+        <v>49.200000000000074</v>
+      </c>
+      <c r="K66" cm="1">
+        <f t="array" ref="K66">fInterp($F$7:$F$18,_nData,I66)</f>
+        <v>49.200000000000074</v>
+      </c>
+    </row>
+    <row r="67" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I67">
+        <v>3.700000000000002</v>
+      </c>
+      <c r="J67">
+        <v>52.900000000000063</v>
+      </c>
+      <c r="K67" cm="1">
+        <f t="array" ref="K67">fInterp($F$7:$F$18,_nData,I67)</f>
+        <v>52.900000000000063</v>
+      </c>
+    </row>
+    <row r="68" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I68">
+        <v>3.800000000000002</v>
+      </c>
+      <c r="J68">
+        <v>56.60000000000008</v>
+      </c>
+      <c r="K68" cm="1">
+        <f t="array" ref="K68">fInterp($F$7:$F$18,_nData,I68)</f>
+        <v>56.60000000000008</v>
+      </c>
+    </row>
+    <row r="69" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I69">
+        <v>3.9000000000000021</v>
+      </c>
+      <c r="J69">
+        <v>60.300000000000068</v>
+      </c>
+      <c r="K69" cm="1">
+        <f t="array" ref="K69">fInterp($F$7:$F$18,_nData,I69)</f>
+        <v>60.300000000000068</v>
+      </c>
+    </row>
+    <row r="70" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I70">
+        <v>4.0000000000000018</v>
+      </c>
+      <c r="J70">
+        <v>64.000000000000085</v>
+      </c>
+      <c r="K70" cm="1">
+        <f t="array" ref="K70">fInterp($F$7:$F$18,_nData,I70)</f>
+        <v>64.000000000000085</v>
+      </c>
+    </row>
+    <row r="71" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I71">
+        <v>4.1000000000000014</v>
+      </c>
+      <c r="J71">
+        <v>70.100000000000051</v>
+      </c>
+      <c r="K71" cm="1">
+        <f t="array" ref="K71">fInterp($F$7:$F$18,_nData,I71)</f>
+        <v>70.100000000000051</v>
+      </c>
+    </row>
+    <row r="72" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I72">
+        <v>4.2000000000000011</v>
+      </c>
+      <c r="J72">
+        <v>76.200000000000045</v>
+      </c>
+      <c r="K72" cm="1">
+        <f t="array" ref="K72">fInterp($F$7:$F$18,_nData,I72)</f>
+        <v>76.200000000000045</v>
+      </c>
+    </row>
+    <row r="73" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I73">
+        <v>4.3000000000000007</v>
+      </c>
+      <c r="J73">
+        <v>82.300000000000011</v>
+      </c>
+      <c r="K73" cm="1">
+        <f t="array" ref="K73">fInterp($F$7:$F$18,_nData,I73)</f>
+        <v>82.300000000000011</v>
+      </c>
+    </row>
+    <row r="74" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I74">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J74">
+        <v>88.399999999999977</v>
+      </c>
+      <c r="K74" cm="1">
+        <f t="array" ref="K74">fInterp($F$7:$F$18,_nData,I74)</f>
+        <v>88.399999999999977</v>
+      </c>
+    </row>
+    <row r="75" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I75">
+        <v>4.5</v>
+      </c>
+      <c r="J75">
+        <v>94.5</v>
+      </c>
+      <c r="K75" cm="1">
+        <f t="array" ref="K75">fInterp($F$7:$F$18,_nData,I75)</f>
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="76" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I76">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J76">
+        <v>100.59999999999997</v>
+      </c>
+      <c r="K76" cm="1">
+        <f t="array" ref="K76">fInterp($F$7:$F$18,_nData,I76)</f>
+        <v>100.59999999999997</v>
+      </c>
+    </row>
+    <row r="77" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I77">
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="J77">
+        <v>106.69999999999993</v>
+      </c>
+      <c r="K77" cm="1">
+        <f t="array" ref="K77">fInterp($F$7:$F$18,_nData,I77)</f>
+        <v>106.69999999999993</v>
+      </c>
+    </row>
+    <row r="78" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I78">
+        <v>4.7999999999999989</v>
+      </c>
+      <c r="J78">
+        <v>112.7999999999999</v>
+      </c>
+      <c r="K78" cm="1">
+        <f t="array" ref="K78">fInterp($F$7:$F$18,_nData,I78)</f>
+        <v>112.7999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I79">
+        <v>4.8999999999999986</v>
+      </c>
+      <c r="J79">
+        <v>118.89999999999986</v>
+      </c>
+      <c r="K79" cm="1">
+        <f t="array" ref="K79">fInterp($F$7:$F$18,_nData,I79)</f>
+        <v>118.89999999999986</v>
+      </c>
+    </row>
+    <row r="80" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I80">
+        <v>4.9999999999999982</v>
+      </c>
+      <c r="J80">
+        <v>124.99999999999983</v>
+      </c>
+      <c r="K80" cm="1">
+        <f t="array" ref="K80">fInterp($F$7:$F$18,_nData,I80)</f>
+        <v>124.99999999999983</v>
+      </c>
+    </row>
+    <row r="81" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I81">
+        <v>5.0999999999999979</v>
+      </c>
+      <c r="J81">
+        <v>134.0999999999998</v>
+      </c>
+      <c r="K81" cm="1">
+        <f t="array" ref="K81">fInterp($F$7:$F$18,_nData,I81)</f>
+        <v>134.0999999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I82">
+        <v>5.1999999999999975</v>
+      </c>
+      <c r="J82">
+        <v>143.19999999999976</v>
+      </c>
+      <c r="K82" cm="1">
+        <f t="array" ref="K82">fInterp($F$7:$F$18,_nData,I82)</f>
+        <v>143.19999999999976</v>
+      </c>
+    </row>
+    <row r="83" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I83">
+        <v>5.2999999999999972</v>
+      </c>
+      <c r="J83">
+        <v>152.29999999999973</v>
+      </c>
+      <c r="K83" cm="1">
+        <f t="array" ref="K83">fInterp($F$7:$F$18,_nData,I83)</f>
+        <v>152.29999999999973</v>
+      </c>
+    </row>
+    <row r="84" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I84">
+        <v>5.3999999999999968</v>
+      </c>
+      <c r="J84">
+        <v>161.39999999999969</v>
+      </c>
+      <c r="K84" cm="1">
+        <f t="array" ref="K84">fInterp($F$7:$F$18,_nData,I84)</f>
+        <v>161.39999999999969</v>
+      </c>
+    </row>
+    <row r="85" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I85">
+        <v>5.4999999999999964</v>
+      </c>
+      <c r="J85">
+        <v>170.49999999999966</v>
+      </c>
+      <c r="K85" cm="1">
+        <f t="array" ref="K85">fInterp($F$7:$F$18,_nData,I85)</f>
+        <v>170.49999999999966</v>
+      </c>
+    </row>
+    <row r="86" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I86">
+        <v>5.5999999999999961</v>
+      </c>
+      <c r="J86">
+        <v>179.59999999999962</v>
+      </c>
+      <c r="K86" cm="1">
+        <f t="array" ref="K86">fInterp($F$7:$F$18,_nData,I86)</f>
+        <v>179.59999999999962</v>
+      </c>
+    </row>
+    <row r="87" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I87">
+        <v>5.6999999999999957</v>
+      </c>
+      <c r="J87">
+        <v>188.69999999999959</v>
+      </c>
+      <c r="K87" cm="1">
+        <f t="array" ref="K87">fInterp($F$7:$F$18,_nData,I87)</f>
+        <v>188.69999999999959</v>
+      </c>
+    </row>
+    <row r="88" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I88">
+        <v>5.7999999999999954</v>
+      </c>
+      <c r="J88">
+        <v>197.79999999999961</v>
+      </c>
+      <c r="K88" cm="1">
+        <f t="array" ref="K88">fInterp($F$7:$F$18,_nData,I88)</f>
+        <v>197.79999999999961</v>
+      </c>
+    </row>
+    <row r="89" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I89">
+        <v>5.899999999999995</v>
+      </c>
+      <c r="J89">
+        <v>206.89999999999952</v>
+      </c>
+      <c r="K89" cm="1">
+        <f t="array" ref="K89">fInterp($F$7:$F$18,_nData,I89)</f>
+        <v>206.89999999999952</v>
+      </c>
+    </row>
+    <row r="90" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I90">
+        <v>5.9999999999999947</v>
+      </c>
+      <c r="J90">
+        <v>215.99999999999932</v>
+      </c>
+      <c r="K90" cm="1">
+        <f t="array" ref="K90">fInterp($F$7:$F$18,_nData,I90)</f>
+        <v>215.99999999999932</v>
+      </c>
+    </row>
+    <row r="91" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I91">
+        <v>6.0999999999999943</v>
+      </c>
+      <c r="J91">
+        <v>228.69999999999925</v>
+      </c>
+      <c r="K91" cm="1">
+        <f t="array" ref="K91">fInterp($F$7:$F$18,_nData,I91)</f>
+        <v>228.69999999999925</v>
+      </c>
+    </row>
+    <row r="92" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I92">
+        <v>6.199999999999994</v>
+      </c>
+      <c r="J92">
+        <v>241.39999999999918</v>
+      </c>
+      <c r="K92" cm="1">
+        <f t="array" ref="K92">fInterp($F$7:$F$18,_nData,I92)</f>
+        <v>241.39999999999918</v>
+      </c>
+    </row>
+    <row r="93" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I93">
+        <v>6.2999999999999936</v>
+      </c>
+      <c r="J93">
+        <v>254.09999999999911</v>
+      </c>
+      <c r="K93" cm="1">
+        <f t="array" ref="K93">fInterp($F$7:$F$18,_nData,I93)</f>
+        <v>254.09999999999911</v>
+      </c>
+    </row>
+    <row r="94" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I94">
+        <v>6.3999999999999932</v>
+      </c>
+      <c r="J94">
+        <v>266.79999999999916</v>
+      </c>
+      <c r="K94" cm="1">
+        <f t="array" ref="K94">fInterp($F$7:$F$18,_nData,I94)</f>
+        <v>266.79999999999916</v>
+      </c>
+    </row>
+    <row r="95" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I95">
+        <v>6.4999999999999929</v>
+      </c>
+      <c r="J95">
+        <v>279.49999999999909</v>
+      </c>
+      <c r="K95" cm="1">
+        <f t="array" ref="K95">fInterp($F$7:$F$18,_nData,I95)</f>
+        <v>279.49999999999909</v>
+      </c>
+    </row>
+    <row r="96" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I96">
+        <v>6.5999999999999925</v>
+      </c>
+      <c r="J96">
+        <v>292.19999999999902</v>
+      </c>
+      <c r="K96" cm="1">
+        <f t="array" ref="K96">fInterp($F$7:$F$18,_nData,I96)</f>
+        <v>292.19999999999902</v>
+      </c>
+    </row>
+    <row r="97" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I97">
+        <v>6.6999999999999922</v>
+      </c>
+      <c r="J97">
+        <v>304.89999999999895</v>
+      </c>
+      <c r="K97" cm="1">
+        <f t="array" ref="K97">fInterp($F$7:$F$18,_nData,I97)</f>
+        <v>304.89999999999895</v>
+      </c>
+    </row>
+    <row r="98" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I98">
+        <v>6.7999999999999918</v>
+      </c>
+      <c r="J98">
+        <v>317.599999999999</v>
+      </c>
+      <c r="K98" cm="1">
+        <f t="array" ref="K98">fInterp($F$7:$F$18,_nData,I98)</f>
+        <v>317.599999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I99">
+        <v>6.8999999999999915</v>
+      </c>
+      <c r="J99">
+        <v>330.29999999999893</v>
+      </c>
+      <c r="K99" cm="1">
+        <f t="array" ref="K99">fInterp($F$7:$F$18,_nData,I99)</f>
+        <v>330.29999999999893</v>
+      </c>
+    </row>
+    <row r="100" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I100">
+        <v>6.9999999999999911</v>
+      </c>
+      <c r="J100">
+        <v>342.99999999999864</v>
+      </c>
+      <c r="K100" cm="1">
+        <f t="array" ref="K100">fInterp($F$7:$F$18,_nData,I100)</f>
+        <v>342.99999999999864</v>
+      </c>
+    </row>
+    <row r="101" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I101">
+        <v>7.0999999999999908</v>
+      </c>
+      <c r="J101">
+        <v>359.8999999999985</v>
+      </c>
+      <c r="K101" cm="1">
+        <f t="array" ref="K101">fInterp($F$7:$F$18,_nData,I101)</f>
+        <v>359.8999999999985</v>
+      </c>
+    </row>
+    <row r="102" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I102">
+        <v>7.1999999999999904</v>
+      </c>
+      <c r="J102">
+        <v>376.79999999999836</v>
+      </c>
+      <c r="K102" cm="1">
+        <f t="array" ref="K102">fInterp($F$7:$F$18,_nData,I102)</f>
+        <v>376.79999999999836</v>
+      </c>
+    </row>
+    <row r="103" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I103">
+        <v>7.2999999999999901</v>
+      </c>
+      <c r="J103">
+        <v>393.69999999999823</v>
+      </c>
+      <c r="K103" cm="1">
+        <f t="array" ref="K103">fInterp($F$7:$F$18,_nData,I103)</f>
+        <v>393.69999999999823</v>
+      </c>
+    </row>
+    <row r="104" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I104">
+        <v>7.3999999999999897</v>
+      </c>
+      <c r="J104">
+        <v>410.59999999999832</v>
+      </c>
+      <c r="K104" cm="1">
+        <f t="array" ref="K104">fInterp($F$7:$F$18,_nData,I104)</f>
+        <v>410.59999999999832</v>
+      </c>
+    </row>
+    <row r="105" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I105">
+        <v>7.4999999999999893</v>
+      </c>
+      <c r="J105">
+        <v>427.49999999999818</v>
+      </c>
+      <c r="K105" cm="1">
+        <f t="array" ref="K105">fInterp($F$7:$F$18,_nData,I105)</f>
+        <v>427.49999999999818</v>
+      </c>
+    </row>
+    <row r="106" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I106">
+        <v>7.599999999999989</v>
+      </c>
+      <c r="J106">
+        <v>444.39999999999804</v>
+      </c>
+      <c r="K106" cm="1">
+        <f t="array" ref="K106">fInterp($F$7:$F$18,_nData,I106)</f>
+        <v>444.39999999999804</v>
+      </c>
+    </row>
+    <row r="107" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I107">
+        <v>7.6999999999999886</v>
+      </c>
+      <c r="J107">
+        <v>461.29999999999814</v>
+      </c>
+      <c r="K107" cm="1">
+        <f t="array" ref="K107">fInterp($F$7:$F$18,_nData,I107)</f>
+        <v>461.29999999999814</v>
+      </c>
+    </row>
+    <row r="108" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I108">
+        <v>7.7999999999999883</v>
+      </c>
+      <c r="J108">
+        <v>478.199999999998</v>
+      </c>
+      <c r="K108" cm="1">
+        <f t="array" ref="K108">fInterp($F$7:$F$18,_nData,I108)</f>
+        <v>478.199999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I109">
+        <v>7.8999999999999879</v>
+      </c>
+      <c r="J109">
+        <v>495.09999999999786</v>
+      </c>
+      <c r="K109" cm="1">
+        <f t="array" ref="K109">fInterp($F$7:$F$18,_nData,I109)</f>
+        <v>495.09999999999786</v>
+      </c>
+    </row>
+    <row r="110" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I110">
+        <v>7.9999999999999876</v>
+      </c>
+      <c r="J110">
+        <v>511.99999999999727</v>
+      </c>
+      <c r="K110" cm="1">
+        <f t="array" ref="K110">fInterp($F$7:$F$18,_nData,I110)</f>
+        <v>511.99999999999727</v>
+      </c>
+    </row>
+    <row r="111" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I111">
+        <v>8.0999999999999872</v>
+      </c>
+      <c r="J111">
+        <v>533.69999999999732</v>
+      </c>
+      <c r="K111" cm="1">
+        <f t="array" ref="K111">fInterp($F$7:$F$18,_nData,I111)</f>
+        <v>533.69999999999732</v>
+      </c>
+    </row>
+    <row r="112" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I112">
+        <v>8.1999999999999869</v>
+      </c>
+      <c r="J112">
+        <v>555.39999999999714</v>
+      </c>
+      <c r="K112" cm="1">
+        <f t="array" ref="K112">fInterp($F$7:$F$18,_nData,I112)</f>
+        <v>555.39999999999714</v>
+      </c>
+    </row>
+    <row r="113" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I113">
+        <v>8.2999999999999865</v>
+      </c>
+      <c r="J113">
+        <v>577.09999999999718</v>
+      </c>
+      <c r="K113" cm="1">
+        <f t="array" ref="K113">fInterp($F$7:$F$18,_nData,I113)</f>
+        <v>577.09999999999718</v>
+      </c>
+    </row>
+    <row r="114" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I114">
+        <v>8.3999999999999861</v>
+      </c>
+      <c r="J114">
+        <v>598.799999999997</v>
+      </c>
+      <c r="K114" cm="1">
+        <f t="array" ref="K114">fInterp($F$7:$F$18,_nData,I114)</f>
+        <v>598.799999999997</v>
+      </c>
+    </row>
+    <row r="115" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I115">
+        <v>8.4999999999999858</v>
+      </c>
+      <c r="J115">
+        <v>620.49999999999704</v>
+      </c>
+      <c r="K115" cm="1">
+        <f t="array" ref="K115">fInterp($F$7:$F$18,_nData,I115)</f>
+        <v>620.49999999999704</v>
+      </c>
+    </row>
+    <row r="116" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I116">
+        <v>8.5999999999999854</v>
+      </c>
+      <c r="J116">
+        <v>642.19999999999686</v>
+      </c>
+      <c r="K116" cm="1">
+        <f t="array" ref="K116">fInterp($F$7:$F$18,_nData,I116)</f>
+        <v>642.19999999999686</v>
+      </c>
+    </row>
+    <row r="117" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I117">
+        <v>8.6999999999999851</v>
+      </c>
+      <c r="J117">
+        <v>663.89999999999691</v>
+      </c>
+      <c r="K117" cm="1">
+        <f t="array" ref="K117">fInterp($F$7:$F$18,_nData,I117)</f>
+        <v>663.89999999999691</v>
+      </c>
+    </row>
+    <row r="118" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I118">
+        <v>8.7999999999999847</v>
+      </c>
+      <c r="J118">
+        <v>685.59999999999673</v>
+      </c>
+      <c r="K118" cm="1">
+        <f t="array" ref="K118">fInterp($F$7:$F$18,_nData,I118)</f>
+        <v>685.59999999999673</v>
+      </c>
+    </row>
+    <row r="119" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I119">
+        <v>8.8999999999999844</v>
+      </c>
+      <c r="J119">
+        <v>707.29999999999677</v>
+      </c>
+      <c r="K119" cm="1">
+        <f t="array" ref="K119">fInterp($F$7:$F$18,_nData,I119)</f>
+        <v>707.29999999999677</v>
+      </c>
+    </row>
+    <row r="120" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I120">
+        <v>8.999999999999984</v>
+      </c>
+      <c r="J120">
+        <v>728.99999999999545</v>
+      </c>
+      <c r="K120" cm="1">
+        <f t="array" ref="K120">fInterp($F$7:$F$18,_nData,I120)</f>
+        <v>728.99999999999545</v>
+      </c>
+    </row>
+    <row r="121" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I121">
+        <v>9.0999999999999837</v>
+      </c>
+      <c r="J121">
+        <v>756.09999999999536</v>
+      </c>
+      <c r="K121" cm="1">
+        <f t="array" ref="K121">fInterp($F$7:$F$18,_nData,I121)</f>
+        <v>756.09999999999536</v>
+      </c>
+    </row>
+    <row r="122" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I122">
+        <v>9.1999999999999833</v>
+      </c>
+      <c r="J122">
+        <v>783.19999999999527</v>
+      </c>
+      <c r="K122" cm="1">
+        <f t="array" ref="K122">fInterp($F$7:$F$18,_nData,I122)</f>
+        <v>783.19999999999527</v>
+      </c>
+    </row>
+    <row r="123" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I123">
+        <v>9.2999999999999829</v>
+      </c>
+      <c r="J123">
+        <v>810.29999999999518</v>
+      </c>
+      <c r="K123" cm="1">
+        <f t="array" ref="K123">fInterp($F$7:$F$18,_nData,I123)</f>
+        <v>810.29999999999518</v>
+      </c>
+    </row>
+    <row r="124" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I124">
+        <v>9.3999999999999826</v>
+      </c>
+      <c r="J124">
+        <v>837.39999999999509</v>
+      </c>
+      <c r="K124" cm="1">
+        <f t="array" ref="K124">fInterp($F$7:$F$18,_nData,I124)</f>
+        <v>837.39999999999509</v>
+      </c>
+    </row>
+    <row r="125" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I125">
+        <v>9.4999999999999822</v>
+      </c>
+      <c r="J125">
+        <v>864.499999999995</v>
+      </c>
+      <c r="K125" cm="1">
+        <f t="array" ref="K125">fInterp($F$7:$F$18,_nData,I125)</f>
+        <v>864.499999999995</v>
+      </c>
+    </row>
+    <row r="126" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I126">
+        <v>9.5999999999999819</v>
+      </c>
+      <c r="J126">
+        <v>891.59999999999491</v>
+      </c>
+      <c r="K126" cm="1">
+        <f t="array" ref="K126">fInterp($F$7:$F$18,_nData,I126)</f>
+        <v>891.59999999999491</v>
+      </c>
+    </row>
+    <row r="127" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I127">
+        <v>9.6999999999999815</v>
+      </c>
+      <c r="J127">
+        <v>918.69999999999482</v>
+      </c>
+      <c r="K127" cm="1">
+        <f t="array" ref="K127">fInterp($F$7:$F$18,_nData,I127)</f>
+        <v>918.69999999999482</v>
+      </c>
+    </row>
+    <row r="128" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I128">
+        <v>9.7999999999999812</v>
+      </c>
+      <c r="J128">
+        <v>945.79999999999472</v>
+      </c>
+      <c r="K128" cm="1">
+        <f t="array" ref="K128">fInterp($F$7:$F$18,_nData,I128)</f>
+        <v>945.79999999999472</v>
+      </c>
+    </row>
+    <row r="129" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I129">
+        <v>9.8999999999999808</v>
+      </c>
+      <c r="J129">
+        <v>972.89999999999463</v>
+      </c>
+      <c r="K129" cm="1">
+        <f t="array" ref="K129">fInterp($F$7:$F$18,_nData,I129)</f>
+        <v>972.89999999999463</v>
+      </c>
+    </row>
+    <row r="130" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I130">
+        <v>9.9999999999999805</v>
+      </c>
+      <c r="J130">
+        <v>999.99999999999363</v>
+      </c>
+      <c r="K130" cm="1">
+        <f t="array" ref="K130">fInterp($F$7:$F$18,_nData,I130)</f>
+        <v>999.99999999999363</v>
+      </c>
+    </row>
+    <row r="131" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I131">
+        <v>10.09999999999998</v>
+      </c>
+      <c r="J131">
+        <v>1033.0999999999935</v>
+      </c>
+      <c r="K131" cm="1">
+        <f t="array" ref="K131">fInterp($F$7:$F$18,_nData,I131)</f>
+        <v>1033.0999999999935</v>
+      </c>
+    </row>
+    <row r="132" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I132">
+        <v>10.19999999999998</v>
+      </c>
+      <c r="J132">
+        <v>1066.1999999999935</v>
+      </c>
+      <c r="K132" cm="1">
+        <f t="array" ref="K132">fInterp($F$7:$F$18,_nData,I132)</f>
+        <v>1066.1999999999935</v>
+      </c>
+    </row>
+    <row r="133" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I133">
+        <v>10.299999999999979</v>
+      </c>
+      <c r="J133">
+        <v>1099.2999999999934</v>
+      </c>
+      <c r="K133" cm="1">
+        <f t="array" ref="K133">fInterp($F$7:$F$18,_nData,I133)</f>
+        <v>1099.2999999999934</v>
+      </c>
+    </row>
+    <row r="134" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I134">
+        <v>10.399999999999979</v>
+      </c>
+      <c r="J134">
+        <v>1132.3999999999933</v>
+      </c>
+      <c r="K134" cm="1">
+        <f t="array" ref="K134">fInterp($F$7:$F$18,_nData,I134)</f>
+        <v>1132.3999999999933</v>
+      </c>
+    </row>
+    <row r="135" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I135">
+        <v>10.499999999999979</v>
+      </c>
+      <c r="J135">
+        <v>1165.4999999999927</v>
+      </c>
+      <c r="K135" cm="1">
+        <f t="array" ref="K135">fInterp($F$7:$F$18,_nData,I135)</f>
+        <v>1165.4999999999927</v>
+      </c>
+    </row>
+    <row r="136" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I136">
+        <v>10.599999999999978</v>
+      </c>
+      <c r="J136">
+        <v>1198.5999999999926</v>
+      </c>
+      <c r="K136" cm="1">
+        <f t="array" ref="K136">fInterp($F$7:$F$18,_nData,I136)</f>
+        <v>1198.5999999999926</v>
+      </c>
+    </row>
+    <row r="137" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I137">
+        <v>10.699999999999978</v>
+      </c>
+      <c r="J137">
+        <v>1231.6999999999925</v>
+      </c>
+      <c r="K137" cm="1">
+        <f t="array" ref="K137">fInterp($F$7:$F$18,_nData,I137)</f>
+        <v>1231.6999999999925</v>
+      </c>
+    </row>
+    <row r="138" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I138">
+        <v>10.799999999999978</v>
+      </c>
+      <c r="J138">
+        <v>1264.7999999999925</v>
+      </c>
+      <c r="K138" cm="1">
+        <f t="array" ref="K138">fInterp($F$7:$F$18,_nData,I138)</f>
+        <v>1264.7999999999925</v>
+      </c>
+    </row>
+    <row r="139" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I139">
+        <v>10.899999999999977</v>
+      </c>
+      <c r="J139">
+        <v>1297.8999999999924</v>
+      </c>
+      <c r="K139" cm="1">
+        <f t="array" ref="K139">fInterp($F$7:$F$18,_nData,I139)</f>
+        <v>1297.8999999999924</v>
+      </c>
+    </row>
+    <row r="140" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I140">
+        <v>10.999999999999977</v>
+      </c>
+      <c r="J140">
+        <v>1330.9999999999909</v>
+      </c>
+      <c r="K140" cm="1">
+        <f t="array" ref="K140">fInterp($F$7:$F$18,_nData,I140)</f>
+        <v>1330.9999999999909</v>
+      </c>
+    </row>
+    <row r="141" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I141">
+        <v>11.099999999999977</v>
+      </c>
+      <c r="J141">
+        <v>1370.6999999999907</v>
+      </c>
+      <c r="K141" cm="1">
+        <f t="array" ref="K141">fInterp($F$7:$F$18,_nData,I141)</f>
+        <v>1370.6999999999907</v>
+      </c>
+    </row>
+    <row r="142" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I142">
+        <v>11.199999999999976</v>
+      </c>
+      <c r="J142">
+        <v>1410.3999999999905</v>
+      </c>
+      <c r="K142" cm="1">
+        <f t="array" ref="K142">fInterp($F$7:$F$18,_nData,I142)</f>
+        <v>1410.3999999999905</v>
+      </c>
+    </row>
+    <row r="143" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I143">
+        <v>11.299999999999976</v>
+      </c>
+      <c r="J143">
+        <v>1450.0999999999904</v>
+      </c>
+      <c r="K143" cm="1">
+        <f t="array" ref="K143">fInterp($F$7:$F$18,_nData,I143)</f>
+        <v>1450.0999999999904</v>
+      </c>
+    </row>
+    <row r="144" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I144">
+        <v>11.399999999999975</v>
+      </c>
+      <c r="J144">
+        <v>1489.7999999999902</v>
+      </c>
+      <c r="K144" cm="1">
+        <f t="array" ref="K144">fInterp($F$7:$F$18,_nData,I144)</f>
+        <v>1489.7999999999902</v>
+      </c>
+    </row>
+    <row r="145" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I145">
+        <v>11.499999999999975</v>
+      </c>
+      <c r="J145">
+        <v>1529.49999999999</v>
+      </c>
+      <c r="K145" cm="1">
+        <f t="array" ref="K145">fInterp($F$7:$F$18,_nData,I145)</f>
+        <v>1529.49999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I146">
+        <v>11.599999999999975</v>
+      </c>
+      <c r="J146">
+        <v>1569.1999999999898</v>
+      </c>
+      <c r="K146" cm="1">
+        <f t="array" ref="K146">fInterp($F$7:$F$18,_nData,I146)</f>
+        <v>1569.1999999999898</v>
+      </c>
+    </row>
+    <row r="147" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I147">
+        <v>11.699999999999974</v>
+      </c>
+      <c r="J147">
+        <v>1608.8999999999896</v>
+      </c>
+      <c r="K147" cm="1">
+        <f t="array" ref="K147">fInterp($F$7:$F$18,_nData,I147)</f>
+        <v>1608.8999999999896</v>
+      </c>
+    </row>
+    <row r="148" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I148">
+        <v>11.799999999999974</v>
+      </c>
+      <c r="J148">
+        <v>1648.5999999999894</v>
+      </c>
+      <c r="K148" cm="1">
+        <f t="array" ref="K148">fInterp($F$7:$F$18,_nData,I148)</f>
+        <v>1648.5999999999894</v>
+      </c>
+    </row>
+    <row r="149" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I149">
+        <v>11.899999999999974</v>
+      </c>
+      <c r="J149">
+        <v>1688.2999999999893</v>
+      </c>
+      <c r="K149" cm="1">
+        <f t="array" ref="K149">fInterp($F$7:$F$18,_nData,I149)</f>
+        <v>1688.2999999999893</v>
+      </c>
+    </row>
+    <row r="150" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I150">
+        <v>11.999999999999973</v>
+      </c>
+      <c r="J150">
+        <v>1727.9999999999891</v>
+      </c>
+      <c r="K150" cm="1">
+        <f t="array" ref="K150">fInterp($F$7:$F$18,_nData,I150)</f>
+        <v>1727.9999999999891</v>
+      </c>
+    </row>
+    <row r="151" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I151">
+        <v>12.099999999999973</v>
+      </c>
+      <c r="J151">
+        <v>1767.6999999999889</v>
+      </c>
+      <c r="K151" cm="1">
+        <f t="array" ref="K151">fInterp($F$7:$F$18,_nData,I151)</f>
+        <v>1767.6999999999889</v>
+      </c>
+    </row>
+    <row r="152" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I152">
+        <v>12.199999999999973</v>
+      </c>
+      <c r="J152">
+        <v>1807.3999999999887</v>
+      </c>
+      <c r="K152" cm="1">
+        <f t="array" ref="K152">fInterp($F$7:$F$18,_nData,I152)</f>
+        <v>1807.3999999999887</v>
+      </c>
+    </row>
+    <row r="153" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I153">
+        <v>12.299999999999972</v>
+      </c>
+      <c r="J153">
+        <v>1847.0999999999894</v>
+      </c>
+      <c r="K153" cm="1">
+        <f t="array" ref="K153">fInterp($F$7:$F$18,_nData,I153)</f>
+        <v>1847.0999999999894</v>
+      </c>
+    </row>
+    <row r="154" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I154">
+        <v>12.399999999999972</v>
+      </c>
+      <c r="J154">
+        <v>1886.7999999999893</v>
+      </c>
+      <c r="K154" cm="1">
+        <f t="array" ref="K154">fInterp($F$7:$F$18,_nData,I154)</f>
+        <v>1886.7999999999893</v>
+      </c>
+    </row>
+    <row r="155" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I155">
+        <v>12.499999999999972</v>
+      </c>
+      <c r="J155">
+        <v>1926.4999999999891</v>
+      </c>
+      <c r="K155" cm="1">
+        <f t="array" ref="K155">fInterp($F$7:$F$18,_nData,I155)</f>
+        <v>1926.4999999999891</v>
+      </c>
+    </row>
+    <row r="156" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I156">
+        <v>12.599999999999971</v>
+      </c>
+      <c r="J156">
+        <v>1966.1999999999889</v>
+      </c>
+      <c r="K156" cm="1">
+        <f t="array" ref="K156">fInterp($F$7:$F$18,_nData,I156)</f>
+        <v>1966.1999999999889</v>
+      </c>
+    </row>
+    <row r="157" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I157">
+        <v>12.699999999999971</v>
+      </c>
+      <c r="J157">
+        <v>2005.8999999999887</v>
+      </c>
+      <c r="K157" cm="1">
+        <f t="array" ref="K157">fInterp($F$7:$F$18,_nData,I157)</f>
+        <v>2005.8999999999887</v>
+      </c>
+    </row>
+    <row r="158" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I158">
+        <v>12.799999999999971</v>
+      </c>
+      <c r="J158">
+        <v>2045.5999999999885</v>
+      </c>
+      <c r="K158" cm="1">
+        <f t="array" ref="K158">fInterp($F$7:$F$18,_nData,I158)</f>
+        <v>2045.5999999999885</v>
+      </c>
+    </row>
+    <row r="159" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I159">
+        <v>12.89999999999997</v>
+      </c>
+      <c r="J159">
+        <v>2085.2999999999884</v>
+      </c>
+      <c r="K159" cm="1">
+        <f t="array" ref="K159">fInterp($F$7:$F$18,_nData,I159)</f>
+        <v>2085.2999999999884</v>
+      </c>
+    </row>
+    <row r="160" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I160">
+        <v>12.99999999999997</v>
+      </c>
+      <c r="J160">
+        <v>2124.9999999999882</v>
+      </c>
+      <c r="K160" cm="1">
+        <f t="array" ref="K160">fInterp($F$7:$F$18,_nData,I160)</f>
+        <v>2124.9999999999882</v>
+      </c>
+    </row>
+    <row r="161" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I161">
+        <v>13.099999999999969</v>
+      </c>
+      <c r="J161">
+        <v>2164.699999999988</v>
+      </c>
+      <c r="K161" cm="1">
+        <f t="array" ref="K161">fInterp($F$7:$F$18,_nData,I161)</f>
+        <v>2164.699999999988</v>
+      </c>
+    </row>
+    <row r="162" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I162">
+        <v>13.199999999999969</v>
+      </c>
+      <c r="J162">
+        <v>2204.3999999999878</v>
+      </c>
+      <c r="K162" cm="1">
+        <f t="array" ref="K162">fInterp($F$7:$F$18,_nData,I162)</f>
+        <v>2204.3999999999878</v>
+      </c>
+    </row>
+    <row r="163" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I163">
+        <v>13.299999999999969</v>
+      </c>
+      <c r="J163">
+        <v>2244.0999999999876</v>
+      </c>
+      <c r="K163" cm="1">
+        <f t="array" ref="K163">fInterp($F$7:$F$18,_nData,I163)</f>
+        <v>2244.0999999999876</v>
+      </c>
+    </row>
+    <row r="164" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I164">
+        <v>13.399999999999968</v>
+      </c>
+      <c r="J164">
+        <v>2283.7999999999874</v>
+      </c>
+      <c r="K164" cm="1">
+        <f t="array" ref="K164">fInterp($F$7:$F$18,_nData,I164)</f>
+        <v>2283.7999999999874</v>
+      </c>
+    </row>
+    <row r="165" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I165">
+        <v>13.499999999999968</v>
+      </c>
+      <c r="J165">
+        <v>2323.4999999999873</v>
+      </c>
+      <c r="K165" cm="1">
+        <f t="array" ref="K165">fInterp($F$7:$F$18,_nData,I165)</f>
+        <v>2323.4999999999873</v>
+      </c>
+    </row>
+    <row r="166" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I166">
+        <v>13.599999999999968</v>
+      </c>
+      <c r="J166">
+        <v>2363.1999999999871</v>
+      </c>
+      <c r="K166" cm="1">
+        <f t="array" ref="K166">fInterp($F$7:$F$18,_nData,I166)</f>
+        <v>2363.1999999999871</v>
+      </c>
+    </row>
+    <row r="167" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I167">
+        <v>13.699999999999967</v>
+      </c>
+      <c r="J167">
+        <v>2402.8999999999869</v>
+      </c>
+      <c r="K167" cm="1">
+        <f t="array" ref="K167">fInterp($F$7:$F$18,_nData,I167)</f>
+        <v>2402.8999999999869</v>
+      </c>
+    </row>
+    <row r="168" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I168">
+        <v>13.799999999999967</v>
+      </c>
+      <c r="J168">
+        <v>2442.5999999999867</v>
+      </c>
+      <c r="K168" cm="1">
+        <f t="array" ref="K168">fInterp($F$7:$F$18,_nData,I168)</f>
+        <v>2442.5999999999867</v>
+      </c>
+    </row>
+    <row r="169" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I169">
+        <v>13.899999999999967</v>
+      </c>
+      <c r="J169">
+        <v>2482.2999999999865</v>
+      </c>
+      <c r="K169" cm="1">
+        <f t="array" ref="K169">fInterp($F$7:$F$18,_nData,I169)</f>
+        <v>2482.2999999999865</v>
+      </c>
+    </row>
+    <row r="170" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I170">
+        <v>13.999999999999966</v>
+      </c>
+      <c r="J170">
+        <v>2521.9999999999864</v>
+      </c>
+      <c r="K170" cm="1">
+        <f t="array" ref="K170">fInterp($F$7:$F$18,_nData,I170)</f>
+        <v>2521.9999999999864</v>
+      </c>
+    </row>
+    <row r="171" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I171">
+        <v>14.099999999999966</v>
+      </c>
+      <c r="J171">
+        <v>2561.6999999999862</v>
+      </c>
+      <c r="K171" cm="1">
+        <f t="array" ref="K171">fInterp($F$7:$F$18,_nData,I171)</f>
+        <v>2561.6999999999862</v>
+      </c>
+    </row>
+    <row r="172" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I172">
+        <v>14.199999999999966</v>
+      </c>
+      <c r="J172">
+        <v>2601.399999999986</v>
+      </c>
+      <c r="K172" cm="1">
+        <f t="array" ref="K172">fInterp($F$7:$F$18,_nData,I172)</f>
+        <v>2601.399999999986</v>
+      </c>
+    </row>
+    <row r="173" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I173">
+        <v>14.299999999999965</v>
+      </c>
+      <c r="J173">
+        <v>2641.0999999999858</v>
+      </c>
+      <c r="K173" cm="1">
+        <f t="array" ref="K173">fInterp($F$7:$F$18,_nData,I173)</f>
+        <v>2641.0999999999858</v>
+      </c>
+    </row>
+    <row r="174" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I174">
+        <v>14.399999999999965</v>
+      </c>
+      <c r="J174">
+        <v>2680.7999999999856</v>
+      </c>
+      <c r="K174" cm="1">
+        <f t="array" ref="K174">fInterp($F$7:$F$18,_nData,I174)</f>
+        <v>2680.7999999999856</v>
+      </c>
+    </row>
+    <row r="175" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I175">
+        <v>14.499999999999964</v>
+      </c>
+      <c r="J175">
+        <v>2720.4999999999854</v>
+      </c>
+      <c r="K175" cm="1">
+        <f t="array" ref="K175">fInterp($F$7:$F$18,_nData,I175)</f>
+        <v>2720.4999999999854</v>
+      </c>
+    </row>
+    <row r="176" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I176">
+        <v>14.599999999999964</v>
+      </c>
+      <c r="J176">
+        <v>2760.1999999999862</v>
+      </c>
+      <c r="K176" cm="1">
+        <f t="array" ref="K176">fInterp($F$7:$F$18,_nData,I176)</f>
+        <v>2760.1999999999862</v>
+      </c>
+    </row>
+    <row r="177" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I177">
+        <v>14.699999999999964</v>
+      </c>
+      <c r="J177">
+        <v>2799.899999999986</v>
+      </c>
+      <c r="K177" cm="1">
+        <f t="array" ref="K177">fInterp($F$7:$F$18,_nData,I177)</f>
+        <v>2799.899999999986</v>
+      </c>
+    </row>
+    <row r="178" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I178">
+        <v>14.799999999999963</v>
+      </c>
+      <c r="J178">
+        <v>2839.5999999999858</v>
+      </c>
+      <c r="K178" cm="1">
+        <f t="array" ref="K178">fInterp($F$7:$F$18,_nData,I178)</f>
+        <v>2839.5999999999858</v>
+      </c>
+    </row>
+    <row r="179" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I179">
+        <v>14.899999999999963</v>
+      </c>
+      <c r="J179">
+        <v>2879.2999999999856</v>
+      </c>
+      <c r="K179" cm="1">
+        <f t="array" ref="K179">fInterp($F$7:$F$18,_nData,I179)</f>
+        <v>2879.2999999999856</v>
+      </c>
+    </row>
+    <row r="180" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I180">
+        <v>14.999999999999963</v>
+      </c>
+      <c r="J180">
+        <v>2918.9999999999854</v>
+      </c>
+      <c r="K180" cm="1">
+        <f t="array" ref="K180">fInterp($F$7:$F$18,_nData,I180)</f>
+        <v>2918.9999999999854</v>
+      </c>
+    </row>
+    <row r="181" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I181">
+        <v>15.099999999999962</v>
+      </c>
+      <c r="J181">
+        <v>2958.6999999999853</v>
+      </c>
+      <c r="K181" cm="1">
+        <f t="array" ref="K181">fInterp($F$7:$F$18,_nData,I181)</f>
+        <v>2958.6999999999853</v>
+      </c>
+    </row>
+    <row r="182" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I182">
+        <v>15.199999999999962</v>
+      </c>
+      <c r="J182">
+        <v>2998.3999999999851</v>
+      </c>
+      <c r="K182" cm="1">
+        <f t="array" ref="K182">fInterp($F$7:$F$18,_nData,I182)</f>
+        <v>2998.3999999999851</v>
+      </c>
+    </row>
+    <row r="183" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I183">
+        <v>15.299999999999962</v>
+      </c>
+      <c r="J183">
+        <v>3038.0999999999849</v>
+      </c>
+      <c r="K183" cm="1">
+        <f t="array" ref="K183">fInterp($F$7:$F$18,_nData,I183)</f>
+        <v>3038.0999999999849</v>
+      </c>
+    </row>
+    <row r="184" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I184">
+        <v>15.399999999999961</v>
+      </c>
+      <c r="J184">
+        <v>3077.7999999999847</v>
+      </c>
+      <c r="K184" cm="1">
+        <f t="array" ref="K184">fInterp($F$7:$F$18,_nData,I184)</f>
+        <v>3077.7999999999847</v>
+      </c>
+    </row>
+    <row r="185" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I185">
+        <v>15.499999999999961</v>
+      </c>
+      <c r="J185">
+        <v>3117.4999999999845</v>
+      </c>
+      <c r="K185" cm="1">
+        <f t="array" ref="K185">fInterp($F$7:$F$18,_nData,I185)</f>
+        <v>3117.4999999999845</v>
+      </c>
+    </row>
+    <row r="186" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I186">
+        <v>15.599999999999961</v>
+      </c>
+      <c r="J186">
+        <v>3157.1999999999844</v>
+      </c>
+      <c r="K186" cm="1">
+        <f t="array" ref="K186">fInterp($F$7:$F$18,_nData,I186)</f>
+        <v>3157.1999999999844</v>
+      </c>
+    </row>
+    <row r="187" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I187">
+        <v>15.69999999999996</v>
+      </c>
+      <c r="J187">
+        <v>3196.8999999999842</v>
+      </c>
+      <c r="K187" cm="1">
+        <f t="array" ref="K187">fInterp($F$7:$F$18,_nData,I187)</f>
+        <v>3196.8999999999842</v>
+      </c>
+    </row>
+    <row r="188" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I188">
+        <v>15.79999999999996</v>
+      </c>
+      <c r="J188">
+        <v>3236.599999999984</v>
+      </c>
+      <c r="K188" cm="1">
+        <f t="array" ref="K188">fInterp($F$7:$F$18,_nData,I188)</f>
+        <v>3236.599999999984</v>
+      </c>
+    </row>
+    <row r="189" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I189">
+        <v>15.899999999999959</v>
+      </c>
+      <c r="J189">
+        <v>3276.2999999999838</v>
+      </c>
+      <c r="K189" cm="1">
+        <f t="array" ref="K189">fInterp($F$7:$F$18,_nData,I189)</f>
+        <v>3276.2999999999838</v>
+      </c>
+    </row>
+    <row r="190" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I190">
+        <v>15.999999999999959</v>
+      </c>
+      <c r="J190">
+        <v>3315.9999999999836</v>
+      </c>
+      <c r="K190" cm="1">
+        <f t="array" ref="K190">fInterp($F$7:$F$18,_nData,I190)</f>
+        <v>3315.9999999999836</v>
+      </c>
+    </row>
+    <row r="191" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I191">
+        <v>16.099999999999959</v>
+      </c>
+      <c r="J191">
+        <v>3355.6999999999834</v>
+      </c>
+      <c r="K191" cm="1">
+        <f t="array" ref="K191">fInterp($F$7:$F$18,_nData,I191)</f>
+        <v>3355.6999999999834</v>
+      </c>
+    </row>
+    <row r="192" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I192">
+        <v>16.19999999999996</v>
+      </c>
+      <c r="J192">
+        <v>3395.3999999999842</v>
+      </c>
+      <c r="K192" cm="1">
+        <f t="array" ref="K192">fInterp($F$7:$F$18,_nData,I192)</f>
+        <v>3395.3999999999842</v>
+      </c>
+    </row>
+    <row r="193" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I193">
+        <v>16.299999999999962</v>
+      </c>
+      <c r="J193">
+        <v>3435.0999999999849</v>
+      </c>
+      <c r="K193" cm="1">
+        <f t="array" ref="K193">fInterp($F$7:$F$18,_nData,I193)</f>
+        <v>3435.0999999999849</v>
+      </c>
+    </row>
+    <row r="194" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I194">
+        <v>16.399999999999963</v>
+      </c>
+      <c r="J194">
+        <v>3474.7999999999856</v>
+      </c>
+      <c r="K194" cm="1">
+        <f t="array" ref="K194">fInterp($F$7:$F$18,_nData,I194)</f>
+        <v>3474.7999999999856</v>
+      </c>
+    </row>
+    <row r="195" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I195">
+        <v>16.499999999999964</v>
+      </c>
+      <c r="J195">
+        <v>3514.4999999999854</v>
+      </c>
+      <c r="K195" cm="1">
+        <f t="array" ref="K195">fInterp($F$7:$F$18,_nData,I195)</f>
+        <v>3514.4999999999854</v>
+      </c>
+    </row>
+    <row r="196" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I196">
+        <v>16.599999999999966</v>
+      </c>
+      <c r="J196">
+        <v>3554.1999999999862</v>
+      </c>
+      <c r="K196" cm="1">
+        <f t="array" ref="K196">fInterp($F$7:$F$18,_nData,I196)</f>
+        <v>3554.1999999999862</v>
+      </c>
+    </row>
+    <row r="197" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I197">
+        <v>16.699999999999967</v>
+      </c>
+      <c r="J197">
+        <v>3593.8999999999869</v>
+      </c>
+      <c r="K197" cm="1">
+        <f t="array" ref="K197">fInterp($F$7:$F$18,_nData,I197)</f>
+        <v>3593.8999999999869</v>
+      </c>
+    </row>
+    <row r="198" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I198">
+        <v>16.799999999999969</v>
+      </c>
+      <c r="J198">
+        <v>3633.5999999999876</v>
+      </c>
+      <c r="K198" cm="1">
+        <f t="array" ref="K198">fInterp($F$7:$F$18,_nData,I198)</f>
+        <v>3633.5999999999876</v>
+      </c>
+    </row>
+    <row r="199" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I199">
+        <v>16.89999999999997</v>
+      </c>
+      <c r="J199">
+        <v>3673.2999999999884</v>
+      </c>
+      <c r="K199" cm="1">
+        <f t="array" ref="K199">fInterp($F$7:$F$18,_nData,I199)</f>
+        <v>3673.2999999999884</v>
+      </c>
+    </row>
+    <row r="200" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I200">
+        <v>16.999999999999972</v>
+      </c>
+      <c r="J200">
+        <v>3712.9999999999891</v>
+      </c>
+      <c r="K200" cm="1">
+        <f t="array" ref="K200">fInterp($F$7:$F$18,_nData,I200)</f>
+        <v>3712.9999999999891</v>
+      </c>
+    </row>
+    <row r="201" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I201">
+        <v>17.099999999999973</v>
+      </c>
+      <c r="J201">
+        <v>3752.6999999999889</v>
+      </c>
+      <c r="K201" cm="1">
+        <f t="array" ref="K201">fInterp($F$7:$F$18,_nData,I201)</f>
+        <v>3752.6999999999889</v>
+      </c>
+    </row>
+    <row r="202" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I202">
+        <v>17.199999999999974</v>
+      </c>
+      <c r="J202">
+        <v>3792.3999999999896</v>
+      </c>
+      <c r="K202" cm="1">
+        <f t="array" ref="K202">fInterp($F$7:$F$18,_nData,I202)</f>
+        <v>3792.3999999999896</v>
+      </c>
+    </row>
+    <row r="203" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I203">
+        <v>17.299999999999976</v>
+      </c>
+      <c r="J203">
+        <v>3832.0999999999904</v>
+      </c>
+      <c r="K203" cm="1">
+        <f t="array" ref="K203">fInterp($F$7:$F$18,_nData,I203)</f>
+        <v>3832.0999999999904</v>
+      </c>
+    </row>
+    <row r="204" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I204">
+        <v>17.399999999999977</v>
+      </c>
+      <c r="J204">
+        <v>3871.7999999999911</v>
+      </c>
+      <c r="K204" cm="1">
+        <f t="array" ref="K204">fInterp($F$7:$F$18,_nData,I204)</f>
+        <v>3871.7999999999911</v>
+      </c>
+    </row>
+    <row r="205" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I205">
+        <v>17.499999999999979</v>
+      </c>
+      <c r="J205">
+        <v>3911.4999999999918</v>
+      </c>
+      <c r="K205" cm="1">
+        <f t="array" ref="K205">fInterp($F$7:$F$18,_nData,I205)</f>
+        <v>3911.4999999999918</v>
+      </c>
+    </row>
+    <row r="206" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I206">
+        <v>17.59999999999998</v>
+      </c>
+      <c r="J206">
+        <v>3951.1999999999925</v>
+      </c>
+      <c r="K206" cm="1">
+        <f t="array" ref="K206">fInterp($F$7:$F$18,_nData,I206)</f>
+        <v>3951.1999999999925</v>
+      </c>
+    </row>
+    <row r="207" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I207">
+        <v>17.699999999999982</v>
+      </c>
+      <c r="J207">
+        <v>3990.8999999999924</v>
+      </c>
+      <c r="K207" cm="1">
+        <f t="array" ref="K207">fInterp($F$7:$F$18,_nData,I207)</f>
+        <v>3990.8999999999924</v>
+      </c>
+    </row>
+    <row r="208" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I208">
+        <v>17.799999999999983</v>
+      </c>
+      <c r="J208">
+        <v>4030.5999999999931</v>
+      </c>
+      <c r="K208" cm="1">
+        <f t="array" ref="K208">fInterp($F$7:$F$18,_nData,I208)</f>
+        <v>4030.5999999999931</v>
+      </c>
+    </row>
+    <row r="209" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I209">
+        <v>17.899999999999984</v>
+      </c>
+      <c r="J209">
+        <v>4070.2999999999938</v>
+      </c>
+      <c r="K209" cm="1">
+        <f t="array" ref="K209">fInterp($F$7:$F$18,_nData,I209)</f>
+        <v>4070.2999999999938</v>
+      </c>
+    </row>
+    <row r="210" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I210">
+        <v>17.999999999999986</v>
+      </c>
+      <c r="J210">
+        <v>4109.9999999999945</v>
+      </c>
+      <c r="K210" cm="1">
+        <f t="array" ref="K210">fInterp($F$7:$F$18,_nData,I210)</f>
+        <v>4109.9999999999945</v>
+      </c>
+    </row>
+    <row r="211" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I211">
+        <v>18.099999999999987</v>
+      </c>
+      <c r="J211">
+        <v>4149.6999999999953</v>
+      </c>
+      <c r="K211" cm="1">
+        <f t="array" ref="K211">fInterp($F$7:$F$18,_nData,I211)</f>
+        <v>4149.6999999999953</v>
+      </c>
+    </row>
+    <row r="212" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I212">
+        <v>18.199999999999989</v>
+      </c>
+      <c r="J212">
+        <v>4189.3999999999951</v>
+      </c>
+      <c r="K212" cm="1">
+        <f t="array" ref="K212">fInterp($F$7:$F$18,_nData,I212)</f>
+        <v>4189.3999999999951</v>
+      </c>
+    </row>
+    <row r="213" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I213">
+        <v>18.29999999999999</v>
+      </c>
+      <c r="J213">
+        <v>4229.0999999999958</v>
+      </c>
+      <c r="K213" cm="1">
+        <f t="array" ref="K213">fInterp($F$7:$F$18,_nData,I213)</f>
+        <v>4229.0999999999958</v>
+      </c>
+    </row>
+    <row r="214" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I214">
+        <v>18.399999999999991</v>
+      </c>
+      <c r="J214">
+        <v>4268.7999999999965</v>
+      </c>
+      <c r="K214" cm="1">
+        <f t="array" ref="K214">fInterp($F$7:$F$18,_nData,I214)</f>
+        <v>4268.7999999999965</v>
+      </c>
+    </row>
+    <row r="215" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I215">
+        <v>18.499999999999993</v>
+      </c>
+      <c r="J215">
+        <v>4308.4999999999973</v>
+      </c>
+      <c r="K215" cm="1">
+        <f t="array" ref="K215">fInterp($F$7:$F$18,_nData,I215)</f>
+        <v>4308.4999999999973</v>
+      </c>
+    </row>
+    <row r="216" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I216">
+        <v>18.599999999999994</v>
+      </c>
+      <c r="J216">
+        <v>4348.199999999998</v>
+      </c>
+      <c r="K216" cm="1">
+        <f t="array" ref="K216">fInterp($F$7:$F$18,_nData,I216)</f>
+        <v>4348.199999999998</v>
+      </c>
+    </row>
+    <row r="217" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I217">
+        <v>18.699999999999996</v>
+      </c>
+      <c r="J217">
+        <v>4387.8999999999987</v>
+      </c>
+      <c r="K217" cm="1">
+        <f t="array" ref="K217">fInterp($F$7:$F$18,_nData,I217)</f>
+        <v>4387.8999999999987</v>
+      </c>
+    </row>
+    <row r="218" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I218">
+        <v>18.799999999999997</v>
+      </c>
+      <c r="J218">
+        <v>4427.5999999999985</v>
+      </c>
+      <c r="K218" cm="1">
+        <f t="array" ref="K218">fInterp($F$7:$F$18,_nData,I218)</f>
+        <v>4427.5999999999985</v>
+      </c>
+    </row>
+    <row r="219" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I219">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="J219">
+        <v>4467.2999999999993</v>
+      </c>
+      <c r="K219" cm="1">
+        <f t="array" ref="K219">fInterp($F$7:$F$18,_nData,I219)</f>
+        <v>4467.2999999999993</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E13436D-CE0C-4639-B951-C1B98556791F}">
-  <sheetPr>
-    <tabColor theme="0" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>22-Aug-2024</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>